--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1073.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1073.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/38 от 06-12-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7332,13 +7330,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9137,26 +9135,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9261,7 +9259,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0009900000000000048</v>
+        <v>0.0001650000000000054</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0009900000000000048</v>
+        <v>0.0001650000000000054</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.0002999999999999947</v>
+        <v>0.02052718197020717</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0004428700758649922</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02400509551925228</v>
+        <v>0.02345952516654204</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0002934200819279858</v>
+        <v>0.0003127913229347105</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.008559400665973542</v>
+        <v>0.009258127250950973</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005701987410316041</v>
+        <v>0.0006172038543331061</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.008559400665973542</v>
+        <v>0.009258127250950973</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005701987410316041</v>
+        <v>0.0006172038543331061</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.0194468039717752</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0004593905169928219</v>
+        <v>0.001165447568065769</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001000295733845407</v>
+        <v>0.001091132521865268</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9356,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.01542089932555128</v>
+        <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001359823823185594</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01542089932555128</v>
+        <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001359823823185594</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.03534106703911127</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001276084769424506</v>
+        <v>0.001823848204369373</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.06322804046395525</v>
+        <v>0.05839070645702232</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001352334269253419</v>
+        <v>0.001823101319482936</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.0183447921788927</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.002744536464241311</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.0183447921788927</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.002744536464241311</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.042432435496847</v>
+        <v>0.03833218284935372</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002032659027532076</v>
+        <v>0.00273577230655406</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.06248865633711503</v>
+        <v>0.05699942157280796</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002028501403880129</v>
+        <v>0.002734651979224404</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.0195898551261199</v>
+        <v>0.01765727468465181</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002719647646371187</v>
+        <v>0.003659381952321748</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0195898551261199</v>
+        <v>0.01765727468465181</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002719647646371187</v>
+        <v>0.003659381952321748</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03960472260801096</v>
+        <v>0.03826453596798096</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002710212036709434</v>
+        <v>0.003647696408738747</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06052050187194408</v>
+        <v>0.05628323866029988</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002704668538506838</v>
+        <v>0.003646202638965872</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005701987410316041</v>
+        <v>0.0006172038543331061</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008559400665973542</v>
+        <v>0.009258127250950973</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01954265363190959</v>
+        <v>0.01816646107784635</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003399559557963984</v>
+        <v>0.004574227440402184</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01954265363190959</v>
+        <v>0.01816646107784635</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003399559557963984</v>
+        <v>0.004574227440402184</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0470481756040742</v>
+        <v>0.03789054689402832</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003387765045886792</v>
+        <v>0.004559620510923433</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0732545407308281</v>
+        <v>0.05625957015853311</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003380835673133548</v>
+        <v>0.00455775329870734</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02178019288468638</v>
+        <v>0.01854112750261182</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004079471469556781</v>
+        <v>0.005489072928482623</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02178019288468638</v>
+        <v>0.01854112750261182</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004079471469556781</v>
+        <v>0.005489072928482623</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04919894630322053</v>
+        <v>0.03693418296264284</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004065318055064151</v>
+        <v>0.005471544613108121</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06781333981536447</v>
+        <v>0.05782812195955622</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004057002807760258</v>
+        <v>0.005469303958448808</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02179929846947838</v>
+        <v>0.01951621678444281</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004759383381149578</v>
+        <v>0.006403918416563059</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02179929846947838</v>
+        <v>0.01951621678444281</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.004759383381149578</v>
+        <v>0.006403918416563059</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04434860275531924</v>
+        <v>0.03730643280002921</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004742871064241509</v>
+        <v>0.006383468715292807</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07543524031284327</v>
+        <v>0.06049978108115606</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004733169942386967</v>
+        <v>0.006380854618190275</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02307956845998792</v>
+        <v>0.01912169953027694</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005439295292742375</v>
+        <v>0.007318763904643496</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02307956845998792</v>
+        <v>0.01912169953027694</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005439295292742375</v>
+        <v>0.007318763904643496</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04757622320421317</v>
+        <v>0.03776788344595525</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005420424073418868</v>
+        <v>0.007295392817477493</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.076645805694814</v>
+        <v>0.05840041511435151</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005409337077013677</v>
+        <v>0.007292405277931744</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02468868965096069</v>
+        <v>0.01939898663759423</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006119207204335172</v>
+        <v>0.008233609392723934</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02468868965096069</v>
+        <v>0.01939898663759423</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006119207204335172</v>
+        <v>0.008233609392723934</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04953552323889743</v>
+        <v>0.04067957499784852</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006097977082596227</v>
+        <v>0.008207316919662181</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07860551539900396</v>
+        <v>0.05998332649751509</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006085504211640387</v>
+        <v>0.008203955937673212</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02600233269767364</v>
+        <v>0.01924500953062613</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006799119115927969</v>
+        <v>0.009148454880804369</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02600233269767364</v>
+        <v>0.01924500953062613</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.006799119115927969</v>
+        <v>0.009148454880804369</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05464816412782683</v>
+        <v>0.03960359823289328</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006775530091773584</v>
+        <v>0.009119241021846866</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.08386578900144775</v>
+        <v>0.06064647936276735</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.006761671346267097</v>
+        <v>0.009115506597414681</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02612289588163129</v>
+        <v>0.0188006727980112</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007479031027520765</v>
+        <v>0.01006330036888481</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02612289588163129</v>
+        <v>0.0188006727980112</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007479031027520765</v>
+        <v>0.01006330036888481</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05675374910341888</v>
+        <v>0.03914829785298291</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007453083100950943</v>
+        <v>0.01003116512403155</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08209798922801242</v>
+        <v>0.05894233982970698</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007437838480893806</v>
+        <v>0.01002705725715615</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02701037997509362</v>
+        <v>0.01908284673200752</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008158942939113562</v>
+        <v>0.01097814585696525</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02701037997509362</v>
+        <v>0.01908284673200752</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008158942939113562</v>
+        <v>0.01097814585696525</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05766526333501526</v>
+        <v>0.04004499896783126</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008130636110128302</v>
+        <v>0.01094308922621624</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08909797325759045</v>
+        <v>0.05884589996510603</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008114005615520515</v>
+        <v>0.01093860791689762</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02572530285334179</v>
+        <v>0.02006478713505436</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00883885485070636</v>
+        <v>0.01189299134504568</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02572530285334179</v>
+        <v>0.02006478713505436</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00883885485070636</v>
+        <v>0.01189299134504568</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05611886715005263</v>
+        <v>0.03959456754276647</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00880818911930566</v>
+        <v>0.01185501332840093</v>
       </c>
       <c r="N78" t="n">
-        <v>0.09065528121246413</v>
+        <v>0.05912302078202486</v>
       </c>
       <c r="O78" t="n">
-        <v>0.008790172750147224</v>
+        <v>0.01185015857663908</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0277539346265514</v>
+        <v>0.01965301647151736</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009518766762299156</v>
+        <v>0.01280783683312612</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0277539346265514</v>
+        <v>0.01965301647151736</v>
       </c>
       <c r="K79" t="n">
-        <v>0.009518766762299156</v>
+        <v>0.01280783683312612</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05526040630572171</v>
+        <v>0.03931306687120578</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009485742128483018</v>
+        <v>0.01276693743058561</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08609567846099264</v>
+        <v>0.05916503342935614</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009466339884773934</v>
+        <v>0.01276170923638055</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02728313092449994</v>
+        <v>0.02024567062461835</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01019867867389195</v>
+        <v>0.01372268232120656</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02728313092449994</v>
+        <v>0.02024567062461835</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01019867867389195</v>
+        <v>0.01372268232120656</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06210810608363254</v>
+        <v>0.03911707679601859</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01016329513766038</v>
+        <v>0.0136788615327703</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09118396111826449</v>
+        <v>0.06399737983864667</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01014250701940064</v>
+        <v>0.01367325989612202</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02938764927225644</v>
+        <v>0.01975583325211813</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01087859058548475</v>
+        <v>0.01463752780928699</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02938764927225644</v>
+        <v>0.01975583325211813</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01087859058548475</v>
+        <v>0.01463752780928699</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06085121101317609</v>
+        <v>0.04028330421005047</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01084084814683774</v>
+        <v>0.01459078563495499</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0984116496640009</v>
+        <v>0.059329196832346</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01081867415402735</v>
+        <v>0.01458481055586349</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02975230848971609</v>
+        <v>0.01935366562206775</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01155850249707755</v>
+        <v>0.01555237329736743</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02975230848971609</v>
+        <v>0.01935366562206775</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01155850249707755</v>
+        <v>0.01555237329736743</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05629831296838958</v>
+        <v>0.0418155675337778</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01151840115601509</v>
+        <v>0.01550270973713967</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08944353324594873</v>
+        <v>0.06081569904582546</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01149484128865406</v>
+        <v>0.01549636121560495</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02976812461925804</v>
+        <v>0.01982196301120774</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01223841440867034</v>
+        <v>0.01646721878544787</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02976812461925804</v>
+        <v>0.01982196301120774</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01223841440867034</v>
+        <v>0.01646721878544787</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06450859187702312</v>
+        <v>0.04120080061230089</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01219595416519245</v>
+        <v>0.01641463383932436</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09943145544248772</v>
+        <v>0.06093991367890383</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01217100842328077</v>
+        <v>0.01640791187534642</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02926781213745618</v>
+        <v>0.01966917849444465</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01291832632026314</v>
+        <v>0.0173820642735283</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02926781213745618</v>
+        <v>0.01966917849444465</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01291832632026314</v>
+        <v>0.0173820642735283</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05959989160443152</v>
+        <v>0.03949818905213529</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01287350717436981</v>
+        <v>0.01732655794150905</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09959622853366262</v>
+        <v>0.06115262014278322</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01284717555790748</v>
+        <v>0.01731946253508789</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03018802467420821</v>
+        <v>0.01987416972694361</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01359823823185594</v>
+        <v>0.01829690976160874</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03018802467420821</v>
+        <v>0.01987416972694361</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01359823823185594</v>
+        <v>0.01829690976160874</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06229427687794248</v>
+        <v>0.04121155047392769</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01355106018354717</v>
+        <v>0.01823848204369373</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09448434499797981</v>
+        <v>0.06320929084135002</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01352334269253419</v>
+        <v>0.01823101319482936</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02912850953416743</v>
+        <v>0.02041810328340818</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01427815014344873</v>
+        <v>0.01921175524968918</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02912850953416743</v>
+        <v>0.02041810328340818</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01427815014344873</v>
+        <v>0.01921175524968918</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05886583898723047</v>
+        <v>0.04044910301558782</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01422861319272453</v>
+        <v>0.01915040614587842</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09763256349067256</v>
+        <v>0.06083210355018909</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0141995098271609</v>
+        <v>0.01914256385457083</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02991277110712749</v>
+        <v>0.02014034621075633</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01495806205504153</v>
+        <v>0.02012660073776961</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02991277110712749</v>
+        <v>0.02014034621075633</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01495806205504153</v>
+        <v>0.02012660073776961</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06506451874673466</v>
+        <v>0.0430264854668905</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01490616620190189</v>
+        <v>0.02006233024806311</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09088631819629628</v>
+        <v>0.06368989696106903</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01487567696178761</v>
+        <v>0.0200541145143123</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03112654164006566</v>
+        <v>0.02063929276174643</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01563797396663433</v>
+        <v>0.02104144622585005</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03112654164006566</v>
+        <v>0.02063929276174643</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01563797396663433</v>
+        <v>0.02104144622585005</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06789400773235715</v>
+        <v>0.03995408612444848</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01558371921107925</v>
+        <v>0.02097425435024779</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09178960335019853</v>
+        <v>0.06349633887996103</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01555184409641432</v>
+        <v>0.02096566517405377</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10191,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02974129877402527</v>
+        <v>0.01977300394625423</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01631788587822712</v>
+        <v>0.02195629171393049</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02974129877402527</v>
+        <v>0.01977300394625423</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01631788587822712</v>
+        <v>0.02195629171393049</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06500394905916787</v>
+        <v>0.04212024070074397</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0162612722202566</v>
+        <v>0.02188617845243248</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1023758878894523</v>
+        <v>0.06514465380306556</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01622801123104103</v>
+        <v>0.02187721583379523</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0292468450790936</v>
+        <v>0.02097822086971177</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01699779778981992</v>
+        <v>0.02287113720201093</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0292468450790936</v>
+        <v>0.02097822086971177</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01699779778981992</v>
+        <v>0.02287113720201093</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06114632824097047</v>
+        <v>0.04187788183504426</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01693882522943396</v>
+        <v>0.02279810255461717</v>
       </c>
       <c r="N90" t="n">
-        <v>0.103729982562843</v>
+        <v>0.06072394407356485</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01690417836566774</v>
+        <v>0.0227887664935367</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03114305960878656</v>
+        <v>0.02084460241505533</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01767770970141272</v>
+        <v>0.02378598269009136</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03114305960878656</v>
+        <v>0.02084460241505533</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01767770970141272</v>
+        <v>0.02378598269009136</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06085921261156241</v>
+        <v>0.04238348718897542</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01761637823861132</v>
+        <v>0.02371002665680185</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1042199164337425</v>
+        <v>0.06751306842203453</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01758034550029445</v>
+        <v>0.02370031715327817</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03219225877841309</v>
+        <v>0.02055942341198315</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01835762161300552</v>
+        <v>0.0247008281781718</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03219225877841309</v>
+        <v>0.02055942341198315</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01835762161300552</v>
+        <v>0.0247008281781718</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06542606456354993</v>
+        <v>0.04467295877439784</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01829393124778868</v>
+        <v>0.02462195075898654</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09820663496929316</v>
+        <v>0.06715717529300147</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01825651263492116</v>
+        <v>0.02461186781301963</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03215645064598815</v>
+        <v>0.02042810184467229</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01903753352459831</v>
+        <v>0.02561567366625224</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03215645064598815</v>
+        <v>0.02042810184467229</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01903753352459831</v>
+        <v>0.02561567366625224</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06704549112239208</v>
+        <v>0.04186145227949203</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01897148425696604</v>
+        <v>0.02553387486117123</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1000601384140469</v>
+        <v>0.06216322571141492</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01893267976954787</v>
+        <v>0.0255234184727611</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03202357886883674</v>
+        <v>0.02026671896533301</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01971744543619111</v>
+        <v>0.02653051915433268</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03202357886883674</v>
+        <v>0.02026671896533301</v>
       </c>
       <c r="K94" t="n">
-        <v>0.01971744543619111</v>
+        <v>0.02653051915433268</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06435890236165201</v>
+        <v>0.0447487670971109</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0196490372661434</v>
+        <v>0.02644579896335591</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1061470388987452</v>
+        <v>0.06643255898005523</v>
       </c>
       <c r="O94" t="n">
-        <v>0.01960884690417458</v>
+        <v>0.02643496913250257</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03276282882940326</v>
+        <v>0.02092220800817182</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02039735734778391</v>
+        <v>0.02744536464241311</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03276282882940326</v>
+        <v>0.02092220800817182</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02039735734778391</v>
+        <v>0.02744536464241311</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06400705832893661</v>
+        <v>0.04457360969970162</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02032659027532075</v>
+        <v>0.0273577230655406</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09306888925949497</v>
+        <v>0.06596984221863922</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02028501403880129</v>
+        <v>0.02734651979224404</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03270903979675377</v>
+        <v>0.02055114152769105</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0210772692593767</v>
+        <v>0.02836021013049355</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03270903979675377</v>
+        <v>0.02055114152769105</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0210772692593767</v>
+        <v>0.02836021013049355</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0696485427966308</v>
+        <v>0.04297719330872737</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02100414328449811</v>
+        <v>0.02826964716772529</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1009619534661254</v>
+        <v>0.06529574094528284</v>
       </c>
       <c r="O96" t="n">
-        <v>0.020961181173428</v>
+        <v>0.02825807045198551</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03313952286236696</v>
+        <v>0.02137798369927499</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0217571811709695</v>
+        <v>0.02927505561857398</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03313952286236696</v>
+        <v>0.02137798369927499</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0217571811709695</v>
+        <v>0.02927505561857398</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06767713268718223</v>
+        <v>0.04353669731731719</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02168169629367547</v>
+        <v>0.02918157126990997</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1001666897508982</v>
+        <v>0.06436954766137959</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02163734830805471</v>
+        <v>0.02916962111172697</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03268713780045489</v>
+        <v>0.02099068626899504</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0224370930825623</v>
+        <v>0.03018990110665442</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03268713780045489</v>
+        <v>0.02099068626899504</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0224370930825623</v>
+        <v>0.03018990110665442</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06643374328334606</v>
+        <v>0.04208170595418567</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02235924930285283</v>
+        <v>0.03009349537209466</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1001599675863073</v>
+        <v>0.06712887546626012</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02231351544268142</v>
+        <v>0.03008117177146844</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03164948769264803</v>
+        <v>0.02146767377261058</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02311700499415509</v>
+        <v>0.03110474659473486</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03164948769264803</v>
+        <v>0.02146767377261058</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02311700499415509</v>
+        <v>0.03110474659473486</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06621537659726387</v>
+        <v>0.04325709769880839</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02303680231203019</v>
+        <v>0.03100541947427935</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1035605477383025</v>
+        <v>0.06503494005104249</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02298968257730813</v>
+        <v>0.03099272243120991</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03118444311485373</v>
+        <v>0.02082558206245305</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02379691690574789</v>
+        <v>0.0320195920828153</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03118444311485373</v>
+        <v>0.02082558206245305</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02379691690574789</v>
+        <v>0.0320195920828153</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06536732433015058</v>
+        <v>0.04529435404480248</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02371435532120755</v>
+        <v>0.03191734357646404</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1053595778733079</v>
+        <v>0.06738038788032019</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02366584971193484</v>
+        <v>0.03190427309095138</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03113255324017691</v>
+        <v>0.02134350672528858</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02447682881734069</v>
+        <v>0.03293443757089574</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03113255324017691</v>
+        <v>0.02134350672528858</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02447682881734069</v>
+        <v>0.03293443757089574</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06919119475883445</v>
+        <v>0.04545919898951312</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02439190833038491</v>
+        <v>0.03282926767864872</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1092581167563793</v>
+        <v>0.06566573660057773</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02434201684656155</v>
+        <v>0.03281582375069285</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03172378981562261</v>
+        <v>0.0222434103759481</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02515674072893348</v>
+        <v>0.03384928305897617</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03172378981562261</v>
+        <v>0.0222434103759481</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02515674072893348</v>
+        <v>0.03384928305897617</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06840227002393806</v>
+        <v>0.04383302354540553</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02506946133956226</v>
+        <v>0.03374119178083341</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09723291880450285</v>
+        <v>0.06569166095962509</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02501818398118826</v>
+        <v>0.03372737441043432</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03273932180696409</v>
+        <v>0.02136447974765664</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02583665264052628</v>
+        <v>0.03476412854705661</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03273932180696409</v>
+        <v>0.02136447974765664</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02583665264052628</v>
+        <v>0.03476412854705661</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0692315929110445</v>
+        <v>0.0463571927878943</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02574701434873962</v>
+        <v>0.03465311588301809</v>
       </c>
       <c r="N103" t="n">
-        <v>0.101889262454086</v>
+        <v>0.07088199853608179</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02569435111581497</v>
+        <v>0.03463892507017578</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03426817120873396</v>
+        <v>0.02253139785674503</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02651656455211908</v>
+        <v>0.03567897403513704</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03426817120873396</v>
+        <v>0.02253139785674503</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02651656455211908</v>
+        <v>0.03567897403513704</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06409808599367442</v>
+        <v>0.04419611686859826</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02642456735791698</v>
+        <v>0.03556503998520278</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1004495915921724</v>
+        <v>0.07023309813041012</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02637051825044168</v>
+        <v>0.03555047572991725</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03404496997327544</v>
+        <v>0.02133283516673502</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02719647646371188</v>
+        <v>0.03659381952321748</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03404496997327544</v>
+        <v>0.02133283516673502</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02719647646371188</v>
+        <v>0.03659381952321748</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06850364031279726</v>
+        <v>0.04720374557134477</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02710212036709434</v>
+        <v>0.03647696408738747</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09669210845168114</v>
+        <v>0.06960495056752258</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02704668538506839</v>
+        <v>0.03646202638965872</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03302381697698704</v>
+        <v>0.02297717528461342</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02787638837530467</v>
+        <v>0.03750866501129792</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03302381697698704</v>
+        <v>0.02297717528461342</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02787638837530467</v>
+        <v>0.03750866501129792</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0718135487156927</v>
+        <v>0.04593162691025438</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0277796733762717</v>
+        <v>0.03738888818957215</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1013072272625354</v>
+        <v>0.0725160327830866</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0277228525196951</v>
+        <v>0.03737357704940019</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0319127046181243</v>
+        <v>0.02198842073037947</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02855630028689747</v>
+        <v>0.03842351049937836</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0319127046181243</v>
+        <v>0.02198842073037947</v>
       </c>
       <c r="K107" t="n">
-        <v>0.02855630028689747</v>
+        <v>0.03842351049937836</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06628153007665297</v>
+        <v>0.04523612851899236</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02845722638544905</v>
+        <v>0.03830081229175684</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09923800362604812</v>
+        <v>0.06852588849738056</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02839901965432181</v>
+        <v>0.03828512770914166</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03338696942728062</v>
+        <v>0.02285330208537997</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02923621219849026</v>
+        <v>0.03933835598745879</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03338696942728062</v>
+        <v>0.02285330208537997</v>
       </c>
       <c r="K108" t="n">
-        <v>0.02923621219849026</v>
+        <v>0.03933835598745879</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06848909335571929</v>
+        <v>0.04758678462947688</v>
       </c>
       <c r="M108" t="n">
-        <v>0.02913477939462641</v>
+        <v>0.03921273639394153</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1029897777248276</v>
+        <v>0.07025968281415984</v>
       </c>
       <c r="O108" t="n">
-        <v>0.02907518678894852</v>
+        <v>0.03919667836888312</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03391623573939306</v>
+        <v>0.02175343189399696</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02991612411008306</v>
+        <v>0.04025320147553923</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03391623573939306</v>
+        <v>0.02175343189399696</v>
       </c>
       <c r="K109" t="n">
-        <v>0.02991612411008306</v>
+        <v>0.04025320147553923</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07069284377088372</v>
+        <v>0.04491066993245518</v>
       </c>
       <c r="M109" t="n">
-        <v>0.02981233240380377</v>
+        <v>0.04012466049612622</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1008542765224658</v>
+        <v>0.07196457575634546</v>
       </c>
       <c r="O109" t="n">
-        <v>0.02975135392357522</v>
+        <v>0.04010822902862459</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0333755621397681</v>
+        <v>0.0229908922913398</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03059603602167586</v>
+        <v>0.04116804696361966</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0333755621397681</v>
+        <v>0.0229908922913398</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03059603602167586</v>
+        <v>0.04116804696361966</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0723758808759942</v>
+        <v>0.04753556423168051</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03048988541298113</v>
+        <v>0.0410365845983109</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1019004043452002</v>
+        <v>0.07028417420885597</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03042752105820194</v>
+        <v>0.04101977968836606</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03476285533865132</v>
+        <v>0.02251064835107813</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03127594793326866</v>
+        <v>0.0420828924517001</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03476285533865132</v>
+        <v>0.02251064835107813</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03127594793326866</v>
+        <v>0.0420828924517001</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06870199299560123</v>
+        <v>0.04743042023132338</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03116743842215849</v>
+        <v>0.04194850870049559</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1036831597390912</v>
+        <v>0.07331048895556053</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03110368819282865</v>
+        <v>0.04193133034810753</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03451391988857408</v>
+        <v>0.02246886586145015</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03195585984486145</v>
+        <v>0.04299773793978054</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03451391988857408</v>
+        <v>0.02246886586145015</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03195585984486145</v>
+        <v>0.04299773793978054</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07232568992547425</v>
+        <v>0.0481079035081923</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03184499143133585</v>
+        <v>0.04286043280268028</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1022462906531906</v>
+        <v>0.0722349671414888</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03177985532745536</v>
+        <v>0.042842881007849</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03319384729724802</v>
+        <v>0.02226923713027586</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03263577175645425</v>
+        <v>0.04391258342786098</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03319384729724802</v>
+        <v>0.02226923713027586</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03263577175645425</v>
+        <v>0.04391258342786098</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0737450238708269</v>
+        <v>0.04902139136425804</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03252254444051321</v>
+        <v>0.04377235690486497</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1031548788076313</v>
+        <v>0.07088295010812179</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03245602246208206</v>
+        <v>0.04375443166759047</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03319931080705478</v>
+        <v>0.02233144079930827</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03331568366804705</v>
+        <v>0.04482742891594142</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03319931080705478</v>
+        <v>0.02233144079930827</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03331568366804705</v>
+        <v>0.04482742891594142</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06550762776754865</v>
+        <v>0.04619245947990636</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03320009744969057</v>
+        <v>0.04468428100704964</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1050433718030938</v>
+        <v>0.06929646767739317</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03313218959670877</v>
+        <v>0.04466598232733193</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03375929128747525</v>
+        <v>0.02274443087096892</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03399559557963985</v>
+        <v>0.04574227440402185</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03375929128747525</v>
+        <v>0.02274443087096892</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03399559557963985</v>
+        <v>0.04574227440402185</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07385452624610178</v>
+        <v>0.0487843557361641</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03387765045886793</v>
+        <v>0.04559620510923433</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1093715279900077</v>
+        <v>0.07278388732687346</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03380835673133548</v>
+        <v>0.0455775329870734</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03206944275524047</v>
+        <v>0.02376361834588381</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03467550749123264</v>
+        <v>0.04665711989210228</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03206944275524047</v>
+        <v>0.02376361834588381</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03467550749123264</v>
+        <v>0.04665711989210228</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06873474349082451</v>
+        <v>0.04876273321789029</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03455520346804528</v>
+        <v>0.04650812921141902</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1073686496061362</v>
+        <v>0.07618318621799058</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03448452386596219</v>
+        <v>0.04648908364681487</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03381962873180926</v>
+        <v>0.02268783468391239</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03535541940282544</v>
+        <v>0.04757196538018273</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03381962873180926</v>
+        <v>0.02268783468391239</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03535541940282544</v>
+        <v>0.04757196538018273</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06978301930828246</v>
+        <v>0.04655148688937413</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03523275647722264</v>
+        <v>0.04742005331360371</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1066741196434267</v>
+        <v>0.07029088197481093</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0351606910005889</v>
+        <v>0.04740063430655633</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0331174168289967</v>
+        <v>0.02359051596681618</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03603533131441823</v>
+        <v>0.04848681086826316</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0331174168289967</v>
+        <v>0.02359051596681618</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03603533131441823</v>
+        <v>0.04848681086826316</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06599444159825388</v>
+        <v>0.04887062642215956</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0359103094864</v>
+        <v>0.04833197741578839</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1008644271563092</v>
+        <v>0.07585521582026128</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03583685813521561</v>
+        <v>0.0483121849662978</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03243739594863931</v>
+        <v>0.02370052750311612</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03671524322601103</v>
+        <v>0.0494016563563436</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03243739594863931</v>
+        <v>0.02370052750311612</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03671524322601103</v>
+        <v>0.0494016563563436</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06711734735403985</v>
+        <v>0.04949286297722794</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03658786249557736</v>
+        <v>0.04924390151797308</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1074227620093146</v>
+        <v>0.07682052967710223</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03651302526984232</v>
+        <v>0.04922373562603927</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03514804187463316</v>
+        <v>0.02311391225116967</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03739515513760382</v>
+        <v>0.05031650184442404</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03514804187463316</v>
+        <v>0.02311391225116967</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03739515513760382</v>
+        <v>0.05031650184442404</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07083487895900964</v>
+        <v>0.04890595897919303</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03726541550475472</v>
+        <v>0.05015582562015777</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1014631400823968</v>
+        <v>0.07366167332091067</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03718919240446903</v>
+        <v>0.05013528628578073</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03556227829435921</v>
+        <v>0.02414502612976886</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03807506704919662</v>
+        <v>0.05123134733250447</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03556227829435921</v>
+        <v>0.02414502612976886</v>
       </c>
       <c r="K121" t="n">
-        <v>0.03807506704919662</v>
+        <v>0.05123134733250447</v>
       </c>
       <c r="L121" t="n">
-        <v>0.068266636453509</v>
+        <v>0.04716081035559291</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03794296851393207</v>
+        <v>0.05106774972234246</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1112881005104441</v>
+        <v>0.07124977340193367</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03786535953909573</v>
+        <v>0.0510468369455222</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03457524976156288</v>
+        <v>0.0233302970470389</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03875497896078942</v>
+        <v>0.05214619282058491</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03457524976156288</v>
+        <v>0.0233302970470389</v>
       </c>
       <c r="K122" t="n">
-        <v>0.03875497896078942</v>
+        <v>0.05214619282058491</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07070782296020431</v>
+        <v>0.04931816770056738</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03862052152310944</v>
+        <v>0.05197967382452715</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1044936464503455</v>
+        <v>0.0711051048204222</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03854152667372245</v>
+        <v>0.05195838760526367</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03489329597541517</v>
+        <v>0.02420402372012966</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03943489087238222</v>
+        <v>0.05306103830866536</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03489329597541517</v>
+        <v>0.02420402372012966</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03943489087238222</v>
+        <v>0.05306103830866536</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06623760794857597</v>
+        <v>0.04978275085407491</v>
       </c>
       <c r="M123" t="n">
-        <v>0.03929807453228679</v>
+        <v>0.05289159792671182</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1058721733461978</v>
+        <v>0.07236075126740632</v>
       </c>
       <c r="O123" t="n">
-        <v>0.03921769380834916</v>
+        <v>0.05286993826500513</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03431750154489109</v>
+        <v>0.02394915643130308</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04011480278397501</v>
+        <v>0.05397588379674579</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03431750154489109</v>
+        <v>0.02394915643130308</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04011480278397501</v>
+        <v>0.05397588379674579</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07439172577114167</v>
+        <v>0.04928554832589166</v>
       </c>
       <c r="M124" t="n">
-        <v>0.03997562754146415</v>
+        <v>0.05380352202889652</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1096003333366015</v>
+        <v>0.07732761412973244</v>
       </c>
       <c r="O124" t="n">
-        <v>0.03989386094297587</v>
+        <v>0.05378148892474661</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03341376429435267</v>
+        <v>0.02354813466946459</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04079471469556781</v>
+        <v>0.05489072928482622</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03341376429435267</v>
+        <v>0.02354813466946459</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04079471469556781</v>
+        <v>0.05489072928482622</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06823226799571608</v>
+        <v>0.05066666014819621</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04065318055064151</v>
+        <v>0.0547154461310812</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1127855417023852</v>
+        <v>0.07384498239495485</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04057002807760258</v>
+        <v>0.05469303958448808</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03497719654352335</v>
+        <v>0.02424054915801847</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04147462660716061</v>
+        <v>0.05580557477290666</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03497719654352335</v>
+        <v>0.02424054915801847</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04147462660716061</v>
+        <v>0.05580557477290666</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07183338215351112</v>
+        <v>0.0497471605776787</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04133073355981887</v>
+        <v>0.0556273702332659</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1057080326308186</v>
+        <v>0.07464046896376741</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04124619521222929</v>
+        <v>0.05560459024422955</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03552981252157592</v>
+        <v>0.02412313990118181</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04215453851875341</v>
+        <v>0.05672042026098709</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03552981252157592</v>
+        <v>0.02412313990118181</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04215453851875341</v>
+        <v>0.05672042026098709</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07013246387990454</v>
+        <v>0.05050695179668843</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04200828656899622</v>
+        <v>0.05653929433545057</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1052506729910136</v>
+        <v>0.07661567375017053</v>
       </c>
       <c r="O127" t="n">
-        <v>0.041922362346856</v>
+        <v>0.05651614090397102</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03527125398499793</v>
+        <v>0.02374913285985213</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0428344504303462</v>
+        <v>0.05763526574906754</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03527125398499793</v>
+        <v>0.02374913285985213</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0428344504303462</v>
+        <v>0.05763526574906754</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06740679468336155</v>
+        <v>0.05168832943216642</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04268583957817358</v>
+        <v>0.05745121843763527</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1130887414737157</v>
+        <v>0.07328612847114085</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0425985294814827</v>
+        <v>0.05742769156371248</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.02521980264888363</v>
       </c>
       <c r="G129" t="n">
-        <v>0.043514362341939</v>
+        <v>0.05855011123714797</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.02521980264888363</v>
       </c>
       <c r="K129" t="n">
-        <v>0.043514362341939</v>
+        <v>0.05855011123714797</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06671377531091613</v>
+        <v>0.04885744881404264</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04336339258735095</v>
+        <v>0.05836314253981995</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1111344187218956</v>
+        <v>0.07483779979753541</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04327469661610941</v>
+        <v>0.05833924222345395</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0332467610351542</v>
+        <v>0.02379761460101283</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04419427425353179</v>
+        <v>0.0594649567252284</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0332467610351542</v>
+        <v>0.02379761460101283</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04419427425353179</v>
+        <v>0.0594649567252284</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07567134634545111</v>
+        <v>0.05025435380303642</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0440409455965283</v>
+        <v>0.05927506664200463</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.07699887471282457</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04395086375073613</v>
+        <v>0.05925079288319542</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03298601493755673</v>
+        <v>0.02507740753805496</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04487418616512459</v>
+        <v>0.06037980221330884</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03298601493755673</v>
+        <v>0.02507740753805496</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04487418616512459</v>
+        <v>0.06037980221330884</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07289613010698456</v>
+        <v>0.05111191462813527</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04471849860570566</v>
+        <v>0.06018699074418932</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1094182727587116</v>
+        <v>0.07663968835959584</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04462703088536284</v>
+        <v>0.06016234354293688</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03369357164976984</v>
+        <v>0.02480480487443572</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04555409807671738</v>
+        <v>0.06129464770138928</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03369357164976984</v>
+        <v>0.02480480487443572</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04555409807671738</v>
+        <v>0.06129464770138928</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06884640117153032</v>
+        <v>0.05005856247342721</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04539605161488302</v>
+        <v>0.061098914846374</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1121623052608395</v>
+        <v>0.07780354021511343</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04530319801998955</v>
+        <v>0.06107389420267835</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03322272050742109</v>
+        <v>0.02456177184023225</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04623400998831018</v>
+        <v>0.06220949318946972</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03322272050742109</v>
+        <v>0.02456177184023225</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04623400998831018</v>
+        <v>0.06220949318946972</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07287060021918884</v>
+        <v>0.04960945263645847</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04607360462406038</v>
+        <v>0.0620108389485587</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1089066970103642</v>
+        <v>0.07762364914651021</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04597936515461626</v>
+        <v>0.06198544486241982</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03290135867339089</v>
+        <v>0.02502269990987196</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04691392189990298</v>
+        <v>0.06312433867755014</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03290135867339089</v>
+        <v>0.02502269990987196</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04691392189990298</v>
+        <v>0.06312433867755014</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07230152429368314</v>
+        <v>0.05167500360478897</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04675115763323773</v>
+        <v>0.06292276305074337</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1025212498277951</v>
+        <v>0.08040776264282906</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04665553228924296</v>
+        <v>0.06289699552216128</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03588514091690453</v>
+        <v>0.02551378304053878</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04759383381149578</v>
+        <v>0.06403918416563059</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03588514091690453</v>
+        <v>0.02551378304053878</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04759383381149578</v>
+        <v>0.06403918416563059</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07020415545324282</v>
+        <v>0.05071777656376017</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04742871064241509</v>
+        <v>0.06383468715292807</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1061405131728171</v>
+        <v>0.0793160202643502</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04733169942386967</v>
+        <v>0.06380854618190276</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03573965345519384</v>
+        <v>0.02418538036131937</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04827374572308857</v>
+        <v>0.06495402965371104</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03573965345519384</v>
+        <v>0.02418538036131937</v>
       </c>
       <c r="K136" t="n">
-        <v>0.04827374572308857</v>
+        <v>0.06495402965371104</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.05227359460457159</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04810626365159245</v>
+        <v>0.06474661125511276</v>
       </c>
       <c r="N136" t="n">
-        <v>0.112213077756231</v>
+        <v>0.0753028676617512</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04800786655849638</v>
+        <v>0.06472009684164423</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03438709812024637</v>
+        <v>0.02554460752193166</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04895365763468137</v>
+        <v>0.06586887514179147</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03438709812024637</v>
+        <v>0.02554460752193166</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04895365763468137</v>
+        <v>0.06586887514179147</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0738143420714385</v>
+        <v>0.05202055778680484</v>
       </c>
       <c r="M137" t="n">
-        <v>0.04878381666076981</v>
+        <v>0.06565853535729745</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1124905167094101</v>
+        <v>0.07880754899519932</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0486840336931231</v>
+        <v>0.0656316475013857</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03511906959666621</v>
+        <v>0.02471598176011143</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04963356954627417</v>
+        <v>0.06678372062987191</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03511906959666621</v>
+        <v>0.02471598176011143</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04963356954627417</v>
+        <v>0.06678372062987191</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0710110588439167</v>
+        <v>0.05290068142720969</v>
       </c>
       <c r="M138" t="n">
-        <v>0.04946136966994717</v>
+        <v>0.06657045945948213</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1112321726113266</v>
+        <v>0.07814098659310109</v>
       </c>
       <c r="O138" t="n">
-        <v>0.04936020082774981</v>
+        <v>0.06654319816112717</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03330169247858263</v>
+        <v>0.02475306190740094</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05031348145786697</v>
+        <v>0.06769856611795234</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03330169247858263</v>
+        <v>0.02475306190740094</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05031348145786697</v>
+        <v>0.06769856611795234</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06992017987711713</v>
+        <v>0.0517869324971745</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05013892267912453</v>
+        <v>0.06748238356166682</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1028872072460051</v>
+        <v>0.07618730917534672</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05003636796237652</v>
+        <v>0.06745474882086863</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03393142794782411</v>
+        <v>0.02502622365599437</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05099339336945976</v>
+        <v>0.06861341160603278</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03393142794782411</v>
+        <v>0.02502622365599437</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05099339336945976</v>
+        <v>0.06861341160603278</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07214709561968838</v>
+        <v>0.05185140488278536</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05081647568830189</v>
+        <v>0.0683943076638515</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1048005305177003</v>
+        <v>0.08115797536199149</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05071253509700322</v>
+        <v>0.0683662994806101</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03357985130251621</v>
+        <v>0.02564091134495278</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05167330528105256</v>
+        <v>0.06952825709411321</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03357985130251621</v>
+        <v>0.02564091134495278</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05167330528105256</v>
+        <v>0.06952825709411321</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07262199072962375</v>
+        <v>0.0515919270221292</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05149402869747925</v>
+        <v>0.06930623176603619</v>
       </c>
       <c r="N141" t="n">
-        <v>0.106855883937437</v>
+        <v>0.07899660418307708</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05138870223162993</v>
+        <v>0.06927785014035157</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03454372506536112</v>
+        <v>0.0260238906815108</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05235321719264535</v>
+        <v>0.07044310258219365</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03454372506536112</v>
+        <v>0.0260238906815108</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05235321719264535</v>
+        <v>0.07044310258219365</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07102209941222076</v>
+        <v>0.05475784744142306</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05217158170665661</v>
+        <v>0.07021815586822087</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1086578710700999</v>
+        <v>0.08132308256041437</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05206486936625664</v>
+        <v>0.07018940080009303</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03520561325209372</v>
+        <v>0.02489505280773924</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05303312910423816</v>
+        <v>0.07135794807027408</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03520561325209372</v>
+        <v>0.02489505280773924</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05303312910423816</v>
+        <v>0.07135794807027408</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07047910304875379</v>
+        <v>0.05293972618863382</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05284913471583397</v>
+        <v>0.07113007997040556</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1145748561814368</v>
+        <v>0.08183951710825249</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05274103650088335</v>
+        <v>0.0711009514598345</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03598203757565477</v>
+        <v>0.02597235419414312</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05371304101583094</v>
+        <v>0.07227279355835452</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03598203757565477</v>
+        <v>0.02597235419414312</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05371304101583094</v>
+        <v>0.07227279355835452</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07207737067170775</v>
+        <v>0.05441894409956552</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05352668772501133</v>
+        <v>0.07204200407259025</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1096927024048462</v>
+        <v>0.08275307647539998</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05341720363551006</v>
+        <v>0.07201250211957597</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03486281778224565</v>
+        <v>0.02621113918383858</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05439295292742375</v>
+        <v>0.07318763904643495</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03486281778224565</v>
+        <v>0.02621113918383858</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05439295292742375</v>
+        <v>0.07318763904643495</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07623029253592148</v>
+        <v>0.05131359901103014</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05420424073418868</v>
+        <v>0.07295392817477493</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1127096645141806</v>
+        <v>0.07800273701119864</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05409337077013678</v>
+        <v>0.07292405277931745</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03361270113123761</v>
+        <v>0.0253744213371622</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05507286483901654</v>
+        <v>0.0741024845345154</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03361270113123761</v>
+        <v>0.0253744213371622</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05507286483901654</v>
+        <v>0.0741024845345154</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06872500305116408</v>
+        <v>0.05336121111262135</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05488179374336603</v>
+        <v>0.07386585227695963</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1078598315152752</v>
+        <v>0.08138982546140644</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05476953790476348</v>
+        <v>0.07383560343905891</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03535448898487183</v>
+        <v>0.02615663419020474</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05575277675060934</v>
+        <v>0.07501733002259584</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03535448898487183</v>
+        <v>0.02615663419020474</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05575277675060934</v>
+        <v>0.07501733002259584</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07425189828545592</v>
+        <v>0.05207791608999907</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0555593467525434</v>
+        <v>0.0747777763791443</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1026272401299048</v>
+        <v>0.07808522862147427</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05544570503939019</v>
+        <v>0.07474715409880038</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03618482399325131</v>
+        <v>0.02635567306391934</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05643268866220214</v>
+        <v>0.07593217551067627</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03618482399325131</v>
+        <v>0.02635567306391934</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05643268866220214</v>
+        <v>0.07593217551067627</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07382949318298843</v>
+        <v>0.05517015866476233</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05623689976172076</v>
+        <v>0.075689700481329</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1127817590034222</v>
+        <v>0.08393242233743586</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05612187217401689</v>
+        <v>0.07565870475854185</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03553728688891633</v>
+        <v>0.0266710645489819</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05711260057379493</v>
+        <v>0.07684702099875672</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03553728688891633</v>
+        <v>0.0266710645489819</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05711260057379493</v>
+        <v>0.07684702099875672</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07606539928311004</v>
+        <v>0.05389253831749161</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05691445277089811</v>
+        <v>0.07660162458351367</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1063249754968713</v>
+        <v>0.08112391146916142</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05679803930864361</v>
+        <v>0.07657025541828331</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.033887712959302</v>
+        <v>0.02577252330538847</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05779251248538773</v>
+        <v>0.07776186648683715</v>
       </c>
       <c r="J150" t="n">
-        <v>0.033887712959302</v>
+        <v>0.02577252330538847</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05779251248538773</v>
+        <v>0.07776186648683715</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07253525247327375</v>
+        <v>0.05333529767273823</v>
       </c>
       <c r="M150" t="n">
-        <v>0.05759200578007548</v>
+        <v>0.07751354868569837</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1149824635647997</v>
+        <v>0.07877274448584554</v>
       </c>
       <c r="O150" t="n">
-        <v>0.05747420644327032</v>
+        <v>0.07748180607802478</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03607603181178116</v>
+        <v>0.02572816479604807</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05847242439698053</v>
+        <v>0.07867671197491759</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03607603181178116</v>
+        <v>0.02572816479604807</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05847242439698053</v>
+        <v>0.07867671197491759</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07075441746866665</v>
+        <v>0.0528901566383462</v>
       </c>
       <c r="M151" t="n">
-        <v>0.05826955878925283</v>
+        <v>0.07842547278788306</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1150743443633441</v>
+        <v>0.08153570421876782</v>
       </c>
       <c r="O151" t="n">
-        <v>0.05815037357789703</v>
+        <v>0.07839335673776625</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03493552665642383</v>
+        <v>0.02574487421487566</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05915233630857333</v>
+        <v>0.07959155746299802</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03493552665642383</v>
+        <v>0.02574487421487566</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05915233630857333</v>
+        <v>0.07959155746299802</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06815111188997869</v>
+        <v>0.05260143175902948</v>
       </c>
       <c r="M152" t="n">
-        <v>0.05894711179843019</v>
+        <v>0.07933739689006773</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1117664982299739</v>
+        <v>0.08370412547116213</v>
       </c>
       <c r="O152" t="n">
-        <v>0.05882654071252374</v>
+        <v>0.07930490739750772</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03425272933047296</v>
+        <v>0.02676125120882898</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05983224822016612</v>
+        <v>0.08050640295107846</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03425272933047296</v>
+        <v>0.02676125120882898</v>
       </c>
       <c r="K153" t="n">
-        <v>0.05983224822016612</v>
+        <v>0.08050640295107846</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07135054245245095</v>
+        <v>0.05525587276931862</v>
       </c>
       <c r="M153" t="n">
-        <v>0.05962466480760754</v>
+        <v>0.08024932099225243</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1162590029616938</v>
+        <v>0.0840085887707151</v>
       </c>
       <c r="O153" t="n">
-        <v>0.05950270784715045</v>
+        <v>0.08021645805724918</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0354037922964581</v>
+        <v>0.02579636694707273</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06051216013175892</v>
+        <v>0.08142124843915889</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0354037922964581</v>
+        <v>0.02579636694707273</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06051216013175892</v>
+        <v>0.08142124843915889</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07052538965895369</v>
+        <v>0.05400742619858567</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06030221781678491</v>
+        <v>0.08116124509443712</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1049033915645275</v>
+        <v>0.08481344327469831</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06017887498177715</v>
+        <v>0.08112800871699065</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03421338520907544</v>
+        <v>0.02621608703302564</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06119207204335171</v>
+        <v>0.08233609392723933</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03421338520907544</v>
+        <v>0.02621608703302564</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06119207204335171</v>
+        <v>0.08233609392723933</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07214978842238651</v>
+        <v>0.05403547776288503</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06097977082596227</v>
+        <v>0.0820731691966218</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1125723521887756</v>
+        <v>0.08248509701445006</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06085504211640387</v>
+        <v>0.08203955937673212</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03610722426077728</v>
+        <v>0.02616185712430291</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06187198395494451</v>
+        <v>0.08325093941531976</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03610722426077728</v>
+        <v>0.02616185712430291</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06187198395494451</v>
+        <v>0.08325093941531976</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07043691655587017</v>
+        <v>0.05275763125794394</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06165732383513962</v>
+        <v>0.08298509329880649</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1056396864747591</v>
+        <v>0.0823872311100674</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06153120925103057</v>
+        <v>0.0829511100364736</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03445350494640462</v>
+        <v>0.02629016347500854</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06255189586653731</v>
+        <v>0.08416578490340021</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03445350494640462</v>
+        <v>0.02629016347500854</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06255189586653731</v>
+        <v>0.08416578490340021</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07553601574380131</v>
+        <v>0.05648722652560237</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06233487684431699</v>
+        <v>0.08389701740099118</v>
       </c>
       <c r="N157" t="n">
-        <v>0.106470935660626</v>
+        <v>0.07981865320223441</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06220737638565729</v>
+        <v>0.08386266069621506</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03573943399748004</v>
+        <v>0.02722599966754564</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0632318077781301</v>
+        <v>0.08508063039148064</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03573943399748004</v>
+        <v>0.02722599966754564</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0632318077781301</v>
+        <v>0.08508063039148064</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07328004920005876</v>
+        <v>0.0532234605845133</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06301242985349434</v>
+        <v>0.08480894150317586</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1149337390120151</v>
+        <v>0.08308845475994475</v>
       </c>
       <c r="O158" t="n">
-        <v>0.062883543520284</v>
+        <v>0.08477421135595653</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03596337480715502</v>
+        <v>0.02693222249182226</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0639117196897229</v>
+        <v>0.08599547587956108</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03596337480715502</v>
+        <v>0.02693222249182226</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0639117196897229</v>
+        <v>0.08599547587956108</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06979447288528878</v>
+        <v>0.05592773150770633</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06368998286267169</v>
+        <v>0.08572086560536056</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1159971622784477</v>
+        <v>0.08308704720298982</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06355971065491071</v>
+        <v>0.085685762015698</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03337571122098082</v>
+        <v>0.02677636969131841</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0645916316013157</v>
+        <v>0.08691032136764151</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03337571122098082</v>
+        <v>0.02677636969131841</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0645916316013157</v>
+        <v>0.08691032136764151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07052950931904844</v>
+        <v>0.05464849487042264</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06436753587184905</v>
+        <v>0.08663278970754523</v>
       </c>
       <c r="N160" t="n">
-        <v>0.108050141836308</v>
+        <v>0.086831135098561</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06423587778953742</v>
+        <v>0.08659731267543946</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03613867715728319</v>
+        <v>0.02746762404946648</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06527154351290849</v>
+        <v>0.08782516685572196</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03613867715728319</v>
+        <v>0.02746762404946648</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06527154351290849</v>
+        <v>0.08782516685572196</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06820398656255638</v>
+        <v>0.05413629379284343</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06504508888102642</v>
+        <v>0.08754471380972993</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1030557729155974</v>
+        <v>0.08161285474775209</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06491204492416412</v>
+        <v>0.08750886333518093</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03423451486950869</v>
+        <v>0.0272104845496154</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06595145542450129</v>
+        <v>0.0887400123438024</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03423451486950869</v>
+        <v>0.0272104845496154</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06595145542450129</v>
+        <v>0.0887400123438024</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07103667416792647</v>
+        <v>0.0569131162665811</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06572264189020377</v>
+        <v>0.0884566379119146</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1024315431568064</v>
+        <v>0.08432040880545905</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06558821205879084</v>
+        <v>0.0884204139949224</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03574777349622658</v>
+        <v>0.02625834492457112</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06663136733609409</v>
+        <v>0.08965485783188283</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03574777349622658</v>
+        <v>0.02625834492457112</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06663136733609409</v>
+        <v>0.08965485783188283</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06910602170682459</v>
+        <v>0.05453682794805356</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06640019489938113</v>
+        <v>0.08936856201409929</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1134814523831936</v>
+        <v>0.08461758713135892</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06626437919341754</v>
+        <v>0.08933196465466386</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03447996548209518</v>
+        <v>0.02646312174186548</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06731127924768689</v>
+        <v>0.09056970331996327</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03447996548209518</v>
+        <v>0.02646312174186548</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06731127924768689</v>
+        <v>0.09056970331996327</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07196425165147166</v>
+        <v>0.05736690572305553</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0670777479085585</v>
+        <v>0.09028048611628399</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1043308481639722</v>
+        <v>0.08353988640277615</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06694054632804425</v>
+        <v>0.09024351531440533</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03459504128601359</v>
+        <v>0.02717085640849798</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06799119115927969</v>
+        <v>0.0914845488080437</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03459504128601359</v>
+        <v>0.02717085640849798</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06799119115927969</v>
+        <v>0.0914845488080437</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07616045578117542</v>
+        <v>0.05483896351126341</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06775530091773585</v>
+        <v>0.09119241021846866</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1088009640806368</v>
+        <v>0.08383882692196576</v>
       </c>
       <c r="O165" t="n">
-        <v>0.06761671346267095</v>
+        <v>0.0911550659741468</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03363149646316299</v>
+        <v>0.02697297789680209</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06867110307087247</v>
+        <v>0.09239939429612413</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03363149646316299</v>
+        <v>0.02697297789680209</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06867110307087247</v>
+        <v>0.09239939429612413</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07541974153275682</v>
+        <v>0.05674579003932492</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0684328539269132</v>
+        <v>0.09210433432065336</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1018900784978863</v>
+        <v>0.08423285132190711</v>
       </c>
       <c r="O166" t="n">
-        <v>0.06829288059729767</v>
+        <v>0.09206661663388827</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03439491713649165</v>
+        <v>0.02793691710981475</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06935101498246528</v>
+        <v>0.09331423978420457</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03439491713649165</v>
+        <v>0.02793691710981475</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06935101498246528</v>
+        <v>0.09331423978420457</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07369709098831059</v>
+        <v>0.05495047952001031</v>
       </c>
       <c r="M167" t="n">
-        <v>0.06911040693609057</v>
+        <v>0.09301625842283805</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1038470031564917</v>
+        <v>0.08442374970292205</v>
       </c>
       <c r="O167" t="n">
-        <v>0.06896904773192437</v>
+        <v>0.09297816729362973</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03589137083820053</v>
+        <v>0.02758674084822867</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07003092689405807</v>
+        <v>0.09422908527228502</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03589137083820053</v>
+        <v>0.02758674084822867</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07003092689405807</v>
+        <v>0.09422908527228502</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06753463310354266</v>
+        <v>0.0549107541620007</v>
       </c>
       <c r="M168" t="n">
-        <v>0.06978795994526793</v>
+        <v>0.09392818252502273</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1058451079524313</v>
+        <v>0.08603701639881223</v>
       </c>
       <c r="O168" t="n">
-        <v>0.06964521486655109</v>
+        <v>0.0938897179533712</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03469044643223562</v>
+        <v>0.02734016239849721</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07071083880565088</v>
+        <v>0.09514393076036545</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03469044643223562</v>
+        <v>0.02734016239849721</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07071083880565088</v>
+        <v>0.09514393076036545</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07330131444060045</v>
+        <v>0.05884946468206095</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07046551295444528</v>
+        <v>0.09484010662720742</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1050933758874723</v>
+        <v>0.08955666719065325</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0703213820011778</v>
+        <v>0.09480126861311267</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03413542777535822</v>
+        <v>0.02720342245833419</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07139075071724366</v>
+        <v>0.09605877624844589</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03413542777535822</v>
+        <v>0.02720342245833419</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07139075071724366</v>
+        <v>0.09605877624844589</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07280029250178785</v>
+        <v>0.05742665006925399</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07114306596362263</v>
+        <v>0.0957520307293921</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1097976857884947</v>
+        <v>0.08453671906052379</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07099754913580451</v>
+        <v>0.09571281927285413</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03296219718278875</v>
+        <v>0.02746963211546219</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07207066262883646</v>
+        <v>0.09697362173652632</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03296219718278875</v>
+        <v>0.02746963211546219</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07207066262883646</v>
+        <v>0.09697362173652632</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06802290759062329</v>
+        <v>0.0586763910727976</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07182061897280001</v>
+        <v>0.09666395483157679</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1021744823218085</v>
+        <v>0.08604474334253753</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07167371627043122</v>
+        <v>0.0966243699325956</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0325024672604565</v>
+        <v>0.02766832851664425</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07275057454042927</v>
+        <v>0.09788846722460676</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0325024672604565</v>
+        <v>0.02766832851664425</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07275057454042927</v>
+        <v>0.09788846722460676</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06878828520804961</v>
+        <v>0.05523573050306119</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07249817198197736</v>
+        <v>0.09757587893376148</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1119918167624294</v>
+        <v>0.08501896623840316</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07234988340505794</v>
+        <v>0.09753592059233707</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03327958212303014</v>
+        <v>0.027966043439866</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07343048645202206</v>
+        <v>0.09880331271268719</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03327958212303014</v>
+        <v>0.027966043439866</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07343048645202206</v>
+        <v>0.09880331271268719</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06947626424386705</v>
+        <v>0.05942269389963503</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07317572499115471</v>
+        <v>0.09848780303594616</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1141204849740213</v>
+        <v>0.08734148447655937</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07302605053968464</v>
+        <v>0.09844747125207853</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03486758628717269</v>
+        <v>0.02815613032259137</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07411039836361485</v>
+        <v>0.09971815820076764</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03486758628717269</v>
+        <v>0.02815613032259137</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07411039836361485</v>
+        <v>0.09971815820076764</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07244829915978229</v>
+        <v>0.05609464367779463</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07385327800033208</v>
+        <v>0.09939972713813085</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1036446723342147</v>
+        <v>0.08527330715123888</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07370221767431136</v>
+        <v>0.09935902191182</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03413938318153681</v>
+        <v>0.02749190232574737</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07479031027520765</v>
+        <v>0.1006330036888481</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03413938318153681</v>
+        <v>0.02749190232574737</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07479031027520765</v>
+        <v>0.1006330036888481</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06738347547976389</v>
+        <v>0.05569512156135997</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07453083100950944</v>
+        <v>0.1003116512403155</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1086286422658132</v>
+        <v>0.08729092684464329</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07437838480893806</v>
+        <v>0.1002705725715615</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0355488674421307</v>
+        <v>0.02866971295918797</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07547022218680045</v>
+        <v>0.1015478491769285</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0355488674421307</v>
+        <v>0.02866971295918797</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07547022218680045</v>
+        <v>0.1015478491769285</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0729030748705746</v>
+        <v>0.05764210914309176</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07520838401868679</v>
+        <v>0.1012235753425002</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1041255372307078</v>
+        <v>0.08501064752220022</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07505455194356477</v>
+        <v>0.1011821232313029</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03362152337021293</v>
+        <v>0.02751030312956601</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07615013409839325</v>
+        <v>0.1024626946650089</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03362152337021293</v>
+        <v>0.02751030312956601</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07615013409839325</v>
+        <v>0.1024626946650089</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07240720227403014</v>
+        <v>0.05833731179745788</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07588593702786414</v>
+        <v>0.1021354994446849</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1109893433984479</v>
+        <v>0.08811688900345793</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07573071907819147</v>
+        <v>0.1020936738910444</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03374916662722192</v>
+        <v>0.02799597403357074</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07683004600998604</v>
+        <v>0.1033775401530894</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03374916662722192</v>
+        <v>0.02799597403357074</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07683004600998604</v>
+        <v>0.1033775401530894</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06944318893199516</v>
+        <v>0.05947930635559778</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07656349003704151</v>
+        <v>0.1030474235468696</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1083803570143904</v>
+        <v>0.08739927497656153</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07640688621281819</v>
+        <v>0.1030052245507859</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03431562932033404</v>
+        <v>0.02894068247817534</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07750995792157883</v>
+        <v>0.1042923856411698</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03431562932033404</v>
+        <v>0.02894068247817534</v>
       </c>
       <c r="K179" t="n">
-        <v>0.07750995792157883</v>
+        <v>0.1042923856411698</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07025542073232363</v>
+        <v>0.05948444373692896</v>
       </c>
       <c r="M179" t="n">
-        <v>0.07724104304621887</v>
+        <v>0.1039593476490543</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09978628420338337</v>
+        <v>0.08548699201112303</v>
       </c>
       <c r="O179" t="n">
-        <v>0.07708305334744489</v>
+        <v>0.1039167752105273</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03310734324047114</v>
+        <v>0.02808444696491755</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07818986983317164</v>
+        <v>0.1052072311292503</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03310734324047114</v>
+        <v>0.02808444696491755</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07818986983317164</v>
+        <v>0.1052072311292503</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06623347743985936</v>
+        <v>0.05840386389171096</v>
       </c>
       <c r="M180" t="n">
-        <v>0.07791859605539622</v>
+        <v>0.104871271751239</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1058181689219746</v>
+        <v>0.09082856882023749</v>
       </c>
       <c r="O180" t="n">
-        <v>0.07775922048207161</v>
+        <v>0.1048283258702688</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0339369372715032</v>
+        <v>0.02799994797486977</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07886978174476443</v>
+        <v>0.1061220766173307</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0339369372715032</v>
+        <v>0.02799994797486977</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07886978174476443</v>
+        <v>0.1061220766173307</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06654051525824742</v>
+        <v>0.05798105765550743</v>
       </c>
       <c r="M181" t="n">
-        <v>0.07859614906457359</v>
+        <v>0.1057831958534236</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1042917476543596</v>
+        <v>0.08664227634010846</v>
       </c>
       <c r="O181" t="n">
-        <v>0.07843538761669831</v>
+        <v>0.1057398765300103</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03560686748352945</v>
+        <v>0.02811826715602077</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07954969365635722</v>
+        <v>0.1070369221054111</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03560686748352945</v>
+        <v>0.02811826715602077</v>
       </c>
       <c r="K182" t="n">
-        <v>0.07954969365635722</v>
+        <v>0.1070369221054111</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0721260594018901</v>
+        <v>0.05751252747866592</v>
       </c>
       <c r="M182" t="n">
-        <v>0.07927370207375095</v>
+        <v>0.1066951199556083</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1049668041306669</v>
+        <v>0.09022962093302539</v>
       </c>
       <c r="O182" t="n">
-        <v>0.07911155475132503</v>
+        <v>0.1066514271897517</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03456238059793809</v>
+        <v>0.0286687367042391</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08022960556795003</v>
+        <v>0.1079517675934916</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03456238059793809</v>
+        <v>0.0286687367042391</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08022960556795003</v>
+        <v>0.1079517675934916</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06582648332175109</v>
+        <v>0.05931222092576649</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0799512550829283</v>
+        <v>0.107607044057793</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1077824243124554</v>
+        <v>0.09077820277067988</v>
       </c>
       <c r="O183" t="n">
-        <v>0.07978772188595173</v>
+        <v>0.1075629778494932</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03392335498397522</v>
+        <v>0.02901519665970195</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08090951747954282</v>
+        <v>0.108866613081572</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03392335498397522</v>
+        <v>0.02901519665970195</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08090951747954282</v>
+        <v>0.108866613081572</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07086628700725767</v>
+        <v>0.05671113370199965</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08062880809210565</v>
+        <v>0.1085189681599777</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1065064605170108</v>
+        <v>0.09007159214808252</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08046388902057845</v>
+        <v>0.1084745285092347</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03309853539045905</v>
+        <v>0.02825058919446054</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08158942939113563</v>
+        <v>0.1097814585696524</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03309853539045905</v>
+        <v>0.02825058919446054</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08158942939113563</v>
+        <v>0.1097814585696524</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06823284214749903</v>
+        <v>0.05881477655222772</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08130636110128302</v>
+        <v>0.1094308922621624</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1129008070011444</v>
+        <v>0.08989111391600596</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08114005615520516</v>
+        <v>0.1093860791689762</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03233643054330056</v>
+        <v>0.02873605415149708</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08226934130272841</v>
+        <v>0.1106963040577329</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03233643054330056</v>
+        <v>0.02873605415149708</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08226934130272841</v>
+        <v>0.1106963040577329</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06881814942209669</v>
+        <v>0.05937285702690942</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08198391411046038</v>
+        <v>0.1103428163643471</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1076852927567414</v>
+        <v>0.08886579412027334</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08181622328983187</v>
+        <v>0.1102976298287176</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03515202885863329</v>
+        <v>0.02835908624764912</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08294925321432121</v>
+        <v>0.1116111495458133</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03515202885863329</v>
+        <v>0.02835908624764912</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08294925321432121</v>
+        <v>0.1116111495458133</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07391812266027761</v>
+        <v>0.06131788292777982</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08266146711963773</v>
+        <v>0.1112547404665318</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1013109646635719</v>
+        <v>0.08985519779389889</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08249239042445858</v>
+        <v>0.1112091804884591</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03512467251978046</v>
+        <v>0.02871373793150063</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08362916512591401</v>
+        <v>0.1125259950338938</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03512467251978046</v>
+        <v>0.02871373793150063</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08362916512591401</v>
+        <v>0.1125259950338938</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07196281581519429</v>
+        <v>0.06081926912595442</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0833390201288151</v>
+        <v>0.1121666645687164</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1085379144776587</v>
+        <v>0.09125845442681252</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0831685575590853</v>
+        <v>0.1121207311482006</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03405143852415075</v>
+        <v>0.02827037640388699</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08430907703750681</v>
+        <v>0.1134408405219742</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03405143852415075</v>
+        <v>0.02827037640388699</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08430907703750681</v>
+        <v>0.1134408405219742</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06805531093853739</v>
+        <v>0.06179631716460915</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08401657313799245</v>
+        <v>0.1130785886709011</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1123709704926733</v>
+        <v>0.09347447987686558</v>
       </c>
       <c r="O189" t="n">
-        <v>0.083844724693712</v>
+        <v>0.113032281807942</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03377331082382591</v>
+        <v>0.02840076106424412</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08498898894909961</v>
+        <v>0.1143556860100546</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03377331082382591</v>
+        <v>0.02840076106424412</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08498898894909961</v>
+        <v>0.1143556860100546</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07450499362549193</v>
+        <v>0.05880572692922909</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08469412614716981</v>
+        <v>0.1139905127730858</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1135405023236369</v>
+        <v>0.08781386860172047</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0845208918283387</v>
+        <v>0.1139438324676835</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03372391757547752</v>
+        <v>0.02880781141037098</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0856689008606924</v>
+        <v>0.1152705314981351</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03372391757547752</v>
+        <v>0.02880781141037098</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0856689008606924</v>
+        <v>0.1152705314981351</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07404765735438829</v>
+        <v>0.0608442135446485</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08537167915634716</v>
+        <v>0.1149024368752705</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1122231960689422</v>
+        <v>0.0902781594046741</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08519705896296541</v>
+        <v>0.114855383127425</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03318530118724575</v>
+        <v>0.02907831014628075</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08634881277228519</v>
+        <v>0.1161853769862155</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03318530118724575</v>
+        <v>0.02907831014628075</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08634881277228519</v>
+        <v>0.1161853769862155</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06942936893433699</v>
+        <v>0.05994934350132416</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08604923216552453</v>
+        <v>0.1158143609774552</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1117517746393556</v>
+        <v>0.08845712893995189</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08587322609759213</v>
+        <v>0.1157669337871664</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03437712594166195</v>
+        <v>0.02891699373598546</v>
       </c>
       <c r="G193" t="n">
-        <v>0.087028724683878</v>
+        <v>0.1171002224742959</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03437712594166195</v>
+        <v>0.02891699373598546</v>
       </c>
       <c r="K193" t="n">
-        <v>0.087028724683878</v>
+        <v>0.1171002224742959</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06779896182594403</v>
+        <v>0.06252896519359707</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08672678517470189</v>
+        <v>0.1167262850796399</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1079864858450008</v>
+        <v>0.09410323828381795</v>
       </c>
       <c r="O193" t="n">
-        <v>0.08654939323221883</v>
+        <v>0.1166784844469079</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03574060602285187</v>
+        <v>0.02890199183579256</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08770863659547079</v>
+        <v>0.1180150679623764</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03574060602285187</v>
+        <v>0.02890199183579256</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08770863659547079</v>
+        <v>0.1180150679623764</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07092277911289052</v>
+        <v>0.05924671306154111</v>
       </c>
       <c r="M194" t="n">
-        <v>0.08740433818387924</v>
+        <v>0.1176382091818246</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1119434684488266</v>
+        <v>0.0923172684837571</v>
       </c>
       <c r="O194" t="n">
-        <v>0.08722556036684553</v>
+        <v>0.1175900351066494</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03326217643292331</v>
+        <v>0.02889407444216056</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08838854850706358</v>
+        <v>0.1189299134504568</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03326217643292331</v>
+        <v>0.02889407444216056</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08838854850706358</v>
+        <v>0.1189299134504568</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07461638917177607</v>
+        <v>0.06050024485566013</v>
       </c>
       <c r="M195" t="n">
-        <v>0.08808189119305661</v>
+        <v>0.1185501332840093</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1009514674033924</v>
+        <v>0.08946497457652158</v>
       </c>
       <c r="O195" t="n">
-        <v>0.08790172750147225</v>
+        <v>0.1185015857663908</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03370964071733173</v>
+        <v>0.02966424188239361</v>
       </c>
       <c r="G196" t="n">
-        <v>0.08906846041865639</v>
+        <v>0.1198447589385372</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03370964071733173</v>
+        <v>0.02966424188239361</v>
       </c>
       <c r="K196" t="n">
-        <v>0.08906846041865639</v>
+        <v>0.1198447589385372</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06722981593815683</v>
+        <v>0.06203207929517865</v>
       </c>
       <c r="M196" t="n">
-        <v>0.08875944420223396</v>
+        <v>0.1194620573861939</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1131821394519034</v>
+        <v>0.09386967068609692</v>
       </c>
       <c r="O196" t="n">
-        <v>0.08857789463609896</v>
+        <v>0.1194131364261323</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0354002963707616</v>
+        <v>0.02986288467828666</v>
       </c>
       <c r="G197" t="n">
-        <v>0.08974837233024918</v>
+        <v>0.1207596044266177</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0354002963707616</v>
+        <v>0.02986288467828666</v>
       </c>
       <c r="K197" t="n">
-        <v>0.08974837233024918</v>
+        <v>0.1207596044266177</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07062001805453996</v>
+        <v>0.06083854507939299</v>
       </c>
       <c r="M197" t="n">
-        <v>0.08943699721141132</v>
+        <v>0.1203739814883786</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1086762124700438</v>
+        <v>0.08984332567846504</v>
       </c>
       <c r="O197" t="n">
-        <v>0.08925406177072567</v>
+        <v>0.1203246870858738</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.035475784427405</v>
+        <v>0.02894794930351632</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09042828424184197</v>
+        <v>0.1216744499146981</v>
       </c>
       <c r="J198" t="n">
-        <v>0.035475784427405</v>
+        <v>0.02894794930351632</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09042828424184197</v>
+        <v>0.1216744499146981</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0675543507942156</v>
+        <v>0.05984649392383884</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09011455022058867</v>
+        <v>0.1212859055905633</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1025381469653027</v>
+        <v>0.09363666311198632</v>
       </c>
       <c r="O198" t="n">
-        <v>0.08993022890535238</v>
+        <v>0.1212362377456152</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03287770259869105</v>
+        <v>0.02930604326854576</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09110819615343477</v>
+        <v>0.1225892954027786</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03287770259869105</v>
+        <v>0.02930604326854576</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09110819615343477</v>
+        <v>0.1225892954027786</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07252624265265017</v>
+        <v>0.05929015863420939</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09079210322976604</v>
+        <v>0.122197829692748</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1103128407943955</v>
+        <v>0.09618291843471932</v>
       </c>
       <c r="O199" t="n">
-        <v>0.0906063960399791</v>
+        <v>0.1221477884053567</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03514297568599256</v>
+        <v>0.03059587977281204</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09178810806502757</v>
+        <v>0.123504140890859</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03514297568599256</v>
+        <v>0.03059587977281204</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09178810806502757</v>
+        <v>0.123504140890859</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07265257332834832</v>
+        <v>0.0606445585402734</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09146965623894339</v>
+        <v>0.1231097537949327</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1019857591568813</v>
+        <v>0.09614465078578815</v>
       </c>
       <c r="O200" t="n">
-        <v>0.0912825631746058</v>
+        <v>0.1230593390650982</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03307148085619641</v>
+        <v>0.02961191234455349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09246801997662037</v>
+        <v>0.1244189863789394</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03307148085619641</v>
+        <v>0.02961191234455349</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09246801997662037</v>
+        <v>0.1244189863789394</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06904791640254399</v>
+        <v>0.05953961534376795</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09214720924812075</v>
+        <v>0.1240216778971174</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1022917603529357</v>
+        <v>0.09671927470488906</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09195873030923252</v>
+        <v>0.1239708897248396</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03383749502105977</v>
+        <v>0.02975949989237711</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09314793188821317</v>
+        <v>0.1253338318670199</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03383749502105977</v>
+        <v>0.02975949989237711</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09314793188821317</v>
+        <v>0.1253338318670199</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06989881565180214</v>
+        <v>0.06136315186416735</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09282476225729812</v>
+        <v>0.1249336019993021</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1120991647718296</v>
+        <v>0.0934825963866906</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09263489744385922</v>
+        <v>0.1248824403845811</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03379604393324673</v>
+        <v>0.02906996807184482</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09382784379980595</v>
+        <v>0.1262486773551003</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03379604393324673</v>
+        <v>0.02906996807184482</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09382784379980595</v>
+        <v>0.1262486773551003</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06843181872341142</v>
+        <v>0.06241942433032324</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09350231526647547</v>
+        <v>0.1258455261014867</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1109466621744091</v>
+        <v>0.09109602271252432</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09331106457848592</v>
+        <v>0.1257939910443226</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0360661908938993</v>
+        <v>0.03043728200485779</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09450775571139876</v>
+        <v>0.1271635228431807</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0360661908938993</v>
+        <v>0.03043728200485779</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09450775571139876</v>
+        <v>0.1271635228431807</v>
       </c>
       <c r="L204" t="n">
-        <v>0.0712761995376715</v>
+        <v>0.06051992814687226</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09417986827565283</v>
+        <v>0.1267574502036715</v>
       </c>
       <c r="N204" t="n">
-        <v>0.110006489945048</v>
+        <v>0.09559870700160866</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09398723171311263</v>
+        <v>0.126705541704064</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03468065306643089</v>
+        <v>0.02994398918253269</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09518766762299156</v>
+        <v>0.1280783683312612</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03468065306643089</v>
+        <v>0.02994398918253269</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09518766762299156</v>
+        <v>0.1280783683312612</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0724214195656992</v>
+        <v>0.0629165641236247</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09485742128483018</v>
+        <v>0.1276693743058561</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1161284394300177</v>
+        <v>0.09618307991883074</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09466339884773935</v>
+        <v>0.1276170923638055</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03602067734847411</v>
+        <v>0.03050303838324876</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09586757953458436</v>
+        <v>0.1289932138193416</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03602067734847411</v>
+        <v>0.03050303838324876</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09586757953458436</v>
+        <v>0.1289932138193416</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06902947999338405</v>
+        <v>0.06053132701029526</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09553497429400755</v>
+        <v>0.1285812984080408</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1056026516689986</v>
+        <v>0.09635135451952731</v>
       </c>
       <c r="O206" t="n">
-        <v>0.09533956598236605</v>
+        <v>0.128528643023547</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03670934829494091</v>
+        <v>0.02981140668381084</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09654749144617715</v>
+        <v>0.1299080593074221</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03670934829494091</v>
+        <v>0.02981140668381084</v>
       </c>
       <c r="K207" t="n">
-        <v>0.09654749144617715</v>
+        <v>0.1299080593074221</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07428669738396537</v>
+        <v>0.0623569674851622</v>
       </c>
       <c r="M207" t="n">
-        <v>0.0962125273031849</v>
+        <v>0.1294932225102255</v>
       </c>
       <c r="N207" t="n">
-        <v>0.108090202338875</v>
+        <v>0.09602987952038733</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09601573311699277</v>
+        <v>0.1294401936832885</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03648433699923621</v>
+        <v>0.03107236825147318</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09722740335776994</v>
+        <v>0.1308229047955025</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03648433699923621</v>
+        <v>0.03107236825147318</v>
       </c>
       <c r="K208" t="n">
-        <v>0.09722740335776994</v>
+        <v>0.1308229047955025</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07512772635502238</v>
+        <v>0.06361322523274746</v>
       </c>
       <c r="M208" t="n">
-        <v>0.09689008031236226</v>
+        <v>0.1304051466124102</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1051089526955181</v>
+        <v>0.09742815583167724</v>
       </c>
       <c r="O208" t="n">
-        <v>0.09669190025161947</v>
+        <v>0.1303517443430299</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03672525283525374</v>
+        <v>0.03021067195347019</v>
       </c>
       <c r="G209" t="n">
-        <v>0.09790731526936275</v>
+        <v>0.1317377502835829</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03672525283525374</v>
+        <v>0.03021067195347019</v>
       </c>
       <c r="K209" t="n">
-        <v>0.09790731526936275</v>
+        <v>0.1317377502835829</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07627994498907142</v>
+        <v>0.06164213033506402</v>
       </c>
       <c r="M209" t="n">
-        <v>0.09756763332153963</v>
+        <v>0.1313170707145949</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1149319342476675</v>
+        <v>0.09864688011832651</v>
       </c>
       <c r="O209" t="n">
-        <v>0.09736806738624619</v>
+        <v>0.1312632950027714</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03684810728008854</v>
+        <v>0.02971221054163052</v>
       </c>
       <c r="G210" t="n">
-        <v>0.09858722718095554</v>
+        <v>0.1326525957716634</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03684810728008854</v>
+        <v>0.02971221054163052</v>
       </c>
       <c r="K210" t="n">
-        <v>0.09858722718095554</v>
+        <v>0.1326525957716634</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07812857276200991</v>
+        <v>0.06276835940090783</v>
       </c>
       <c r="M210" t="n">
-        <v>0.09824518633071698</v>
+        <v>0.1322289948167795</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1113191061935632</v>
+        <v>0.09757367732193317</v>
       </c>
       <c r="O210" t="n">
-        <v>0.09804423452087289</v>
+        <v>0.1321748456625128</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03551014433347741</v>
+        <v>0.03088318510434926</v>
       </c>
       <c r="G211" t="n">
-        <v>0.09926713909254833</v>
+        <v>0.1335674412597438</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03551014433347741</v>
+        <v>0.03088318510434926</v>
       </c>
       <c r="K211" t="n">
-        <v>0.09926713909254833</v>
+        <v>0.1335674412597438</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07126385250105557</v>
+        <v>0.06366379226549279</v>
       </c>
       <c r="M211" t="n">
-        <v>0.09892273933989433</v>
+        <v>0.1331409189189643</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1061693655006544</v>
+        <v>0.09716036697649888</v>
       </c>
       <c r="O211" t="n">
-        <v>0.09872040165549961</v>
+        <v>0.1330863963222543</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03467281482399141</v>
+        <v>0.0300639842200119</v>
       </c>
       <c r="G212" t="n">
-        <v>0.09994705100414113</v>
+        <v>0.1344822867478243</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03467281482399141</v>
+        <v>0.0300639842200119</v>
       </c>
       <c r="K212" t="n">
-        <v>0.09994705100414113</v>
+        <v>0.1344822867478243</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07429900848972273</v>
+        <v>0.06385870800574842</v>
       </c>
       <c r="M212" t="n">
-        <v>0.0996002923490717</v>
+        <v>0.1340528430211489</v>
       </c>
       <c r="N212" t="n">
-        <v>0.110689990936179</v>
+        <v>0.09442511126870667</v>
       </c>
       <c r="O212" t="n">
-        <v>0.09939656879012632</v>
+        <v>0.1339979469819958</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03515746835174582</v>
+        <v>0.03089131058847801</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1006269629157339</v>
+        <v>0.1353971322359047</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03515746835174582</v>
+        <v>0.03089131058847801</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1006269629157339</v>
+        <v>0.1353971322359047</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07060388268175749</v>
+        <v>0.06187495358499218</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1002778453582491</v>
+        <v>0.1349647671233336</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1158569164574699</v>
+        <v>0.09267638816919099</v>
       </c>
       <c r="O213" t="n">
-        <v>0.100072735924753</v>
+        <v>0.1349094976417373</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03438491014326304</v>
+        <v>0.03014604613102043</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1013068748273267</v>
+        <v>0.1363119777239851</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03438491014326304</v>
+        <v>0.03014604613102043</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1013068748273267</v>
+        <v>0.1363119777239851</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07718760331783894</v>
+        <v>0.06341089437657252</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1009553983674264</v>
+        <v>0.1358766912255183</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1161631659608304</v>
+        <v>0.09624362542244214</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1007489030593797</v>
+        <v>0.1358210483014787</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03396615690153361</v>
+        <v>0.03112635747402323</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1019867867389195</v>
+        <v>0.1372268232120656</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03396615690153361</v>
+        <v>0.03112635747402323</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1019867867389195</v>
+        <v>0.1372268232120656</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07181029727234639</v>
+        <v>0.06264376895363027</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1016329513766038</v>
+        <v>0.136788615327703</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1067949506925442</v>
+        <v>0.09959883533414637</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1014250701940064</v>
+        <v>0.1367325989612202</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03401600199011105</v>
+        <v>0.03110746023629657</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1026666986505123</v>
+        <v>0.138141668700146</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03401600199011105</v>
+        <v>0.03110746023629657</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1026666986505123</v>
+        <v>0.138141668700146</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07376055828600034</v>
+        <v>0.06491803420684486</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1023105043857811</v>
+        <v>0.1377005394298877</v>
       </c>
       <c r="N216" t="n">
-        <v>0.11009730029274</v>
+        <v>0.09564898942010258</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1021012373286331</v>
+        <v>0.1376441496209617</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03484664112907465</v>
+        <v>0.03108276122096405</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1033466105621051</v>
+        <v>0.1390565141882264</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03484664112907465</v>
+        <v>0.03108276122096405</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1033466105621051</v>
+        <v>0.1390565141882264</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07431885079953787</v>
+        <v>0.06374269610041214</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1029880573949585</v>
+        <v>0.1386124635320724</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1098688294999939</v>
+        <v>0.1002850769867943</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1027774044632599</v>
+        <v>0.1385557002807031</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03419652590362778</v>
+        <v>0.03174897428515222</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1040265224736979</v>
+        <v>0.1399713596763069</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03419652590362778</v>
+        <v>0.03174897428515222</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1040265224736979</v>
+        <v>0.1399713596763069</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06918948441369588</v>
+        <v>0.06486841364533208</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1036656104041358</v>
+        <v>0.1395243876342571</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1076877341812761</v>
+        <v>0.09718202085489874</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1034535715978866</v>
+        <v>0.1394672509404446</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03616697881089571</v>
+        <v>0.03136367868067157</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1047064343852907</v>
+        <v>0.1408862051643873</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03616697881089571</v>
+        <v>0.03136367868067157</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1047064343852907</v>
+        <v>0.1408862051643873</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07603895837037059</v>
+        <v>0.06636094233534789</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1043431634133132</v>
+        <v>0.1404363117364417</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1178890269973645</v>
+        <v>0.09490178645328556</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1041297387325133</v>
+        <v>0.1403788016001861</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03625769207992786</v>
+        <v>0.03079230492543832</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1053863462968835</v>
+        <v>0.1418010506524677</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03625769207992786</v>
+        <v>0.03079230492543832</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1053863462968835</v>
+        <v>0.1418010506524677</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06972009535776222</v>
+        <v>0.06568557496583657</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1050207164224906</v>
+        <v>0.1413482358386264</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1077238400222013</v>
+        <v>0.0969843003306371</v>
       </c>
       <c r="O220" t="n">
-        <v>0.10480590586714</v>
+        <v>0.1412903522599275</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0353265754094373</v>
+        <v>0.03143657723641252</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1060662582084763</v>
+        <v>0.1427158961405482</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0353265754094373</v>
+        <v>0.03143657723641252</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1060662582084763</v>
+        <v>0.1427158961405482</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07268257681552162</v>
+        <v>0.06608263085865915</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1056982694316679</v>
+        <v>0.1422601599408111</v>
       </c>
       <c r="N221" t="n">
-        <v>0.11555690064127</v>
+        <v>0.1000479263934779</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1054820730017667</v>
+        <v>0.142201902919669</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03467174226330301</v>
+        <v>0.03229252573481203</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1067461701200691</v>
+        <v>0.1436307416286286</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03467174226330301</v>
+        <v>0.03229252573481203</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1067461701200691</v>
+        <v>0.1436307416286286</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07350299296243179</v>
+        <v>0.06481096909599698</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1063758224408453</v>
+        <v>0.1431720840429958</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1113390426386236</v>
+        <v>0.09440659249880967</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1061582401363934</v>
+        <v>0.1431134535794105</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03619993954208536</v>
+        <v>0.03105388720294525</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1074260820316619</v>
+        <v>0.144545587116709</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03619993954208536</v>
+        <v>0.03105388720294525</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1074260820316619</v>
+        <v>0.144545587116709</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07480301071214535</v>
+        <v>0.0642763221241851</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1070533754500227</v>
+        <v>0.1440840081451805</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1129424607039144</v>
+        <v>0.09676781577104915</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1068344072710201</v>
+        <v>0.1440250042391519</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0362977005892022</v>
+        <v>0.03228691003622938</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1081059939432547</v>
+        <v>0.1454604326047895</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0362977005892022</v>
+        <v>0.03228691003622938</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1081059939432547</v>
+        <v>0.1454604326047895</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07640101905134175</v>
+        <v>0.06536793216947667</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1077309284592</v>
+        <v>0.1449959322473652</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1112192553257515</v>
+        <v>0.09691644886658896</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1075105744056468</v>
+        <v>0.1449365548988934</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03493501904876833</v>
+        <v>0.03163880916956674</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1087859058548475</v>
+        <v>0.1463752780928699</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03493501904876833</v>
+        <v>0.03163880916956674</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1087859058548475</v>
+        <v>0.1463752780928699</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07420134919276999</v>
+        <v>0.06461477162464604</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1084084814683774</v>
+        <v>0.1459078563495499</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1123561846784099</v>
+        <v>0.1009585608691653</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1081867415402736</v>
+        <v>0.1458481055586349</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0355561535905095</v>
+        <v>0.03103988704549826</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1094658177664403</v>
+        <v>0.1472901235809504</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0355561535905095</v>
+        <v>0.03103988704549826</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1094658177664403</v>
+        <v>0.1472901235809504</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07035056027565703</v>
+        <v>0.06546227408323257</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1090860344775547</v>
+        <v>0.1468197804517345</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1113914775116056</v>
+        <v>0.09826049903293083</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1088629086749002</v>
+        <v>0.1467596562183763</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03611875444564712</v>
+        <v>0.03143245172487034</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1101457296780331</v>
+        <v>0.1482049690690308</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03611875444564712</v>
+        <v>0.03143245172487034</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1101457296780331</v>
+        <v>0.1482049690690308</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07494462259301551</v>
+        <v>0.06455901225862284</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1097635874867321</v>
+        <v>0.1477317045539193</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1138872777478181</v>
+        <v>0.1000285246191028</v>
       </c>
       <c r="O227" t="n">
-        <v>0.109539075809527</v>
+        <v>0.1476712068781178</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03338788680825944</v>
+        <v>0.03145427878808911</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1108256415896259</v>
+        <v>0.1491198145571112</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03338788680825944</v>
+        <v>0.03145427878808911</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1108256415896259</v>
+        <v>0.1491198145571112</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06925967837917313</v>
+        <v>0.06652207969611976</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1104411404959094</v>
+        <v>0.1486436286561039</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1130773884094609</v>
+        <v>0.1021444875768901</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1102152429441537</v>
+        <v>0.1485827575378593</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03414747522941311</v>
+        <v>0.03284701001904854</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1115055535012187</v>
+        <v>0.1500346600451917</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03414747522941311</v>
+        <v>0.03284701001904854</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1115055535012187</v>
+        <v>0.1500346600451917</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06883661437254568</v>
+        <v>0.06471420841223632</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1111186935050868</v>
+        <v>0.1495555527582886</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1119978582322397</v>
+        <v>0.09979063752826811</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1108914100787804</v>
+        <v>0.1494943081976008</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03588131424323077</v>
+        <v>0.03130968717832294</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1121854654128115</v>
+        <v>0.1509495055332721</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03588131424323077</v>
+        <v>0.03130968717832294</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1121854654128115</v>
+        <v>0.1509495055332721</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06952789822201355</v>
+        <v>0.06621966739319948</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1117962465142641</v>
+        <v>0.1504674768604733</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1051806663892795</v>
+        <v>0.1000379220607511</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1115675772134071</v>
+        <v>0.1504058588573422</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0338208131527052</v>
+        <v>0.03282378309474372</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1128653773244043</v>
+        <v>0.1518643510213525</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0338208131527052</v>
+        <v>0.03282378309474372</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1128653773244043</v>
+        <v>0.1518643510213525</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07477244904545463</v>
+        <v>0.06479376079402333</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1124737995234415</v>
+        <v>0.151379400962658</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1098826006843772</v>
+        <v>0.09785040432281567</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1122437443480338</v>
+        <v>0.1513174095170837</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03539870209460955</v>
+        <v>0.03241301620049179</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1135452892359971</v>
+        <v>0.152779196509433</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03539870209460955</v>
+        <v>0.03241301620049179</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1135452892359971</v>
+        <v>0.152779196509433</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07330713681375808</v>
+        <v>0.06666334995195636</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1131513525326189</v>
+        <v>0.1522913250648427</v>
       </c>
       <c r="N232" t="n">
-        <v>0.107685123228659</v>
+        <v>0.102391770154438</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1129199114826605</v>
+        <v>0.1522289601768251</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03601834957816054</v>
+        <v>0.03185837580287722</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1142252011475899</v>
+        <v>0.1536940419975134</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03601834957816054</v>
+        <v>0.03185837580287722</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1142252011475899</v>
+        <v>0.1536940419975134</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07378246001037664</v>
+        <v>0.06547884218806693</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1138289055417962</v>
+        <v>0.1532032491670273</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1155250813886836</v>
+        <v>0.09961321688081648</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1135960786172872</v>
+        <v>0.1531405108365666</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03542076154766924</v>
+        <v>0.03186836252272246</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1149051130591827</v>
+        <v>0.1546088874855939</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03542076154766924</v>
+        <v>0.03186836252272246</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1149051130591827</v>
+        <v>0.1546088874855939</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07207540214626551</v>
+        <v>0.06508687647475025</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1145064585509736</v>
+        <v>0.1541151732692121</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1061226376516073</v>
+        <v>0.09810245970979586</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1142722457519139</v>
+        <v>0.1540520614963081</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03526002334721355</v>
+        <v>0.03220340719003073</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1155850249707755</v>
+        <v>0.1555237329736743</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03526002334721355</v>
+        <v>0.03220340719003073</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1155850249707755</v>
+        <v>0.1555237329736743</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06780660933296717</v>
+        <v>0.0647904189790664</v>
       </c>
       <c r="M235" t="n">
-        <v>0.115184011560151</v>
+        <v>0.1550270973713967</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1076297498798147</v>
+        <v>0.1008433811454927</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1149484128865406</v>
+        <v>0.1549636121560496</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03541592063564282</v>
+        <v>0.03274417530157331</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1162649368823682</v>
+        <v>0.1564385784617547</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03541592063564282</v>
+        <v>0.03274417530157331</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1162649368823682</v>
+        <v>0.1564385784617547</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07359682137455933</v>
+        <v>0.0675166596903711</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1158615645693283</v>
+        <v>0.1559390214735814</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1091223702674979</v>
+        <v>0.1042514317758296</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1156245800211674</v>
+        <v>0.155875162815791</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03321968036524812</v>
+        <v>0.0329145852423734</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1169448487939611</v>
+        <v>0.1573534239498352</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03321968036524812</v>
+        <v>0.0329145852423734</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1169448487939611</v>
+        <v>0.1573534239498352</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07273788718259361</v>
+        <v>0.0658151129425035</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1165391175785057</v>
+        <v>0.1568509455757661</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1138528892182041</v>
+        <v>0.1009069394591428</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1163007471557941</v>
+        <v>0.1567867134755325</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0341567371909659</v>
+        <v>0.03232235582301259</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1176247607055539</v>
+        <v>0.1582682694379156</v>
       </c>
       <c r="J238" t="n">
-        <v>0.0341567371909659</v>
+        <v>0.03232235582301259</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1176247607055539</v>
+        <v>0.1582682694379156</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0707372663708066</v>
+        <v>0.06509516179433353</v>
       </c>
       <c r="M238" t="n">
-        <v>0.117216670587683</v>
+        <v>0.1577628696779508</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1063172889040213</v>
+        <v>0.1005797317749261</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1169769142904208</v>
+        <v>0.157698264135274</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0353010074816658</v>
+        <v>0.03359557540486027</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1183046726171467</v>
+        <v>0.159183114925996</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0353010074816658</v>
+        <v>0.03359557540486027</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1183046726171467</v>
+        <v>0.159183114925996</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07510582301759333</v>
+        <v>0.06883740734760399</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1178942235968604</v>
+        <v>0.1586747937801355</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1026488918723437</v>
+        <v>0.1012637529344766</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1176530814250475</v>
+        <v>0.1586098147950154</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0334705866144986</v>
+        <v>0.03222051097376823</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1189845845287394</v>
+        <v>0.1600979604140765</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0334705866144986</v>
+        <v>0.03222051097376823</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1189845845287394</v>
+        <v>0.1600979604140765</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06662899218643373</v>
+        <v>0.06679601698334409</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1185717766060377</v>
+        <v>0.1595867178823202</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1120718761462863</v>
+        <v>0.103367580199042</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1183292485596742</v>
+        <v>0.1595213654547569</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03432627764205849</v>
+        <v>0.03248930708482509</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1196644964403322</v>
+        <v>0.1610128059021569</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03432627764205849</v>
+        <v>0.03248930708482509</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1196644964403322</v>
+        <v>0.1610128059021569</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07113596520263585</v>
+        <v>0.06747327017960009</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1192493296152151</v>
+        <v>0.1604986419845049</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1130006621471858</v>
+        <v>0.1039881186553829</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1190054156943009</v>
+        <v>0.1604329161144984</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03388698305067905</v>
+        <v>0.03226787983212336</v>
       </c>
       <c r="G242" t="n">
-        <v>0.120344408351925</v>
+        <v>0.1619276513902373</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03388698305067905</v>
+        <v>0.03226787983212336</v>
       </c>
       <c r="K242" t="n">
-        <v>0.120344408351925</v>
+        <v>0.1619276513902373</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06757482444448862</v>
+        <v>0.06861494567566592</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1199268826243925</v>
+        <v>0.1614105660866895</v>
       </c>
       <c r="N242" t="n">
-        <v>0.114689532245166</v>
+        <v>0.1035801987199186</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1196815828289276</v>
+        <v>0.1613444667742398</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03319230860065678</v>
+        <v>0.03292046558527216</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1210243202635178</v>
+        <v>0.1628424968783178</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03319230860065678</v>
+        <v>0.03292046558527216</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1210243202635178</v>
+        <v>0.1628424968783178</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07424165068442712</v>
+        <v>0.06644912573714779</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1206044356335698</v>
+        <v>0.1623224901888742</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1019129118236372</v>
+        <v>0.1048142393674311</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1203577499635543</v>
+        <v>0.1622560174339813</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03294260335952416</v>
+        <v>0.03349066577637944</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1217042321751106</v>
+        <v>0.1637573423663982</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03294260335952416</v>
+        <v>0.03349066577637944</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1217042321751106</v>
+        <v>0.1637573423663982</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07531663989854157</v>
+        <v>0.06717814470339592</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1212819886427472</v>
+        <v>0.1632344142910589</v>
       </c>
       <c r="N244" t="n">
-        <v>0.113583392017596</v>
+        <v>0.1041403917185282</v>
       </c>
       <c r="O244" t="n">
-        <v>0.121033917098181</v>
+        <v>0.1631675680937228</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03292925713223219</v>
+        <v>0.0325847646181225</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1223841440867034</v>
+        <v>0.1646721878544787</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03292925713223219</v>
+        <v>0.0325847646181225</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1223841440867034</v>
+        <v>0.1646721878544787</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07292253388911363</v>
+        <v>0.07011001912569256</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1219595416519245</v>
+        <v>0.1641463383932436</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1104023325840894</v>
+        <v>0.1007441964173066</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1217100842328077</v>
+        <v>0.1640791187534642</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03573228562635776</v>
+        <v>0.0326960320184158</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1230640559982962</v>
+        <v>0.1655870333425591</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03573228562635776</v>
+        <v>0.0326960320184158</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1230640559982962</v>
+        <v>0.1655870333425591</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06694666452228415</v>
+        <v>0.06945786800090548</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1226370946611019</v>
+        <v>0.1650582624954283</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1110747860794674</v>
+        <v>0.1013020411351153</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1223862513674344</v>
+        <v>0.1649906694132057</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03316335966821296</v>
+        <v>0.03296621193863153</v>
       </c>
       <c r="G247" t="n">
-        <v>0.123743967909889</v>
+        <v>0.1665018788306395</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03316335966821296</v>
+        <v>0.03296621193863153</v>
       </c>
       <c r="K247" t="n">
-        <v>0.123743967909889</v>
+        <v>0.1665018788306395</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0731886680769547</v>
+        <v>0.0710448094173344</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1233146476702792</v>
+        <v>0.165970186597613</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1112482747248684</v>
+        <v>0.1053877257683324</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1230624185020611</v>
+        <v>0.1659022200729472</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03331137935898273</v>
+        <v>0.03357064787134389</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1244238798214818</v>
+        <v>0.16741672431872</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03331137935898273</v>
+        <v>0.03357064787134389</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1244238798214818</v>
+        <v>0.16741672431872</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06678294312392258</v>
+        <v>0.06814001547409274</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1239922006794566</v>
+        <v>0.1668821106997977</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1124781191125041</v>
+        <v>0.1051933435157351</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1237385856366879</v>
+        <v>0.1668137707326886</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03422231433422954</v>
+        <v>0.03389194594886424</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1251037917330746</v>
+        <v>0.1683315698068004</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03422231433422954</v>
+        <v>0.03389194594886424</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1251037917330746</v>
+        <v>0.1683315698068004</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07293716163912381</v>
+        <v>0.06812514138897025</v>
       </c>
       <c r="M249" t="n">
-        <v>0.124669753688634</v>
+        <v>0.1677940348019824</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1138462722904138</v>
+        <v>0.1065397959355329</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1244147527713146</v>
+        <v>0.1677253213924301</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03417803643492756</v>
+        <v>0.03338372628290788</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1257837036446674</v>
+        <v>0.1692464152948809</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03417803643492756</v>
+        <v>0.03338372628290788</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1257837036446674</v>
+        <v>0.1692464152948809</v>
       </c>
       <c r="L250" t="n">
-        <v>0.0666748958522756</v>
+        <v>0.07069557978506971</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1253473066978113</v>
+        <v>0.168705958904167</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1131896871308203</v>
+        <v>0.1080723400171135</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1250909199059413</v>
+        <v>0.1686368720521716</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03474701875104698</v>
+        <v>0.03420166725616373</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1264636155562602</v>
+        <v>0.1701612607829613</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03474701875104698</v>
+        <v>0.03420166725616373</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1264636155562602</v>
+        <v>0.1701612607829613</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07027082445828875</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1260248597069887</v>
+        <v>0.1696178830063517</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1087512484159704</v>
+        <v>0.1040118442262286</v>
       </c>
       <c r="O251" t="n">
-        <v>0.125767087040568</v>
+        <v>0.1695484227119131</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03539261223971843</v>
+        <v>0.03309633945045984</v>
       </c>
       <c r="G252" t="n">
-        <v>0.127143527467853</v>
+        <v>0.1710761062710417</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03539261223971843</v>
+        <v>0.03309633945045984</v>
       </c>
       <c r="K252" t="n">
-        <v>0.127143527467853</v>
+        <v>0.1710761062710417</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06708861160025076</v>
+        <v>0.06943356293420835</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1267024127161661</v>
+        <v>0.1705298071085364</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1076053072106598</v>
+        <v>0.1029811897585571</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1264432541751947</v>
+        <v>0.1704599733716545</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03373470048547296</v>
+        <v>0.0343419345284041</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1278234393794458</v>
+        <v>0.1719909517591222</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03373470048547296</v>
+        <v>0.0343419345284041</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1278234393794458</v>
+        <v>0.1719909517591222</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07265898413978605</v>
+        <v>0.07183125208879043</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1273799657253434</v>
+        <v>0.1714417312107211</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1085124145788363</v>
+        <v>0.1052184256409761</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1271194213098214</v>
+        <v>0.171371524031396</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0335781065035302</v>
+        <v>0.03453961109456345</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1285033512910386</v>
+        <v>0.1729057972472026</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0335781065035302</v>
+        <v>0.03453961109456345</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1285033512910386</v>
+        <v>0.1729057972472026</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06979526454528781</v>
+        <v>0.06979326344176767</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1280575187345208</v>
+        <v>0.1723536553129058</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1074398936257034</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1277955884444481</v>
+        <v>0.1722830746911374</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03422117192094998</v>
+        <v>0.03362480420471149</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1291832632026314</v>
+        <v>0.173820642735283</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03422117192094998</v>
+        <v>0.03362480420471149</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1291832632026314</v>
+        <v>0.173820642735283</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07048164545863803</v>
+        <v>0.06803228213603127</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1287350717436981</v>
+        <v>0.1732655794150905</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1111520148157932</v>
+        <v>0.1059421365141059</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1284717555790748</v>
+        <v>0.1731946253508789</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03374097183456179</v>
+        <v>0.03464722668152848</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1298631751142242</v>
+        <v>0.1747354882233635</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03374097183456179</v>
+        <v>0.03464722668152848</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1298631751142242</v>
+        <v>0.1747354882233635</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07151467369268322</v>
+        <v>0.07140180582019631</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1294126247528755</v>
+        <v>0.1741775035172752</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1142933278527791</v>
+        <v>0.1042218365567707</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1291479227137015</v>
+        <v>0.1741061760106204</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03604534824969838</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G257" t="n">
-        <v>0.130543087025817</v>
+        <v>0.1756503337114439</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03604534824969838</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K257" t="n">
-        <v>0.130543087025817</v>
+        <v>0.1756503337114439</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07520353845205527</v>
+        <v>0.07159798334098488</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1300901777620528</v>
+        <v>0.1750894276194599</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1083026676074376</v>
+        <v>0.1042927371684873</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1298240898483282</v>
+        <v>0.1750177266703619</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03450259055698575</v>
+        <v>0.03351304937029376</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1312229989374098</v>
+        <v>0.1765651791995244</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03450259055698575</v>
+        <v>0.03351304937029376</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1312229989374098</v>
+        <v>0.1765651791995244</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07227017099223756</v>
+        <v>0.06854560194377926</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1307677307712302</v>
+        <v>0.1760013517216445</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1117298170561462</v>
+        <v>0.1080911060477095</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1305002569829549</v>
+        <v>0.1759292773301033</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03414496287329298</v>
+        <v>0.03461944930152318</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1319029108490026</v>
+        <v>0.1774800246876048</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03414496287329298</v>
+        <v>0.03461944930152318</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1319029108490026</v>
+        <v>0.1774800246876048</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07416138554310109</v>
+        <v>0.06892667765354582</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1314452837804075</v>
+        <v>0.1769132758238292</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1131335275631911</v>
+        <v>0.1050143424242163</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1311764241175817</v>
+        <v>0.1768408279898448</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03522156220220303</v>
+        <v>0.0350412277251127</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1325828227605954</v>
+        <v>0.1783948701756852</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03522156220220303</v>
+        <v>0.0350412277251127</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1325828227605954</v>
+        <v>0.1783948701756852</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06987508741983636</v>
+        <v>0.07030353705239017</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1321228367895849</v>
+        <v>0.1778251999260139</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1094838179874694</v>
+        <v>0.1043841071227442</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1318525912522084</v>
+        <v>0.1777523786495863</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03459066003564533</v>
+        <v>0.0345682891245863</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1332627346721882</v>
+        <v>0.1793097156637657</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03459066003564533</v>
+        <v>0.0345682891245863</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1332627346721882</v>
+        <v>0.1793097156637657</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07655872918383372</v>
+        <v>0.07011076535997021</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1328003897987623</v>
+        <v>0.1787371240281986</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1076809278420899</v>
+        <v>0.1112848765712409</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1325287583868351</v>
+        <v>0.1786639293093277</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03467957165886854</v>
+        <v>0.03422131533994179</v>
       </c>
       <c r="G262" t="n">
-        <v>0.133942646583781</v>
+        <v>0.1802245611518461</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03467957165886854</v>
+        <v>0.03422131533994179</v>
       </c>
       <c r="K262" t="n">
-        <v>0.133942646583781</v>
+        <v>0.1802245611518461</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06940667358558944</v>
+        <v>0.07068183755315702</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1334779428079396</v>
+        <v>0.1796490481303833</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1128066227062674</v>
+        <v>0.1097048708563569</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1332049255214618</v>
+        <v>0.1795754799690692</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03653064574764472</v>
+        <v>0.03506321062190851</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1346225584953738</v>
+        <v>0.1811394066399265</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03653064574764472</v>
+        <v>0.03506321062190851</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1346225584953738</v>
+        <v>0.1811394066399265</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07197828905625839</v>
+        <v>0.07060997027454444</v>
       </c>
       <c r="M263" t="n">
-        <v>0.134155495817117</v>
+        <v>0.180560972232568</v>
       </c>
       <c r="N263" t="n">
-        <v>0.111795463650106</v>
+        <v>0.1115787087798888</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1338810926560885</v>
+        <v>0.1804870306288107</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03515785631703838</v>
+        <v>0.03418039591855665</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1353024704069666</v>
+        <v>0.182054252128007</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03515785631703838</v>
+        <v>0.03418039591855665</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1353024704069666</v>
+        <v>0.182054252128007</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07318666293760925</v>
+        <v>0.07143638981550557</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1348330488262943</v>
+        <v>0.1814728963347526</v>
       </c>
       <c r="N264" t="n">
-        <v>0.114355629574124</v>
+        <v>0.1082936275773269</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1345572597907152</v>
+        <v>0.1813985812885521</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1073.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1073.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8809,7 +8809,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9256,10 +9256,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9274,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0001650000000000054</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0001650000000000054</v>
+        <v>0.0001550000000000024</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.02052718197020717</v>
+        <v>0.0194468039717752</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0004428700758649922</v>
+        <v>0.0004365130891300877</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02345952516654204</v>
+        <v>0.03273422116261676</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003127913229347105</v>
+        <v>0.0004321316918278289</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9316,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.009258127250950973</v>
+        <v>0.009534698318798336</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006172038543331061</v>
+        <v>0.0005561715176697933</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.009258127250950973</v>
+        <v>0.008908763958462261</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006172038543331061</v>
+        <v>0.0005939131428488382</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001165447568065769</v>
+        <v>0.001212536358694689</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001091132521865268</v>
+        <v>0.001080329229569573</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9356,10 +9356,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.01816121240506933</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.001112343035339587</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9369,16 +9369,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03534106703911127</v>
+        <v>0.03776371441667134</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001823848204369373</v>
+        <v>0.001824321458546548</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05839070645702232</v>
+        <v>0.05538316463011927</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001823101319482936</v>
+        <v>0.001822992743680969</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9398,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0183447921788927</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002744536464241311</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0183447921788927</v>
+        <v>0.01813795702383787</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.002744536464241311</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03833218284935372</v>
+        <v>0.03560739500884527</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00273577230655406</v>
+        <v>0.002736482187819822</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05699942157280796</v>
+        <v>0.05515480093587377</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002734651979224404</v>
+        <v>0.002734489115521454</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9445,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01765727468465181</v>
+        <v>0.0308831288469745</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003659381952321748</v>
+        <v>0.002224686070679173</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01765727468465181</v>
+        <v>0.01862278276876769</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003659381952321748</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03826453596798096</v>
+        <v>0.03654816898947966</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003647696408738747</v>
+        <v>0.003648642917093096</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05628323866029988</v>
+        <v>0.05489862268862483</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003646202638965872</v>
+        <v>0.003645985487361938</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9482,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006172038543331061</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009258127250950973</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01816646107784635</v>
+        <v>0.03644359093644176</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004574227440402184</v>
+        <v>0.002780857588348967</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01816646107784635</v>
+        <v>0.01900011474162661</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.004574227440402184</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03789054689402832</v>
+        <v>0.03810547438149028</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004559620510923433</v>
+        <v>0.004560803646366371</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.05625957015853311</v>
+        <v>0.05851576015877363</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00455775329870734</v>
+        <v>0.004557481859202422</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01854112750261182</v>
+        <v>0.04149206577244127</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.005489072928482623</v>
+        <v>0.00333702910601876</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01854112750261182</v>
+        <v>0.01803279062103748</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.005489072928482623</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03693418296264284</v>
+        <v>0.03958604777082717</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.005471544613108121</v>
+        <v>0.005472964375639644</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05782812195955622</v>
+        <v>0.0592910782640802</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.005469303958448808</v>
+        <v>0.005468978231042907</v>
       </c>
     </row>
     <row r="72">
@@ -9552,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01951621678444281</v>
+        <v>0.04572541325551524</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.006403918416563059</v>
+        <v>0.003893200623688553</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01951621678444281</v>
+        <v>0.01852716791632845</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.006403918416563059</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03730643280002921</v>
+        <v>0.03870097261261229</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.006383468715292807</v>
+        <v>0.006385125104912918</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06049978108115606</v>
+        <v>0.05915706234433987</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.006380854618190275</v>
+        <v>0.006380474602883391</v>
       </c>
     </row>
     <row r="73">
@@ -9598,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01912169953027694</v>
+        <v>0.04884049328620589</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.007318763904643496</v>
+        <v>0.004449372141358346</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01912169953027694</v>
+        <v>0.01920771733661185</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.007318763904643496</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03776788344595525</v>
+        <v>0.04128749462225767</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.007295392817477493</v>
+        <v>0.007297285834186192</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05840041511435151</v>
+        <v>0.06053720046508904</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.007292405277931744</v>
+        <v>0.007291970974723876</v>
       </c>
     </row>
     <row r="74">
@@ -9635,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01939898663759423</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.008233609392723934</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01939898663759423</v>
+        <v>0.01868486273977998</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.008233609392723934</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04067957499784852</v>
+        <v>0.03808050973071422</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.008207316919662181</v>
+        <v>0.008209446563459467</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05998332649751509</v>
+        <v>0.0620086261082623</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.008203955937673212</v>
+        <v>0.008203467346564361</v>
       </c>
     </row>
     <row r="75">
@@ -9679,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01924500953062613</v>
+        <v>0.05124516877195633</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.009148454880804369</v>
+        <v>0.005561715176697933</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01924500953062613</v>
+        <v>0.01884650608821148</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.009148454880804369</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03960359823289328</v>
+        <v>0.04064128630962791</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.009119241021846866</v>
+        <v>0.009121607292732741</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06064647936276735</v>
+        <v>0.05748907172753476</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.009115506597414681</v>
+        <v>0.009114963718404845</v>
       </c>
     </row>
     <row r="76">
@@ -9721,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0188006727980112</v>
+        <v>0.05193486225656946</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01006330036888481</v>
+        <v>0.006117886694367726</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0188006727980112</v>
+        <v>0.01906305706137131</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.01006330036888481</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03914829785298291</v>
+        <v>0.03888963274538751</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01003116512403155</v>
+        <v>0.01003376802200601</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05894233982970698</v>
+        <v>0.05814195112767134</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01002705725715615</v>
+        <v>0.01002646009024533</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9758,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01908284673200752</v>
+        <v>0.05261207473045341</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01097814585696525</v>
+        <v>0.00667405821203752</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01908284673200752</v>
+        <v>0.018862501893762</v>
       </c>
       <c r="K77" t="n">
         <v>0.01097814585696525</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04004499896783126</v>
+        <v>0.03851134138180587</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01094308922621624</v>
+        <v>0.01094592875127929</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05884589996510603</v>
+        <v>0.05915394653695316</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01093860791689762</v>
+        <v>0.01093795646208581</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9798,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02006478713505436</v>
+        <v>0.05327691334593873</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01189299134504568</v>
+        <v>0.007230229729707312</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02006478713505436</v>
+        <v>0.01953980185485975</v>
       </c>
       <c r="K78" t="n">
         <v>0.01189299134504568</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03959456754276647</v>
+        <v>0.03981564263571891</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01185501332840093</v>
+        <v>0.01185808948055256</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05912302078202486</v>
+        <v>0.06417471574945105</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01185015857663908</v>
+        <v>0.0118494528339263</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9840,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01965301647151736</v>
+        <v>0.05392948525535586</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01280783683312612</v>
+        <v>0.007786401247377107</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01965301647151736</v>
+        <v>0.01919468878258278</v>
       </c>
       <c r="K79" t="n">
         <v>0.01280783683312612</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03931306687120578</v>
+        <v>0.0414101474761267</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01276693743058561</v>
+        <v>0.01277025020982584</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05916503342935614</v>
+        <v>0.06295385293199279</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01276170923638055</v>
+        <v>0.01276094920576678</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9871,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02024567062461835</v>
+        <v>0.05456989761103528</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01372268232120656</v>
+        <v>0.0083425727650469</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02024567062461835</v>
+        <v>0.02009665727754104</v>
       </c>
       <c r="K80" t="n">
         <v>0.01372268232120656</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03911707679601859</v>
+        <v>0.04247386714525503</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0136788615327703</v>
+        <v>0.01368241093909911</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06399737983864667</v>
+        <v>0.06473435488219637</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01367325989612202</v>
+        <v>0.01367244557760727</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9908,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01975583325211813</v>
+        <v>0.0551982575653075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01463752780928699</v>
+        <v>0.008898744282716692</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01975583325211813</v>
+        <v>0.01956911756554632</v>
       </c>
       <c r="K81" t="n">
         <v>0.01463752780928699</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04028330421005047</v>
+        <v>0.03966293799456141</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01459078563495499</v>
+        <v>0.01459457166837238</v>
       </c>
       <c r="N81" t="n">
-        <v>0.059329196832346</v>
+        <v>0.06518154867571629</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01458481055586349</v>
+        <v>0.01458394194944775</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9942,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01935366562206775</v>
+        <v>0.05581467227050298</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01555237329736743</v>
+        <v>0.009454915800386486</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01935366562206775</v>
+        <v>0.02006019509715293</v>
       </c>
       <c r="K82" t="n">
         <v>0.01555237329736743</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0418155675337778</v>
+        <v>0.03976723825584036</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01550270973713967</v>
+        <v>0.01550673239764566</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06081569904582546</v>
+        <v>0.06502032244679895</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01549636121560495</v>
+        <v>0.01549543832128824</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9973,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01982196301120774</v>
+        <v>0.05641924887895221</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01646721878544787</v>
+        <v>0.01001108731805628</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01982196301120774</v>
+        <v>0.02055007656288521</v>
       </c>
       <c r="K83" t="n">
         <v>0.01646721878544787</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04120080061230089</v>
+        <v>0.03947304028920695</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01641463383932436</v>
+        <v>0.01641889312691893</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06093991367890383</v>
+        <v>0.0632136590519034</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01640791187534642</v>
+        <v>0.01640693469312872</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10009,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01966917849444465</v>
+        <v>0.05701209454298568</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0173820642735283</v>
+        <v>0.01056725883572607</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01966917849444465</v>
+        <v>0.01933655752254819</v>
       </c>
       <c r="K84" t="n">
         <v>0.0173820642735283</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03949818905213529</v>
+        <v>0.03952295630986088</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01732655794150905</v>
+        <v>0.01733105385619221</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06115262014278322</v>
+        <v>0.06210131782662748</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01731946253508789</v>
+        <v>0.01731843106496921</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10049,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01987416972694361</v>
+        <v>0.05759331641493387</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01829690976160874</v>
+        <v>0.01112343035339587</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01987416972694361</v>
+        <v>0.02065261154467675</v>
       </c>
       <c r="K85" t="n">
         <v>0.01829690976160874</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04121155047392769</v>
+        <v>0.04015063129230162</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01823848204369373</v>
+        <v>0.01824321458546548</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06320929084135002</v>
+        <v>0.0648141849556626</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01823101319482936</v>
+        <v>0.01822992743680969</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10091,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02041810328340818</v>
+        <v>0.05816302164712729</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01921175524968918</v>
+        <v>0.01167960187106566</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02041810328340818</v>
+        <v>0.0201986056051726</v>
       </c>
       <c r="K86" t="n">
         <v>0.01921175524968918</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04044910301558782</v>
+        <v>0.04267919396355641</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01915040614587842</v>
+        <v>0.01915537531473875</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06083210355018909</v>
+        <v>0.06383989473781237</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01914256385457083</v>
+        <v>0.01914142380865018</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10122,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02014034621075633</v>
+        <v>0.0587213173918964</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02012660073776961</v>
+        <v>0.01223577338873545</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02014034621075633</v>
+        <v>0.02059871554254379</v>
       </c>
       <c r="K87" t="n">
         <v>0.02012660073776961</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0430264854668905</v>
+        <v>0.04292231435915111</v>
       </c>
       <c r="M87" t="n">
-        <v>0.02006233024806311</v>
+        <v>0.02006753604401203</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06368989696106903</v>
+        <v>0.06179577509167444</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0200541145143123</v>
+        <v>0.02005292018049066</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10157,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02063929276174643</v>
+        <v>0.0592683108015717</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02104144622585005</v>
+        <v>0.01279194490640525</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02063929276174643</v>
+        <v>0.02059304171616459</v>
       </c>
       <c r="K88" t="n">
         <v>0.02104144622585005</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03995408612444848</v>
+        <v>0.0413431301072279</v>
       </c>
       <c r="M88" t="n">
-        <v>0.02097425435024779</v>
+        <v>0.0209796967732853</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06349633887996103</v>
+        <v>0.06095812943093798</v>
       </c>
       <c r="O88" t="n">
-        <v>0.02096566517405377</v>
+        <v>0.02096441655233114</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10191,4378 +10191,4378 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01977300394625423</v>
+        <v>0.05980410902848367</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02195629171393049</v>
+        <v>0.01334811642407504</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01977300394625423</v>
+        <v>0.02003504200501877</v>
       </c>
       <c r="K89" t="n">
         <v>0.02195629171393049</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04212024070074397</v>
+        <v>0.04241357821704697</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02188617845243248</v>
+        <v>0.02189185750255858</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06514465380306556</v>
+        <v>0.06458046282455754</v>
       </c>
       <c r="O89" t="n">
-        <v>0.02187721583379523</v>
+        <v>0.02187591292417163</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02097822086971177</v>
+        <v>0.06032881922496279</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02287113720201093</v>
+        <v>0.01390428794174483</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02097822086971177</v>
+        <v>0.02078769722903742</v>
       </c>
       <c r="K90" t="n">
         <v>0.02287113720201093</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04187788183504426</v>
+        <v>0.0419668737194841</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02279810255461717</v>
+        <v>0.02280401823183185</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06072394407356485</v>
+        <v>0.06171075451120672</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0227887664935367</v>
+        <v>0.02278740929601211</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02084460241505533</v>
+        <v>0.06084254854333954</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02378598269009136</v>
+        <v>0.01446045945941462</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02084460241505533</v>
+        <v>0.02020636734982335</v>
       </c>
       <c r="K91" t="n">
         <v>0.02378598269009136</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04238348718897542</v>
+        <v>0.04128468898257004</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02371002665680185</v>
+        <v>0.02371617896110513</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06751306842203453</v>
+        <v>0.06307593922283811</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02370031715327817</v>
+        <v>0.0236989056678526</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02055942341198315</v>
+        <v>0.06134540413594443</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0247008281781718</v>
+        <v>0.01501663097708442</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02055942341198315</v>
+        <v>0.02136743366661224</v>
       </c>
       <c r="K92" t="n">
         <v>0.0247008281781718</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04467295877439784</v>
+        <v>0.04139332881020116</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02462195075898654</v>
+        <v>0.0246283396903784</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06715717529300147</v>
+        <v>0.06153954605278378</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02461186781301963</v>
+        <v>0.02461040203969308</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02042810184467229</v>
+        <v>0.06183749315510791</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02561567366625224</v>
+        <v>0.01557280249475421</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02042810184467229</v>
+        <v>0.02061248903903744</v>
       </c>
       <c r="K93" t="n">
         <v>0.02561567366625224</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04186145227949203</v>
+        <v>0.04277512322695093</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02553387486117123</v>
+        <v>0.02554050041965167</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06216322571141492</v>
+        <v>0.06357177463368524</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0255234184727611</v>
+        <v>0.02552189841153357</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02026671896533301</v>
+        <v>0.06231892275316048</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02653051915433268</v>
+        <v>0.01612897401242401</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02026671896533301</v>
+        <v>0.02052954640342279</v>
       </c>
       <c r="K94" t="n">
         <v>0.02653051915433268</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0447487670971109</v>
+        <v>0.04502193982739491</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02644579896335591</v>
+        <v>0.02645266114892495</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06643255898005523</v>
+        <v>0.06236083525311148</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02643496913250257</v>
+        <v>0.02643339478337405</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02092220800817182</v>
+        <v>0.06278980008243265</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02744536464241311</v>
+        <v>0.0166851455300938</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02092220800817182</v>
+        <v>0.02164043171613125</v>
       </c>
       <c r="K95" t="n">
         <v>0.02744536464241311</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04457360969970162</v>
+        <v>0.04380771465203184</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0273577230655406</v>
+        <v>0.02736482187819822</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06596984221863922</v>
+        <v>0.06841296307565226</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02734651979224404</v>
+        <v>0.02734489115521454</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02055114152769105</v>
+        <v>0.06325023229525488</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02836021013049355</v>
+        <v>0.01724131704776359</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02055114152769105</v>
+        <v>0.02134217720558018</v>
       </c>
       <c r="K96" t="n">
         <v>0.02836021013049355</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04297719330872737</v>
+        <v>0.04271186330704729</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02826964716772529</v>
+        <v>0.0282769826074715</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06529574094528284</v>
+        <v>0.06874395430325836</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02825807045198551</v>
+        <v>0.02825638752705502</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02137798369927499</v>
+        <v>0.06370032654395764</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02927505561857398</v>
+        <v>0.01779748856543338</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02137798369927499</v>
+        <v>0.02092851264884441</v>
       </c>
       <c r="K97" t="n">
         <v>0.02927505561857398</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04353669731731719</v>
+        <v>0.04393734806171742</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02918157126990997</v>
+        <v>0.02918914333674477</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06436954766137959</v>
+        <v>0.06620662534629657</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02916962111172697</v>
+        <v>0.02916788389889551</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02099068626899504</v>
+        <v>0.06414018998087144</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03018990110665442</v>
+        <v>0.01835366008310318</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02099068626899504</v>
+        <v>0.02108379951688613</v>
       </c>
       <c r="K98" t="n">
         <v>0.03018990110665442</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04208170595418567</v>
+        <v>0.04439942844112815</v>
       </c>
       <c r="M98" t="n">
-        <v>0.03009349537209466</v>
+        <v>0.03010130406601804</v>
       </c>
       <c r="N98" t="n">
-        <v>0.06712887546626012</v>
+        <v>0.06831606045124211</v>
       </c>
       <c r="O98" t="n">
-        <v>0.03008117177146844</v>
+        <v>0.03007938027073599</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02146767377261058</v>
+        <v>0.06456992975832677</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03110474659473486</v>
+        <v>0.01890983160077297</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02146767377261058</v>
+        <v>0.0210449719682206</v>
       </c>
       <c r="K99" t="n">
         <v>0.03110474659473486</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04325709769880839</v>
+        <v>0.04602474528586778</v>
       </c>
       <c r="M99" t="n">
-        <v>0.03100541947427935</v>
+        <v>0.03101346479529132</v>
       </c>
       <c r="N99" t="n">
-        <v>0.06503494005104249</v>
+        <v>0.06411234333928473</v>
       </c>
       <c r="O99" t="n">
-        <v>0.03099272243120991</v>
+        <v>0.03099087664257648</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02082558206245305</v>
+        <v>0.06498965302865412</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0320195920828153</v>
+        <v>0.01946600311844277</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02082558206245305</v>
+        <v>0.02119849505389566</v>
       </c>
       <c r="K100" t="n">
         <v>0.0320195920828153</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04529435404480248</v>
+        <v>0.04600061691086002</v>
       </c>
       <c r="M100" t="n">
-        <v>0.03191734357646404</v>
+        <v>0.03192562552456459</v>
       </c>
       <c r="N100" t="n">
-        <v>0.06738038788032019</v>
+        <v>0.06892403096784233</v>
       </c>
       <c r="O100" t="n">
-        <v>0.03190427309095138</v>
+        <v>0.03190237301441696</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02134350672528858</v>
+        <v>0.06539946694418394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03293443757089574</v>
+        <v>0.02002217463611256</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02134350672528858</v>
+        <v>0.0218313572694894</v>
       </c>
       <c r="K101" t="n">
         <v>0.03293443757089574</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04545919898951312</v>
+        <v>0.04460830064639168</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03282926767864872</v>
+        <v>0.03283778625383787</v>
       </c>
       <c r="N101" t="n">
-        <v>0.06566573660057773</v>
+        <v>0.06514166435290808</v>
       </c>
       <c r="O101" t="n">
-        <v>0.03281582375069285</v>
+        <v>0.03281386938625745</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0222434103759481</v>
+        <v>0.06579947865724674</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03384928305897617</v>
+        <v>0.02057834615378235</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0222434103759481</v>
+        <v>0.02237289047804288</v>
       </c>
       <c r="K102" t="n">
         <v>0.03384928305897617</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04383302354540553</v>
+        <v>0.04360334460081017</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03374119178083341</v>
+        <v>0.03374994698311114</v>
       </c>
       <c r="N102" t="n">
-        <v>0.06569166095962509</v>
+        <v>0.06971169914942565</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03372737441043432</v>
+        <v>0.03372536575809792</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02136447974765664</v>
+        <v>0.06618979532017299</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03476412854705661</v>
+        <v>0.02113451767145215</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02136447974765664</v>
+        <v>0.02217392148813101</v>
       </c>
       <c r="K103" t="n">
         <v>0.03476412854705661</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0463571927878943</v>
+        <v>0.04551551082523042</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03465311588301809</v>
+        <v>0.03466210771238441</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07088199853608179</v>
+        <v>0.06825623320844676</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03463892507017578</v>
+        <v>0.03463686212993841</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02253139785674503</v>
+        <v>0.06657052408529321</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03567897403513704</v>
+        <v>0.02169068918912194</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02253139785674503</v>
+        <v>0.02206545513808342</v>
       </c>
       <c r="K104" t="n">
         <v>0.03567897403513704</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04419611686859826</v>
+        <v>0.04510718493710703</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03556503998520278</v>
+        <v>0.03557426844165769</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07023309813041012</v>
+        <v>0.06989333457972607</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03555047572991725</v>
+        <v>0.0355483585017789</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02133283516673502</v>
+        <v>0.06694177210493786</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03659381952321748</v>
+        <v>0.02224686070679173</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02133283516673502</v>
+        <v>0.02134121825032101</v>
       </c>
       <c r="K105" t="n">
         <v>0.03659381952321748</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04720374557134477</v>
+        <v>0.04356101213355165</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03647696408738747</v>
+        <v>0.03648642917093096</v>
       </c>
       <c r="N105" t="n">
-        <v>0.06960495056752258</v>
+        <v>0.06669469510803205</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03646202638965872</v>
+        <v>0.03645985487361938</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02297717528461342</v>
+        <v>0.06730364653143742</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03750866501129792</v>
+        <v>0.02280303222446153</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02297717528461342</v>
+        <v>0.02258180111561803</v>
       </c>
       <c r="K106" t="n">
         <v>0.03750866501129792</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04593162691025438</v>
+        <v>0.04499499633939338</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03738888818957215</v>
+        <v>0.03739858990020423</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0725160327830866</v>
+        <v>0.06615862952381057</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03737357704940019</v>
+        <v>0.03737135124545986</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02198842073037947</v>
+        <v>0.06765625451712236</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03842351049937836</v>
+        <v>0.02335920374213132</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02198842073037947</v>
+        <v>0.02173479239045555</v>
       </c>
       <c r="K107" t="n">
         <v>0.03842351049937836</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04523612851899236</v>
+        <v>0.04481682679406887</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03830081229175684</v>
+        <v>0.03831075062947751</v>
       </c>
       <c r="N107" t="n">
-        <v>0.06852588849738056</v>
+        <v>0.06795225585254355</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03828512770914166</v>
+        <v>0.03828284761730035</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02285330208537997</v>
+        <v>0.06799970321432322</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03933835598745879</v>
+        <v>0.02391537525980111</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02285330208537997</v>
+        <v>0.02195504651695343</v>
       </c>
       <c r="K108" t="n">
         <v>0.03933835598745879</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04758678462947688</v>
+        <v>0.04663270627790858</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03921273639394153</v>
+        <v>0.03922291135875079</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07025968281415984</v>
+        <v>0.0697099074319017</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03919667836888312</v>
+        <v>0.03919434398914084</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02175343189399696</v>
+        <v>0.06833409977537044</v>
       </c>
       <c r="G109" t="n">
-        <v>0.04025320147553923</v>
+        <v>0.0244715467774709</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02175343189399696</v>
+        <v>0.02273449223748557</v>
       </c>
       <c r="K109" t="n">
         <v>0.04025320147553923</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04491066993245518</v>
+        <v>0.04824854400850984</v>
       </c>
       <c r="M109" t="n">
-        <v>0.04012466049612622</v>
+        <v>0.04013507208802405</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07196457575634546</v>
+        <v>0.06813046869901318</v>
       </c>
       <c r="O109" t="n">
-        <v>0.04010822902862459</v>
+        <v>0.04010584036098132</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0229908922913398</v>
+        <v>0.06865955135259451</v>
       </c>
       <c r="G110" t="n">
-        <v>0.04116804696361966</v>
+        <v>0.0250277182951407</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0229908922913398</v>
+        <v>0.02317470533215359</v>
       </c>
       <c r="K110" t="n">
         <v>0.04116804696361966</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04753556423168051</v>
+        <v>0.04539626222441856</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0410365845983109</v>
+        <v>0.04104723281729733</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07028417420885597</v>
+        <v>0.06862348748872998</v>
       </c>
       <c r="O110" t="n">
-        <v>0.04101977968836606</v>
+        <v>0.0410173367328218</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02251064835107813</v>
+        <v>0.06897616509832592</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0420828924517001</v>
+        <v>0.02558388981281049</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02251064835107813</v>
+        <v>0.02277501330667368</v>
       </c>
       <c r="K111" t="n">
         <v>0.0420828924517001</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04743042023132338</v>
+        <v>0.04584156112813764</v>
       </c>
       <c r="M111" t="n">
-        <v>0.04194850870049559</v>
+        <v>0.04195939354657061</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07331048895556053</v>
+        <v>0.07067911593359089</v>
       </c>
       <c r="O111" t="n">
-        <v>0.04193133034810753</v>
+        <v>0.04192883310466228</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02246886586145015</v>
+        <v>0.06928404816489518</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04299773793978054</v>
+        <v>0.02614006133048028</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02246886586145015</v>
+        <v>0.02265778077562972</v>
       </c>
       <c r="K112" t="n">
         <v>0.04299773793978054</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0481079035081923</v>
+        <v>0.04525532857760486</v>
       </c>
       <c r="M112" t="n">
-        <v>0.04286043280268028</v>
+        <v>0.04287155427584388</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0722349671414888</v>
+        <v>0.07448432583543785</v>
       </c>
       <c r="O112" t="n">
-        <v>0.042842881007849</v>
+        <v>0.04284032947650277</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02226923713027586</v>
+        <v>0.06958330770463274</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04391258342786098</v>
+        <v>0.02669623284815008</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02226923713027586</v>
+        <v>0.02257843313989777</v>
       </c>
       <c r="K113" t="n">
         <v>0.04391258342786098</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04902139136425804</v>
+        <v>0.04867278839486397</v>
       </c>
       <c r="M113" t="n">
-        <v>0.04377235690486497</v>
+        <v>0.04378371500511715</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07088295010812179</v>
+        <v>0.07428456792515103</v>
       </c>
       <c r="O113" t="n">
-        <v>0.04375443166759047</v>
+        <v>0.04375182584834326</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02233144079930827</v>
+        <v>0.0698740508698691</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04482742891594142</v>
+        <v>0.02725240436581987</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02233144079930827</v>
+        <v>0.02368504884408504</v>
       </c>
       <c r="K114" t="n">
         <v>0.04482742891594142</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04619245947990636</v>
+        <v>0.04887558325612537</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04468428100704964</v>
+        <v>0.04469587573439043</v>
       </c>
       <c r="N114" t="n">
-        <v>0.06929646767739317</v>
+        <v>0.07151480459654197</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04466598232733193</v>
+        <v>0.04466332222018374</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02274443087096892</v>
+        <v>0.07015638481293474</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04574227440402185</v>
+        <v>0.02780857588348966</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02274443087096892</v>
+        <v>0.02313748776513527</v>
       </c>
       <c r="K115" t="n">
         <v>0.04574227440402185</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0487843557361641</v>
+        <v>0.04646251734234258</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04559620510923433</v>
+        <v>0.0456080364636637</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07278388732687346</v>
+        <v>0.07030468651048161</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0455775329870734</v>
+        <v>0.04557481859202422</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02376361834588381</v>
+        <v>0.07043041668616015</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04665711989210228</v>
+        <v>0.02836474740115946</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02376361834588381</v>
+        <v>0.02359411838806522</v>
       </c>
       <c r="K116" t="n">
         <v>0.04665711989210228</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04876273321789029</v>
+        <v>0.04934912439941186</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04650812921141902</v>
+        <v>0.04652019719293697</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07618318621799058</v>
+        <v>0.07183764182260155</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04648908364681487</v>
+        <v>0.04648631496386471</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02268783468391239</v>
+        <v>0.07069625364187583</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04757196538018273</v>
+        <v>0.02892091891882925</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02268783468391239</v>
+        <v>0.02247030920220904</v>
       </c>
       <c r="K117" t="n">
         <v>0.04757196538018273</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04655148688937413</v>
+        <v>0.04924764893812644</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04742005331360371</v>
+        <v>0.04743235792221025</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07029088197481093</v>
+        <v>0.07312746189251462</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04740063430655633</v>
+        <v>0.0473978113357052</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02359051596681618</v>
+        <v>0.07095400283241224</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04848681086826316</v>
+        <v>0.02947709043649904</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02359051596681618</v>
+        <v>0.02345077782936171</v>
       </c>
       <c r="K118" t="n">
         <v>0.04848681086826316</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04887062642215956</v>
+        <v>0.04752921685309533</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04833197741578839</v>
+        <v>0.04834451865148352</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07585521582026128</v>
+        <v>0.07580511606122953</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0483121849662978</v>
+        <v>0.04830930770754568</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02370052750311612</v>
+        <v>0.07120377141009987</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0494016563563436</v>
+        <v>0.03003326195416884</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02370052750311612</v>
+        <v>0.0240140792191</v>
       </c>
       <c r="K119" t="n">
         <v>0.0494016563563436</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04949286297722794</v>
+        <v>0.05026526227703423</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04924390151797308</v>
+        <v>0.0492566793807568</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07682052967710223</v>
+        <v>0.0745735178228033</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04922373562603927</v>
+        <v>0.04922080407938616</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02311391225116967</v>
+        <v>0.07144566652726921</v>
       </c>
       <c r="G120" t="n">
-        <v>0.05031650184442404</v>
+        <v>0.03058943347183863</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02311391225116967</v>
+        <v>0.02401341852454759</v>
       </c>
       <c r="K120" t="n">
         <v>0.05031650184442404</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04890595897919303</v>
+        <v>0.04740944544178965</v>
       </c>
       <c r="M120" t="n">
-        <v>0.05015582562015777</v>
+        <v>0.05016884011003007</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07366167332091067</v>
+        <v>0.07316681901211247</v>
       </c>
       <c r="O120" t="n">
-        <v>0.05013528628578073</v>
+        <v>0.05013230045122665</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02414502612976886</v>
+        <v>0.07167979533625077</v>
       </c>
       <c r="G121" t="n">
-        <v>0.05123134733250447</v>
+        <v>0.03114560498950843</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02414502612976886</v>
+        <v>0.0230893872918623</v>
       </c>
       <c r="K121" t="n">
         <v>0.05123134733250447</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04716081035559291</v>
+        <v>0.04852796691699907</v>
       </c>
       <c r="M121" t="n">
-        <v>0.05106774972234246</v>
+        <v>0.05108100083930334</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07124977340193367</v>
+        <v>0.0748651496060963</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0510468369455222</v>
+        <v>0.05104379682306713</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0233302970470389</v>
+        <v>0.07190626498937497</v>
       </c>
       <c r="G122" t="n">
-        <v>0.05214619282058491</v>
+        <v>0.03170177650717822</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0233302970470389</v>
+        <v>0.0234929015978354</v>
       </c>
       <c r="K122" t="n">
         <v>0.05214619282058491</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04931816770056738</v>
+        <v>0.04897274083989822</v>
       </c>
       <c r="M122" t="n">
-        <v>0.05197967382452715</v>
+        <v>0.05199316156857662</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0711051048204222</v>
+        <v>0.07387866963268991</v>
       </c>
       <c r="O122" t="n">
-        <v>0.05195838760526367</v>
+        <v>0.05195529319490762</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02420402372012966</v>
+        <v>0.07212518263897234</v>
       </c>
       <c r="G123" t="n">
-        <v>0.05306103830866536</v>
+        <v>0.03225794802484801</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02420402372012966</v>
+        <v>0.02319781038417604</v>
       </c>
       <c r="K123" t="n">
         <v>0.05306103830866536</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04978275085407491</v>
+        <v>0.04859755167095092</v>
       </c>
       <c r="M123" t="n">
-        <v>0.05289159792671182</v>
+        <v>0.0529053222978499</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07236075126740632</v>
+        <v>0.07490134039494772</v>
       </c>
       <c r="O123" t="n">
-        <v>0.05286993826500513</v>
+        <v>0.0528667895667481</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02394915643130308</v>
+        <v>0.0723366554373734</v>
       </c>
       <c r="G124" t="n">
-        <v>0.05397588379674579</v>
+        <v>0.0328141195425178</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02394915643130308</v>
+        <v>0.02336012050523283</v>
       </c>
       <c r="K124" t="n">
         <v>0.05397588379674579</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04928554832589166</v>
+        <v>0.04897997848530461</v>
       </c>
       <c r="M124" t="n">
-        <v>0.05380352202889652</v>
+        <v>0.05381748302712317</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07732761412973244</v>
+        <v>0.0749244981345592</v>
       </c>
       <c r="O124" t="n">
-        <v>0.05378148892474661</v>
+        <v>0.05377828593858858</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02354813466946459</v>
+        <v>0.07254079053690855</v>
       </c>
       <c r="G125" t="n">
-        <v>0.05489072928482622</v>
+        <v>0.0333702910601876</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02354813466946459</v>
+        <v>0.02445696049073269</v>
       </c>
       <c r="K125" t="n">
         <v>0.05489072928482622</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05066666014819621</v>
+        <v>0.05091988441777481</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0547154461310812</v>
+        <v>0.05472964375639644</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07384498239495485</v>
+        <v>0.07490085200486402</v>
       </c>
       <c r="O125" t="n">
-        <v>0.05469303958448808</v>
+        <v>0.05468978231042907</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02424054915801847</v>
+        <v>0.07273769508990836</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05580557477290666</v>
+        <v>0.03392646257785739</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02424054915801847</v>
+        <v>0.02375833728309294</v>
       </c>
       <c r="K126" t="n">
         <v>0.05580557477290666</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0497471605776787</v>
+        <v>0.04856018717796962</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0556273702332659</v>
+        <v>0.05564180448566971</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07464046896376741</v>
+        <v>0.07477751299090679</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05560459024422955</v>
+        <v>0.05560127868226955</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02412313990118181</v>
+        <v>0.07292747624870324</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05672042026098709</v>
+        <v>0.03448263409552719</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02412313990118181</v>
+        <v>0.02447260199119643</v>
       </c>
       <c r="K127" t="n">
         <v>0.05672042026098709</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05050695179668843</v>
+        <v>0.05102187815407278</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05653929433545057</v>
+        <v>0.05655396521494299</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07661567375017053</v>
+        <v>0.07332542169104328</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05651614090397102</v>
+        <v>0.05651277505411004</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02374913285985213</v>
+        <v>0.07311024116562373</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05763526574906754</v>
+        <v>0.03503880561319698</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02374913285985213</v>
+        <v>0.02393945057492504</v>
       </c>
       <c r="K128" t="n">
         <v>0.05763526574906754</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05168832943216642</v>
+        <v>0.05156082290056122</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05745121843763527</v>
+        <v>0.05746612594421627</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07328612847114085</v>
+        <v>0.07837293766799897</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05742769156371248</v>
+        <v>0.05742427142595052</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02521980264888363</v>
+        <v>0.07328609699300032</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05855011123714797</v>
+        <v>0.03559497713086677</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02521980264888363</v>
+        <v>0.02465339969621196</v>
       </c>
       <c r="K129" t="n">
         <v>0.05855011123714797</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04885744881404264</v>
+        <v>0.04969333814887564</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05836314253981995</v>
+        <v>0.05837828667348954</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07483779979753541</v>
+        <v>0.0754181581016759</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05833924222345395</v>
+        <v>0.05833576779779101</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02379761460101283</v>
+        <v>0.07345515088316344</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0594649567252284</v>
+        <v>0.03615114864853657</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02379761460101283</v>
+        <v>0.02418114187468501</v>
       </c>
       <c r="K130" t="n">
         <v>0.0594649567252284</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05025435380303642</v>
+        <v>0.05139492488328098</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05927506664200463</v>
+        <v>0.05929044740276281</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07699887471282457</v>
+        <v>0.07839379761293575</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05925079288319542</v>
+        <v>0.0592472641696315</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02507740753805496</v>
+        <v>0.07361750998844363</v>
       </c>
       <c r="G131" t="n">
-        <v>0.06037980221330884</v>
+        <v>0.03670732016620636</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02507740753805496</v>
+        <v>0.0244810356319439</v>
       </c>
       <c r="K131" t="n">
         <v>0.06037980221330884</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05111191462813527</v>
+        <v>0.05066521022105616</v>
       </c>
       <c r="M131" t="n">
-        <v>0.06018699074418932</v>
+        <v>0.06020260813203608</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07663968835959584</v>
+        <v>0.07865989650479266</v>
       </c>
       <c r="O131" t="n">
-        <v>0.06016234354293688</v>
+        <v>0.06015876054147198</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02480480487443572</v>
+        <v>0.07377328146117133</v>
       </c>
       <c r="G132" t="n">
-        <v>0.06129464770138928</v>
+        <v>0.03726349168387615</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02480480487443572</v>
+        <v>0.02418324068273316</v>
       </c>
       <c r="K132" t="n">
         <v>0.06129464770138928</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05005856247342721</v>
+        <v>0.05013544580437126</v>
       </c>
       <c r="M132" t="n">
-        <v>0.061098914846374</v>
+        <v>0.06111476886130936</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07780354021511343</v>
+        <v>0.07454774151534777</v>
       </c>
       <c r="O132" t="n">
-        <v>0.06107389420267835</v>
+        <v>0.06107025691331246</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02456177184023225</v>
+        <v>0.07392257245367706</v>
       </c>
       <c r="G133" t="n">
-        <v>0.06220949318946972</v>
+        <v>0.03781966320154594</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02456177184023225</v>
+        <v>0.02481631822943392</v>
       </c>
       <c r="K133" t="n">
         <v>0.06220949318946972</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04960945263645847</v>
+        <v>0.05125455661619283</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0620108389485587</v>
+        <v>0.06202692959058263</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07762364914651021</v>
+        <v>0.08080524014667601</v>
       </c>
       <c r="O133" t="n">
-        <v>0.06198544486241982</v>
+        <v>0.06198175328515295</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02502269990987196</v>
+        <v>0.07406549011829129</v>
       </c>
       <c r="G134" t="n">
-        <v>0.06312433867755014</v>
+        <v>0.03837583471921574</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02502269990987196</v>
+        <v>0.02569232229769501</v>
       </c>
       <c r="K134" t="n">
         <v>0.06312433867755014</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05167500360478897</v>
+        <v>0.05218935744219302</v>
       </c>
       <c r="M134" t="n">
-        <v>0.06292276305074337</v>
+        <v>0.06293909031985591</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08040776264282906</v>
+        <v>0.07480172409485847</v>
       </c>
       <c r="O134" t="n">
-        <v>0.06289699552216128</v>
+        <v>0.06289324965699343</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02551378304053878</v>
+        <v>0.07420214160734452</v>
       </c>
       <c r="G135" t="n">
-        <v>0.06403918416563059</v>
+        <v>0.03893200623688553</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02551378304053878</v>
+        <v>0.02489864205408185</v>
       </c>
       <c r="K135" t="n">
         <v>0.06403918416563059</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05071777656376017</v>
+        <v>0.05127258802776732</v>
       </c>
       <c r="M135" t="n">
-        <v>0.06383468715292807</v>
+        <v>0.06385125104912918</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0793160202643502</v>
+        <v>0.07642136217338175</v>
       </c>
       <c r="O135" t="n">
-        <v>0.06380854618190276</v>
+        <v>0.06380474602883392</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02418538036131937</v>
+        <v>0.07433263407316722</v>
       </c>
       <c r="G136" t="n">
-        <v>0.06495402965371104</v>
+        <v>0.03948817775455532</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02418538036131937</v>
+        <v>0.02462575270617234</v>
       </c>
       <c r="K136" t="n">
         <v>0.06495402965371104</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05227359460457159</v>
+        <v>0.0514440871190858</v>
       </c>
       <c r="M136" t="n">
-        <v>0.06474661125511276</v>
+        <v>0.06476341177840246</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0753028676617512</v>
+        <v>0.07809903580290722</v>
       </c>
       <c r="O136" t="n">
-        <v>0.06472009684164423</v>
+        <v>0.0647162424006744</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02554460752193166</v>
+        <v>0.07445707466808987</v>
       </c>
       <c r="G137" t="n">
-        <v>0.06586887514179147</v>
+        <v>0.04004434927222512</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02554460752193166</v>
+        <v>0.02451966359149192</v>
       </c>
       <c r="K137" t="n">
         <v>0.06586887514179147</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05202055778680484</v>
+        <v>0.05111097709079526</v>
       </c>
       <c r="M137" t="n">
-        <v>0.06565853535729745</v>
+        <v>0.06567557250767574</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07880754899519932</v>
+        <v>0.07865184094391547</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0656316475013857</v>
+        <v>0.06562773877251489</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02471598176011143</v>
+        <v>0.07457557054444297</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06678372062987191</v>
+        <v>0.04060052078989491</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02471598176011143</v>
+        <v>0.0258226063766088</v>
       </c>
       <c r="K138" t="n">
         <v>0.06678372062987191</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05290068142720969</v>
+        <v>0.05061161468321249</v>
       </c>
       <c r="M138" t="n">
-        <v>0.06657045945948213</v>
+        <v>0.066587733236949</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07814098659310109</v>
+        <v>0.0773176469408956</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06654319816112717</v>
+        <v>0.06653923514435536</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02475306190740094</v>
+        <v>0.074688228854557</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06769856611795234</v>
+        <v>0.0411566923075647</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02475306190740094</v>
+        <v>0.02468175854073094</v>
       </c>
       <c r="K139" t="n">
         <v>0.06769856611795234</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0517869324971745</v>
+        <v>0.05055308956058796</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06748238356166682</v>
+        <v>0.06749989396622227</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07618730917534672</v>
+        <v>0.0775783576629408</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06745474882086863</v>
+        <v>0.06745073151619585</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02502622365599437</v>
+        <v>0.07479515675076247</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06861341160603278</v>
+        <v>0.0417128638252345</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02502622365599437</v>
+        <v>0.02575240125826868</v>
       </c>
       <c r="K140" t="n">
         <v>0.06861341160603278</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05185140488278536</v>
+        <v>0.05043351613767244</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0683943076638515</v>
+        <v>0.06841205469549555</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08115797536199149</v>
+        <v>0.07960293284793435</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0683662994806101</v>
+        <v>0.06836222788803634</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02564091134495278</v>
+        <v>0.0748964613853898</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06952825709411321</v>
+        <v>0.04226903534290429</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02564091134495278</v>
+        <v>0.02574846371612834</v>
       </c>
       <c r="K141" t="n">
         <v>0.06952825709411321</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0515919270221292</v>
+        <v>0.05450661699334181</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06930623176603619</v>
+        <v>0.06932421542476883</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07899660418307708</v>
+        <v>0.07804823447191955</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06927785014035157</v>
+        <v>0.06927372425987682</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0260238906815108</v>
+        <v>0.07499224991076951</v>
       </c>
       <c r="G142" t="n">
-        <v>0.07044310258219365</v>
+        <v>0.04282520686057409</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0260238906815108</v>
+        <v>0.02562661956825556</v>
       </c>
       <c r="K142" t="n">
         <v>0.07044310258219365</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05475784744142306</v>
+        <v>0.05267041241520851</v>
       </c>
       <c r="M142" t="n">
-        <v>0.07021815586822087</v>
+        <v>0.0702363761540421</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08132308256041437</v>
+        <v>0.08037157793161387</v>
       </c>
       <c r="O142" t="n">
-        <v>0.07018940080009303</v>
+        <v>0.07018522063171731</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02489505280773924</v>
+        <v>0.07508262947923214</v>
       </c>
       <c r="G143" t="n">
-        <v>0.07135794807027408</v>
+        <v>0.04338137837824388</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02489505280773924</v>
+        <v>0.02560325810967977</v>
       </c>
       <c r="K143" t="n">
         <v>0.07135794807027408</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05293972618863382</v>
+        <v>0.05380902522902078</v>
       </c>
       <c r="M143" t="n">
-        <v>0.07113007997040556</v>
+        <v>0.07114853688331538</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08183951710825249</v>
+        <v>0.07715248083050563</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0711009514598345</v>
+        <v>0.0710967170035578</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02597235419414312</v>
+        <v>0.0751677072431081</v>
       </c>
       <c r="G144" t="n">
-        <v>0.07227279355835452</v>
+        <v>0.04393754989591368</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02597235419414312</v>
+        <v>0.02524502715986444</v>
       </c>
       <c r="K144" t="n">
         <v>0.07227279355835452</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05441894409956552</v>
+        <v>0.0531011589554988</v>
       </c>
       <c r="M144" t="n">
-        <v>0.07204200407259025</v>
+        <v>0.07206069761258864</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08275307647539998</v>
+        <v>0.08110115415191238</v>
       </c>
       <c r="O144" t="n">
-        <v>0.07201250211957597</v>
+        <v>0.07200821337539827</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02621113918383858</v>
+        <v>0.07524759035472789</v>
       </c>
       <c r="G145" t="n">
-        <v>0.07318763904643495</v>
+        <v>0.04449372141358347</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02621113918383858</v>
+        <v>0.02516592012510312</v>
       </c>
       <c r="K145" t="n">
         <v>0.07318763904643495</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05131359901103014</v>
+        <v>0.05340464086393376</v>
       </c>
       <c r="M145" t="n">
-        <v>0.07295392817477493</v>
+        <v>0.07297285834186193</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07800273701119864</v>
+        <v>0.07879842557791794</v>
       </c>
       <c r="O145" t="n">
-        <v>0.07292405277931745</v>
+        <v>0.07291970974723876</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0253744213371622</v>
+        <v>0.075322385966422</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0741024845345154</v>
+        <v>0.04504989293125326</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0253744213371622</v>
+        <v>0.02638417134097389</v>
       </c>
       <c r="K146" t="n">
         <v>0.0741024845345154</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05336121111262135</v>
+        <v>0.05200971084597161</v>
       </c>
       <c r="M146" t="n">
-        <v>0.07386585227695963</v>
+        <v>0.07388501907113521</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08138982546140644</v>
+        <v>0.0806321417284962</v>
       </c>
       <c r="O146" t="n">
-        <v>0.07383560343905891</v>
+        <v>0.07383120611907924</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02615663419020474</v>
+        <v>0.07539220123052096</v>
       </c>
       <c r="G147" t="n">
-        <v>0.07501733002259584</v>
+        <v>0.04560606444892305</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02615663419020474</v>
+        <v>0.02500024201816949</v>
       </c>
       <c r="K147" t="n">
         <v>0.07501733002259584</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05207791608999907</v>
+        <v>0.05258404289008434</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0747777763791443</v>
+        <v>0.07479717980040847</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07808522862147427</v>
+        <v>0.07868569420770816</v>
       </c>
       <c r="O147" t="n">
-        <v>0.07474715409880038</v>
+        <v>0.07474270249091973</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02635567306391934</v>
+        <v>0.07545714329935518</v>
       </c>
       <c r="G148" t="n">
-        <v>0.07593217551067627</v>
+        <v>0.04616223596659284</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02635567306391934</v>
+        <v>0.02629810888825396</v>
       </c>
       <c r="K148" t="n">
         <v>0.07593217551067627</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05517015866476233</v>
+        <v>0.05319592615181726</v>
       </c>
       <c r="M148" t="n">
-        <v>0.075689700481329</v>
+        <v>0.07570934052968174</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08393242233743586</v>
+        <v>0.08307047437697934</v>
       </c>
       <c r="O148" t="n">
-        <v>0.07565870475854185</v>
+        <v>0.07565419886276022</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0266710645489819</v>
+        <v>0.07551731932525522</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07684702099875672</v>
+        <v>0.04671840748426264</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0266710645489819</v>
+        <v>0.02516980876564401</v>
       </c>
       <c r="K149" t="n">
         <v>0.07684702099875672</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05389253831749161</v>
+        <v>0.05304749770243358</v>
       </c>
       <c r="M149" t="n">
-        <v>0.07660162458351367</v>
+        <v>0.07662150125895502</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08112391146916142</v>
+        <v>0.07979515798683068</v>
       </c>
       <c r="O149" t="n">
-        <v>0.07657025541828331</v>
+        <v>0.0765656952346007</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02577252330538847</v>
+        <v>0.0755728364605515</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07776186648683715</v>
+        <v>0.04727457900193243</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02577252330538847</v>
+        <v>0.02600391395477733</v>
       </c>
       <c r="K150" t="n">
         <v>0.07776186648683715</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05333529767273823</v>
+        <v>0.05361640131858283</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07751354868569837</v>
+        <v>0.07753366198822829</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07877274448584554</v>
+        <v>0.08149584359728762</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07748180607802478</v>
+        <v>0.07747719160644119</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02572816479604807</v>
+        <v>0.0756238018575745</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07867671197491759</v>
+        <v>0.04783075051960223</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02572816479604807</v>
+        <v>0.0264233805602784</v>
       </c>
       <c r="K151" t="n">
         <v>0.07867671197491759</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0528901566383462</v>
+        <v>0.0558703802442585</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07842547278788306</v>
+        <v>0.07844582271750157</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08153570421876782</v>
+        <v>0.08353029873295925</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07839335673776625</v>
+        <v>0.07838868797828168</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02574487421487566</v>
+        <v>0.0756703226686548</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07959155746299802</v>
+        <v>0.04838692203727202</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02574487421487566</v>
+        <v>0.02643789898776129</v>
       </c>
       <c r="K152" t="n">
         <v>0.07959155746299802</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05260143175902948</v>
+        <v>0.05518187416053832</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07933739689006773</v>
+        <v>0.07935798344677485</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08370412547116213</v>
+        <v>0.08214119726079883</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07930490739750772</v>
+        <v>0.07930018435012216</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02676125120882898</v>
+        <v>0.07571250604612279</v>
       </c>
       <c r="G153" t="n">
-        <v>0.08050640295107846</v>
+        <v>0.04894309355494181</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02676125120882898</v>
+        <v>0.02621656946376646</v>
       </c>
       <c r="K153" t="n">
         <v>0.08050640295107846</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05525587276931862</v>
+        <v>0.05470350058556114</v>
       </c>
       <c r="M153" t="n">
-        <v>0.08024932099225243</v>
+        <v>0.08027014417604811</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0840085887707151</v>
+        <v>0.08537566114337791</v>
       </c>
       <c r="O153" t="n">
-        <v>0.08021645805724918</v>
+        <v>0.08021168072196264</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02579636694707273</v>
+        <v>0.07575045914230902</v>
       </c>
       <c r="G154" t="n">
-        <v>0.08142124843915889</v>
+        <v>0.0494992650726116</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02579636694707273</v>
+        <v>0.02635510381548098</v>
       </c>
       <c r="K154" t="n">
         <v>0.08142124843915889</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05400742619858567</v>
+        <v>0.05557488926514942</v>
       </c>
       <c r="M154" t="n">
-        <v>0.08116124509443712</v>
+        <v>0.08118230490532138</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08481344327469831</v>
+        <v>0.08481489807904041</v>
       </c>
       <c r="O154" t="n">
-        <v>0.08112800871699065</v>
+        <v>0.08112317709380312</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02621608703302564</v>
+        <v>0.07578428910954389</v>
       </c>
       <c r="G155" t="n">
-        <v>0.08233609392723933</v>
+        <v>0.05005543659028139</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02621608703302564</v>
+        <v>0.02674513263898608</v>
       </c>
       <c r="K155" t="n">
         <v>0.08233609392723933</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05403547776288503</v>
+        <v>0.05627290526521853</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0820731691966218</v>
+        <v>0.08209446563459466</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08248509701445006</v>
+        <v>0.08415286498486713</v>
       </c>
       <c r="O155" t="n">
-        <v>0.08203955937673212</v>
+        <v>0.0820346734656436</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02616185712430291</v>
+        <v>0.07581410310015796</v>
       </c>
       <c r="G156" t="n">
-        <v>0.08325093941531976</v>
+        <v>0.05061160810795119</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02616185712430291</v>
+        <v>0.02579313686886693</v>
       </c>
       <c r="K156" t="n">
         <v>0.08325093941531976</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05275763125794394</v>
+        <v>0.05578590376840653</v>
       </c>
       <c r="M156" t="n">
-        <v>0.08298509329880649</v>
+        <v>0.08300662636386794</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0823872311100674</v>
+        <v>0.08142172173206791</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0829511100364736</v>
+        <v>0.08294616983748408</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02629016347500854</v>
+        <v>0.07584000826648171</v>
       </c>
       <c r="G157" t="n">
-        <v>0.08416578490340021</v>
+        <v>0.05116777962562098</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02629016347500854</v>
+        <v>0.02667379256964178</v>
       </c>
       <c r="K157" t="n">
         <v>0.08416578490340021</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05648722652560237</v>
+        <v>0.05443059363973179</v>
       </c>
       <c r="M157" t="n">
-        <v>0.08389701740099118</v>
+        <v>0.08391878709314121</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07981865320223441</v>
+        <v>0.08589350611153451</v>
       </c>
       <c r="O157" t="n">
-        <v>0.08386266069621506</v>
+        <v>0.08385766620932457</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02722599966754564</v>
+        <v>0.07586211176084559</v>
       </c>
       <c r="G158" t="n">
-        <v>0.08508063039148064</v>
+        <v>0.05172395114329078</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02722599966754564</v>
+        <v>0.02704905220475984</v>
       </c>
       <c r="K158" t="n">
         <v>0.08508063039148064</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0532234605845133</v>
+        <v>0.05408187236338172</v>
       </c>
       <c r="M158" t="n">
-        <v>0.08480894150317586</v>
+        <v>0.08483094782241447</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08308845475994475</v>
+        <v>0.08362491496906549</v>
       </c>
       <c r="O158" t="n">
-        <v>0.08477421135595653</v>
+        <v>0.08476916258116506</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02693222249182226</v>
+        <v>0.07588052073558013</v>
       </c>
       <c r="G159" t="n">
-        <v>0.08599547587956108</v>
+        <v>0.05228012266096057</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02693222249182226</v>
+        <v>0.02685528943442066</v>
       </c>
       <c r="K159" t="n">
         <v>0.08599547587956108</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05592773150770633</v>
+        <v>0.05332541138736388</v>
       </c>
       <c r="M159" t="n">
-        <v>0.08572086560536056</v>
+        <v>0.08574310855168776</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08308704720298982</v>
+        <v>0.08205409577432166</v>
       </c>
       <c r="O159" t="n">
-        <v>0.085685762015698</v>
+        <v>0.08568065895300554</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02677636969131841</v>
+        <v>0.07589534234301576</v>
       </c>
       <c r="G160" t="n">
-        <v>0.08691032136764151</v>
+        <v>0.05283629417863037</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02677636969131841</v>
+        <v>0.026198842917486</v>
       </c>
       <c r="K160" t="n">
         <v>0.08691032136764151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05464849487042264</v>
+        <v>0.05748294372818033</v>
       </c>
       <c r="M160" t="n">
-        <v>0.08663278970754523</v>
+        <v>0.08665526928096104</v>
       </c>
       <c r="N160" t="n">
-        <v>0.086831135098561</v>
+        <v>0.08208393256958896</v>
       </c>
       <c r="O160" t="n">
-        <v>0.08659731267543946</v>
+        <v>0.08659215532484603</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02746762404946648</v>
+        <v>0.075906683735483</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08782516685572196</v>
+        <v>0.05339246569630016</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02746762404946648</v>
+        <v>0.02732119804045451</v>
       </c>
       <c r="K161" t="n">
         <v>0.08782516685572196</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05413629379284343</v>
+        <v>0.05659069400660713</v>
       </c>
       <c r="M161" t="n">
-        <v>0.08754471380972993</v>
+        <v>0.0875674300102343</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08161285474775209</v>
+        <v>0.08505739514830729</v>
       </c>
       <c r="O161" t="n">
-        <v>0.08750886333518093</v>
+        <v>0.08750365169668652</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0272104845496154</v>
+        <v>0.07591465206531234</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0887400123438024</v>
+        <v>0.05394863721396995</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0272104845496154</v>
+        <v>0.02646221903361932</v>
       </c>
       <c r="K162" t="n">
         <v>0.0887400123438024</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0569131162665811</v>
+        <v>0.05736825362383907</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0884566379119146</v>
+        <v>0.08847959073950758</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08432040880545905</v>
+        <v>0.08418376914844083</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0884204139949224</v>
+        <v>0.088415148068527</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02625834492457112</v>
+        <v>0.07591935448483428</v>
       </c>
       <c r="G163" t="n">
-        <v>0.08965485783188283</v>
+        <v>0.05450480873163974</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02625834492457112</v>
+        <v>0.02713049544895581</v>
       </c>
       <c r="K163" t="n">
         <v>0.08965485783188283</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05453682794805356</v>
+        <v>0.05722730245446941</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08936856201409929</v>
+        <v>0.08939175146878085</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08461758713135892</v>
+        <v>0.08642790630805847</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08933196465466386</v>
+        <v>0.08932664444036749</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02646312174186548</v>
+        <v>0.07592089814637923</v>
       </c>
       <c r="G164" t="n">
-        <v>0.09056970331996327</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02646312174186548</v>
+        <v>0.02690271815017255</v>
       </c>
       <c r="K164" t="n">
         <v>0.09056970331996327</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05736690572305553</v>
+        <v>0.05651221885925631</v>
       </c>
       <c r="M164" t="n">
-        <v>0.09028048611628399</v>
+        <v>0.09030391219805413</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08353988640277615</v>
+        <v>0.08548607880549114</v>
       </c>
       <c r="O164" t="n">
-        <v>0.09024351531440533</v>
+        <v>0.09023814081220798</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02717085640849798</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0914845488080437</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02717085640849798</v>
+        <v>0.02741727428055588</v>
       </c>
       <c r="K165" t="n">
         <v>0.0914845488080437</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05483896351126341</v>
+        <v>0.05710611098048898</v>
       </c>
       <c r="M165" t="n">
-        <v>0.09119241021846866</v>
+        <v>0.0912160729273274</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08383882692196576</v>
+        <v>0.08575212078141925</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0911550659741468</v>
+        <v>0.09114963718404845</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02697297789680209</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.09239939429612413</v>
+        <v>0.05509352917145133</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02697297789680209</v>
+        <v>0.02742918778158586</v>
       </c>
       <c r="K166" t="n">
         <v>0.09239939429612413</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05674579003932492</v>
+        <v>0.05704523444313839</v>
       </c>
       <c r="M166" t="n">
-        <v>0.09210433432065336</v>
+        <v>0.09212823365660068</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08423285132190711</v>
+        <v>0.08705761989845073</v>
       </c>
       <c r="O166" t="n">
-        <v>0.09206661663388827</v>
+        <v>0.09206113355588894</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02793691710981475</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.09331423978420457</v>
+        <v>0.05512520791965201</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02793691710981475</v>
+        <v>0.02744936406600661</v>
       </c>
       <c r="K167" t="n">
         <v>0.09331423978420457</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05495047952001031</v>
+        <v>0.05757592788329916</v>
       </c>
       <c r="M167" t="n">
-        <v>0.09301625842283805</v>
+        <v>0.09304039438587394</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08442374970292205</v>
+        <v>0.08835871038039539</v>
       </c>
       <c r="O167" t="n">
-        <v>0.09297816729362973</v>
+        <v>0.09297262992772942</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02758674084822867</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.09422908527228502</v>
+        <v>0.05515601649391159</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02758674084822867</v>
+        <v>0.02758502202543217</v>
       </c>
       <c r="K168" t="n">
         <v>0.09422908527228502</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0549107541620007</v>
+        <v>0.05883827711202538</v>
       </c>
       <c r="M168" t="n">
-        <v>0.09392818252502273</v>
+        <v>0.09395255511514723</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08603701639881223</v>
+        <v>0.08771687828401875</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0938897179533712</v>
+        <v>0.09388412629956991</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02734016239849721</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09514393076036545</v>
+        <v>0.05518595489423003</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02734016239849721</v>
+        <v>0.02748866673030145</v>
       </c>
       <c r="K169" t="n">
         <v>0.09514393076036545</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05884946468206095</v>
+        <v>0.05901136381488314</v>
       </c>
       <c r="M169" t="n">
-        <v>0.09484010662720742</v>
+        <v>0.09486471584442051</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08955666719065325</v>
+        <v>0.08716722431798596</v>
       </c>
       <c r="O169" t="n">
-        <v>0.09480126861311267</v>
+        <v>0.0947956226714104</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02720342245833419</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.09605877624844589</v>
+        <v>0.05521502312060737</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02720342245833419</v>
+        <v>0.02844606731518438</v>
       </c>
       <c r="K170" t="n">
         <v>0.09605877624844589</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05742665006925399</v>
+        <v>0.0584248026400617</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0957520307293921</v>
+        <v>0.09577687657369377</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08453671906052379</v>
+        <v>0.08854861163228017</v>
       </c>
       <c r="O170" t="n">
-        <v>0.09571281927285413</v>
+        <v>0.09570711904325087</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02746963211546219</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.09697362173652632</v>
+        <v>0.0552432211730436</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02746963211546219</v>
+        <v>0.02840442784423153</v>
       </c>
       <c r="K171" t="n">
         <v>0.09697362173652632</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0586763910727976</v>
+        <v>0.05709445126730908</v>
       </c>
       <c r="M171" t="n">
-        <v>0.09666395483157679</v>
+        <v>0.09668903730296705</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08604474334253753</v>
+        <v>0.08399403689712776</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0966243699325956</v>
+        <v>0.09661861541509136</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02766832851664425</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.09788846722460676</v>
+        <v>0.05527054905153871</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02766832851664425</v>
+        <v>0.02763187096595823</v>
       </c>
       <c r="K172" t="n">
         <v>0.09788846722460676</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05523573050306119</v>
+        <v>0.05908440218553265</v>
       </c>
       <c r="M172" t="n">
-        <v>0.09757587893376148</v>
+        <v>0.09760119803224032</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08501896623840316</v>
+        <v>0.08496192219285337</v>
       </c>
       <c r="O172" t="n">
-        <v>0.09753592059233707</v>
+        <v>0.09753011178693184</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.027966043439866</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09880331271268719</v>
+        <v>0.05529700675609271</v>
       </c>
       <c r="J173" t="n">
-        <v>0.027966043439866</v>
+        <v>0.02799343534393263</v>
       </c>
       <c r="K173" t="n">
         <v>0.09880331271268719</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05942269389963503</v>
+        <v>0.05704025821567096</v>
       </c>
       <c r="M173" t="n">
-        <v>0.09848780303594616</v>
+        <v>0.0985133587615136</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08734148447655937</v>
+        <v>0.08697766643422328</v>
       </c>
       <c r="O173" t="n">
-        <v>0.09844747125207853</v>
+        <v>0.09844160815877233</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02815613032259137</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.09971815820076764</v>
+        <v>0.05532259428670559</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02815613032259137</v>
+        <v>0.02877251589666392</v>
       </c>
       <c r="K174" t="n">
         <v>0.09971815820076764</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05609464367779463</v>
+        <v>0.05806272742477944</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09939972713813085</v>
+        <v>0.09942551949078687</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08527330715123888</v>
+        <v>0.08916202294525122</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09935902191182</v>
+        <v>0.09935310453061282</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02749190232574737</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1006330036888481</v>
+        <v>0.05534731164337735</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02749190232574737</v>
+        <v>0.02773876021290272</v>
       </c>
       <c r="K175" t="n">
         <v>0.1006330036888481</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05569512156135997</v>
+        <v>0.05930140145683682</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1003116512403155</v>
+        <v>0.1003376802200601</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08729092684464329</v>
+        <v>0.08944747708868028</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1002705725715615</v>
+        <v>0.1002646009024533</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02866971295918797</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1015478491769285</v>
+        <v>0.05537115882610801</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02866971295918797</v>
+        <v>0.0285322485020808</v>
       </c>
       <c r="K176" t="n">
         <v>0.1015478491769285</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05764210914309176</v>
+        <v>0.05900765618941986</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1012235753425002</v>
+        <v>0.1012498409493334</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08501064752220022</v>
+        <v>0.09045306217670884</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1011821232313029</v>
+        <v>0.1011760972742938</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02751030312956601</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1024626946650089</v>
+        <v>0.05539413583489754</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02751030312956601</v>
+        <v>0.02815189040872675</v>
       </c>
       <c r="K177" t="n">
         <v>0.1024626946650089</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05833731179745788</v>
+        <v>0.05820070395116472</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1021354994446849</v>
+        <v>0.1021620016786067</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08811688900345793</v>
+        <v>0.08915931341124933</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1020936738910444</v>
+        <v>0.1020875936461343</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02799597403357074</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1033775401530894</v>
+        <v>0.05541624266974599</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02799597403357074</v>
+        <v>0.02735559876197863</v>
       </c>
       <c r="K178" t="n">
         <v>0.1033775401530894</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05947930635559778</v>
+        <v>0.05722527669163799</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1030474235468696</v>
+        <v>0.10307416240788</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08739927497656153</v>
+        <v>0.090276189991083</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1030052245507859</v>
+        <v>0.1029990900179747</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02894068247817534</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1042923856411698</v>
+        <v>0.05543747933065328</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02894068247817534</v>
+        <v>0.0277943107949315</v>
       </c>
       <c r="K179" t="n">
         <v>0.1042923856411698</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05948444373692896</v>
+        <v>0.05832117674853324</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1039593476490543</v>
+        <v>0.1039863231371532</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08548699201112303</v>
+        <v>0.08701891172888349</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1039167752105273</v>
+        <v>0.1039105863898152</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02808444696491755</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1052072311292503</v>
+        <v>0.0554578458176195</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02808444696491755</v>
+        <v>0.02786475599676866</v>
       </c>
       <c r="K180" t="n">
         <v>0.1052072311292503</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05840386389171096</v>
+        <v>0.05933980236341529</v>
       </c>
       <c r="M180" t="n">
-        <v>0.104871271751239</v>
+        <v>0.1048984838664265</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09082856882023749</v>
+        <v>0.088095949046401</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1048283258702688</v>
+        <v>0.1048220827616557</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02799994797486977</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1061220766173307</v>
+        <v>0.05547734213064456</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02799994797486977</v>
+        <v>0.02804340330986986</v>
       </c>
       <c r="K181" t="n">
         <v>0.1061220766173307</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05798105765550743</v>
+        <v>0.05613668626079812</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1057831958534236</v>
+        <v>0.1058106445956998</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08664227634010846</v>
+        <v>0.08665217086667237</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1057398765300103</v>
+        <v>0.1057335791334962</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02811826715602077</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1070369221054111</v>
+        <v>0.05549596826972854</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02811826715602077</v>
+        <v>0.02862135146816845</v>
       </c>
       <c r="K182" t="n">
         <v>0.1070369221054111</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05751252747866592</v>
+        <v>0.05849008110259013</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1066951199556083</v>
+        <v>0.1067228053249731</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09022962093302539</v>
+        <v>0.08766577849373464</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1066514271897517</v>
+        <v>0.1066450755053367</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0286687367042391</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1079517675934916</v>
+        <v>0.05551372423487138</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0286687367042391</v>
+        <v>0.02822026124612441</v>
       </c>
       <c r="K183" t="n">
         <v>0.1079517675934916</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05931222092576649</v>
+        <v>0.05797042404900782</v>
       </c>
       <c r="M183" t="n">
-        <v>0.107607044057793</v>
+        <v>0.1076349660542463</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09077820277067988</v>
+        <v>0.09239822986570495</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1075629778494932</v>
+        <v>0.1075565718771772</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02901519665970195</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.108866613081572</v>
+        <v>0.05553061002607312</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02901519665970195</v>
+        <v>0.02917819900623568</v>
       </c>
       <c r="K184" t="n">
         <v>0.108866613081572</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05671113370199965</v>
+        <v>0.06071753776285771</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1085189681599777</v>
+        <v>0.1085471267835196</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09007159214808252</v>
+        <v>0.08845699122155576</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1084745285092347</v>
+        <v>0.1084680682490177</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02825058919446054</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1097814585696524</v>
+        <v>0.05554662564333376</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02825058919446054</v>
+        <v>0.02872061035710072</v>
       </c>
       <c r="K185" t="n">
         <v>0.1097814585696524</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05881477655222772</v>
+        <v>0.05767113579608404</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1094308922621624</v>
+        <v>0.1094592875127929</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08989111391600596</v>
+        <v>0.08798764517624108</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1093860791689762</v>
+        <v>0.1093795646208581</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02873605415149708</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1106963040577329</v>
+        <v>0.05556177108665327</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02873605415149708</v>
+        <v>0.02889917349028931</v>
       </c>
       <c r="K186" t="n">
         <v>0.1106963040577329</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05937285702690942</v>
+        <v>0.05777193772733963</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1103428163643471</v>
+        <v>0.1103714482420662</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08886579412027334</v>
+        <v>0.09134911658186945</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1102976298287176</v>
+        <v>0.1102910609926986</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02835908624764912</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1116111495458133</v>
+        <v>0.05557604635603167</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02835908624764912</v>
+        <v>0.02813273039662119</v>
       </c>
       <c r="K187" t="n">
         <v>0.1116111495458133</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06131788292777982</v>
+        <v>0.06062262402391269</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1112547404665318</v>
+        <v>0.1112836089713394</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08985519779389889</v>
+        <v>0.09145467292099996</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1112091804884591</v>
+        <v>0.1112025573645391</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02871373793150063</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1125259950338938</v>
+        <v>0.05558945145146895</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02871373793150063</v>
+        <v>0.0285477418985059</v>
       </c>
       <c r="K188" t="n">
         <v>0.1125259950338938</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06081926912595442</v>
+        <v>0.06127313141367249</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1121666645687164</v>
+        <v>0.1121957697006127</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09125845442681252</v>
+        <v>0.08935558923599018</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1121207311482006</v>
+        <v>0.1121140537363796</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02827037640388699</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1134408405219742</v>
+        <v>0.05560198637296512</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02827037640388699</v>
+        <v>0.02937804455235887</v>
       </c>
       <c r="K189" t="n">
         <v>0.1134408405219742</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06179631716460915</v>
+        <v>0.05801632581361979</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1130785886709011</v>
+        <v>0.113107930429886</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09347447987686558</v>
+        <v>0.09269349306831454</v>
       </c>
       <c r="O189" t="n">
-        <v>0.113032281807942</v>
+        <v>0.1130255501082201</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02840076106424412</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1143556860100546</v>
+        <v>0.05561365112052017</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02840076106424412</v>
+        <v>0.02899563843800773</v>
       </c>
       <c r="K190" t="n">
         <v>0.1143556860100546</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05880572692922909</v>
+        <v>0.05856138156206389</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1139905127730858</v>
+        <v>0.1140200911591592</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08781386860172047</v>
+        <v>0.08800775731635152</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1139438324676835</v>
+        <v>0.1139370464800606</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02880781141037098</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1152705314981351</v>
+        <v>0.05562444569413413</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02880781141037098</v>
+        <v>0.02821331382963173</v>
       </c>
       <c r="K191" t="n">
         <v>0.1152705314981351</v>
       </c>
       <c r="L191" t="n">
-        <v>0.0608442135446485</v>
+        <v>0.05823275928155475</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1149024368752705</v>
+        <v>0.1149322518884325</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0902781594046741</v>
+        <v>0.09104502256693925</v>
       </c>
       <c r="O191" t="n">
-        <v>0.114855383127425</v>
+        <v>0.114848542851901</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02907831014628075</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1161853769862155</v>
+        <v>0.05563437009380695</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02907831014628075</v>
+        <v>0.02870061968223742</v>
       </c>
       <c r="K192" t="n">
         <v>0.1161853769862155</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05994934350132416</v>
+        <v>0.05837286899599636</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1158143609774552</v>
+        <v>0.1158444126177058</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08845712893995189</v>
+        <v>0.09128917111484813</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1157669337871664</v>
+        <v>0.1157600392237415</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02891699373598546</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1171002224742959</v>
+        <v>0.05564342431953867</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02891699373598546</v>
+        <v>0.02962701718935938</v>
       </c>
       <c r="K193" t="n">
         <v>0.1171002224742959</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06252896519359707</v>
+        <v>0.06128850735552949</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1167262850796399</v>
+        <v>0.1167565733469791</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09410323828381795</v>
+        <v>0.0892146670409954</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1166784844469079</v>
+        <v>0.116671535595582</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02890199183579256</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1180150679623764</v>
+        <v>0.05565160837132926</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02890199183579256</v>
+        <v>0.02953456243525042</v>
       </c>
       <c r="K194" t="n">
         <v>0.1180150679623764</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05924671306154111</v>
+        <v>0.06234792574681769</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1176382091818246</v>
+        <v>0.1176687340762524</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0923172684837571</v>
+        <v>0.09467912126583317</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1175900351066494</v>
+        <v>0.1175830319674225</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02889407444216056</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1189299134504568</v>
+        <v>0.05565892224917875</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02889407444216056</v>
+        <v>0.03002386050214309</v>
       </c>
       <c r="K195" t="n">
         <v>0.1189299134504568</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06050024485566013</v>
+        <v>0.06160094062086263</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1185501332840093</v>
+        <v>0.1185808948055256</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08946497457652158</v>
+        <v>0.09184362463000595</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1185015857663908</v>
+        <v>0.118494528339263</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02966424188239361</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1198447589385372</v>
+        <v>0.05566536595308711</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02966424188239361</v>
+        <v>0.03017835336181497</v>
       </c>
       <c r="K196" t="n">
         <v>0.1198447589385372</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06203207929517865</v>
+        <v>0.0625460522277308</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1194620573861939</v>
+        <v>0.1194930555347989</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09386967068609692</v>
+        <v>0.09497814549200456</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1194131364261323</v>
+        <v>0.1194060247111035</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02986288467828666</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1207596044266177</v>
+        <v>0.05567093948305436</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02986288467828666</v>
+        <v>0.03022521098942955</v>
       </c>
       <c r="K197" t="n">
         <v>0.1207596044266177</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06083854507939299</v>
+        <v>0.06251066016495807</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1203739814883786</v>
+        <v>0.1204052162640722</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08984332567846504</v>
+        <v>0.09390990029891816</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1203246870858738</v>
+        <v>0.120317521082944</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02894794930351632</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1216744499146981</v>
+        <v>0.05567564283908052</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02894794930351632</v>
+        <v>0.02940273086705467</v>
       </c>
       <c r="K198" t="n">
         <v>0.1216744499146981</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05984649392383884</v>
+        <v>0.05955583050885049</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1212859055905633</v>
+        <v>0.1213173769933454</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09363666311198632</v>
+        <v>0.09486976462187885</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1212362377456152</v>
+        <v>0.1212290174547844</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02930604326854576</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1225892954027786</v>
+        <v>0.05567947602116555</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02930604326854576</v>
+        <v>0.03027618405080314</v>
       </c>
       <c r="K199" t="n">
         <v>0.1225892954027786</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05929015863420939</v>
+        <v>0.06013017313491664</v>
       </c>
       <c r="M199" t="n">
-        <v>0.122197829692748</v>
+        <v>0.1222295377226187</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09618291843471932</v>
+        <v>0.09624950096032098</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1221477884053567</v>
+        <v>0.1221405138266249</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03059587977281204</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.123504140890859</v>
+        <v>0.05568243902930945</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03059587977281204</v>
+        <v>0.02981657845780369</v>
       </c>
       <c r="K200" t="n">
         <v>0.123504140890859</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0606445585402734</v>
+        <v>0.06154663271797353</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1231097537949327</v>
+        <v>0.123141698451892</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09614465078578815</v>
+        <v>0.09385294243599651</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1230593390650982</v>
+        <v>0.1230520101984654</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02961191234455349</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1244189863789394</v>
+        <v>0.05568453186351226</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02961191234455349</v>
+        <v>0.03034403654343405</v>
       </c>
       <c r="K201" t="n">
         <v>0.1244189863789394</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05953961534376795</v>
+        <v>0.06293681488828429</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1240216778971174</v>
+        <v>0.1240538591811653</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09671927470488906</v>
+        <v>0.09082582236460018</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1239708897248396</v>
+        <v>0.1239635065703059</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02975949989237711</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1253338318670199</v>
+        <v>0.05568575452377394</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02975949989237711</v>
+        <v>0.02916295652365443</v>
       </c>
       <c r="K202" t="n">
         <v>0.1253338318670199</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06136315186416735</v>
+        <v>0.06265731746877001</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1249336019993021</v>
+        <v>0.1249660199104385</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0934825963866906</v>
+        <v>0.09201378510061931</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1248824403845811</v>
+        <v>0.1248750029421464</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02906996807184482</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1262486773551003</v>
+        <v>0.05568610701009451</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02906996807184482</v>
+        <v>0.02928219709446939</v>
       </c>
       <c r="K203" t="n">
         <v>0.1262486773551003</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06241942433032324</v>
+        <v>0.0631567907775637</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1258455261014867</v>
+        <v>0.1258781806397118</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09109602271252432</v>
+        <v>0.09209195385119617</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1257939910443226</v>
+        <v>0.1257864993139869</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03043728200485779</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1271635228431807</v>
+        <v>0.05568558932247396</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03043728200485779</v>
+        <v>0.03026386721274024</v>
       </c>
       <c r="K204" t="n">
         <v>0.1271635228431807</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06051992814687226</v>
+        <v>0.06263769938892555</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1267574502036715</v>
+        <v>0.1267903413689851</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09559870700160866</v>
+        <v>0.09706415651415312</v>
       </c>
       <c r="O204" t="n">
-        <v>0.126705541704064</v>
+        <v>0.1266979956858273</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02994398918253269</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1280783683312612</v>
+        <v>0.05568420146091231</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02994398918253269</v>
+        <v>0.02986729338010892</v>
       </c>
       <c r="K205" t="n">
         <v>0.1280783683312612</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0629165641236247</v>
+        <v>0.06056761242702377</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1276693743058561</v>
+        <v>0.1277025020982584</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09618307991883074</v>
+        <v>0.09255050966098077</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1276170923638055</v>
+        <v>0.1276094920576678</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03050303838324876</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1289932138193416</v>
+        <v>0.05568194342540955</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03050303838324876</v>
+        <v>0.03055931350698597</v>
       </c>
       <c r="K206" t="n">
         <v>0.1289932138193416</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06053132701029526</v>
+        <v>0.06077150593204433</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1285812984080408</v>
+        <v>0.1286146628275316</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09635135451952731</v>
+        <v>0.09398190670988249</v>
       </c>
       <c r="O206" t="n">
-        <v>0.128528643023547</v>
+        <v>0.1285209884295083</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02981140668381084</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1299080593074221</v>
+        <v>0.05567881521596565</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02981140668381084</v>
+        <v>0.03047587250247343</v>
       </c>
       <c r="K207" t="n">
         <v>0.1299080593074221</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0623569674851622</v>
+        <v>0.0621204961566752</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1294932225102255</v>
+        <v>0.1295268235568049</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09602987952038733</v>
+        <v>0.09212976602810263</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1294401936832885</v>
+        <v>0.1294324848013488</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03107236825147318</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1308229047955025</v>
+        <v>0.05567481683258067</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03107236825147318</v>
+        <v>0.02983056905256203</v>
       </c>
       <c r="K208" t="n">
         <v>0.1308229047955025</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06361322523274746</v>
+        <v>0.06162996650521749</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1304051466124102</v>
+        <v>0.1304389842860782</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09742815583167724</v>
+        <v>0.09620714457617363</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1303517443430299</v>
+        <v>0.1303439811731893</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03021067195347019</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1317377502835829</v>
+        <v>0.05566994827525456</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03021067195347019</v>
+        <v>0.03051054763473866</v>
       </c>
       <c r="K209" t="n">
         <v>0.1317377502835829</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06164213033506402</v>
+        <v>0.06190537776111379</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1313170707145949</v>
+        <v>0.1313511450153515</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09864688011832651</v>
+        <v>0.09338936074094956</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1312632950027714</v>
+        <v>0.1312554775450298</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02971221054163052</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1326525957716634</v>
+        <v>0.05566420954398733</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02971221054163052</v>
+        <v>0.03146171007950098</v>
       </c>
       <c r="K210" t="n">
         <v>0.1326525957716634</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06276835940090783</v>
+        <v>0.06539268200018813</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1322289948167795</v>
+        <v>0.1322633057446247</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09757367732193317</v>
+        <v>0.09866579186618452</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1321748456625128</v>
+        <v>0.1321669739168703</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03088318510434926</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1335674412597438</v>
+        <v>0.05565760063877898</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03088318510434926</v>
+        <v>0.03042579460338168</v>
       </c>
       <c r="K211" t="n">
         <v>0.1335674412597438</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06366379226549279</v>
+        <v>0.06360427785988701</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1331409189189643</v>
+        <v>0.133175466473898</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09716036697649888</v>
+        <v>0.09535334797533584</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1330863963222543</v>
+        <v>0.1330784702887107</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0300639842200119</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1344822867478243</v>
+        <v>0.05565012155962952</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0300639842200119</v>
+        <v>0.03105261703021382</v>
       </c>
       <c r="K212" t="n">
         <v>0.1344822867478243</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06385870800574842</v>
+        <v>0.06347197234135932</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1340528430211489</v>
+        <v>0.1340876272031713</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09442511126870667</v>
+        <v>0.09226300957148886</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1339979469819958</v>
+        <v>0.1339899666605512</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03089131058847801</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1353971322359047</v>
+        <v>0.05564177230653896</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03089131058847801</v>
+        <v>0.03101559184726287</v>
       </c>
       <c r="K213" t="n">
         <v>0.1353971322359047</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06187495358499218</v>
+        <v>0.06363294862646243</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1349647671233336</v>
+        <v>0.1349997879324445</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09267638816919099</v>
+        <v>0.09518515091577173</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1349094976417373</v>
+        <v>0.1349014630323917</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03014604613102043</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1363119777239851</v>
+        <v>0.05563255287950726</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03014604613102043</v>
+        <v>0.03010275711768545</v>
       </c>
       <c r="K214" t="n">
         <v>0.1363119777239851</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06341089437657252</v>
+        <v>0.06328132523819027</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1358766912255183</v>
+        <v>0.1359119486617178</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09624362542244214</v>
+        <v>0.09881558543614943</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1358210483014787</v>
+        <v>0.1358129594042322</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03112635747402323</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1372268232120656</v>
+        <v>0.05562246327853447</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03112635747402323</v>
+        <v>0.03083437220406968</v>
       </c>
       <c r="K215" t="n">
         <v>0.1372268232120656</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06264376895363027</v>
+        <v>0.06443333655055175</v>
       </c>
       <c r="M215" t="n">
-        <v>0.136788615327703</v>
+        <v>0.1368241093909911</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09959883533414637</v>
+        <v>0.09638757919058155</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1367325989612202</v>
+        <v>0.1367244557760727</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03110746023629657</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.138141668700146</v>
+        <v>0.05561150350362056</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03110746023629657</v>
+        <v>0.03104252258728965</v>
       </c>
       <c r="K216" t="n">
         <v>0.138141668700146</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06491803420684486</v>
+        <v>0.06300172358177869</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1377005394298877</v>
+        <v>0.1377362701202644</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09564898942010258</v>
+        <v>0.09590650233123177</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1376441496209617</v>
+        <v>0.1376359521479132</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03108276122096405</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1390565141882264</v>
+        <v>0.05559967355476553</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03108276122096405</v>
+        <v>0.03160776226543012</v>
       </c>
       <c r="K217" t="n">
         <v>0.1390565141882264</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06374269610041214</v>
+        <v>0.06291161592245509</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1386124635320724</v>
+        <v>0.1386484308495377</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1002850769867943</v>
+        <v>0.09682220599960517</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1385557002807031</v>
+        <v>0.1385474485197536</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03174897428515222</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1399713596763069</v>
+        <v>0.05558697343196939</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03174897428515222</v>
+        <v>0.03154084143794583</v>
       </c>
       <c r="K218" t="n">
         <v>0.1399713596763069</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06486841364533208</v>
+        <v>0.06533178050729591</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1395243876342571</v>
+        <v>0.1395605915788109</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09718202085489874</v>
+        <v>0.09973085500014867</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1394672509404446</v>
+        <v>0.1394589448915941</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03136367868067157</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1408862051643873</v>
+        <v>0.05557340313523213</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03136367868067157</v>
+        <v>0.03066709784730286</v>
       </c>
       <c r="K219" t="n">
         <v>0.1408862051643873</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06636094233534789</v>
+        <v>0.06557917293570592</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1404363117364417</v>
+        <v>0.1404727523080842</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09490178645328556</v>
+        <v>0.09622089136081285</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1403788016001861</v>
+        <v>0.1403704412634346</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03079230492543832</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1418010506524677</v>
+        <v>0.05555896266455378</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03079230492543832</v>
+        <v>0.03120937228130706</v>
       </c>
       <c r="K220" t="n">
         <v>0.1418010506524677</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06568557496583657</v>
+        <v>0.06291202870267062</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1413482358386264</v>
+        <v>0.1413849130373575</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0969843003306371</v>
+        <v>0.09483078988800236</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1412903522599275</v>
+        <v>0.1412819376352751</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03143657723641252</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1427158961405482</v>
+        <v>0.0555436520199343</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03143657723641252</v>
+        <v>0.030572007630352</v>
       </c>
       <c r="K221" t="n">
         <v>0.1427158961405482</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06608263085865915</v>
+        <v>0.06562384665489585</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1422601599408111</v>
+        <v>0.1422970737666308</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1000479263934779</v>
+        <v>0.09708348604890271</v>
       </c>
       <c r="O221" t="n">
-        <v>0.142201902919669</v>
+        <v>0.1421934340071156</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03229252573481203</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1436307416286286</v>
+        <v>0.0555274712013737</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03229252573481203</v>
+        <v>0.03213334644712615</v>
       </c>
       <c r="K222" t="n">
         <v>0.1436307416286286</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06481096909599698</v>
+        <v>0.0660132762264159</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1431720840429958</v>
+        <v>0.143209234495904</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09440659249880967</v>
+        <v>0.09610957577311202</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1431134535794105</v>
+        <v>0.1431049303789561</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03105388720294525</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.144545587116709</v>
+        <v>0.05551042020887199</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03105388720294525</v>
+        <v>0.03193839622149929</v>
       </c>
       <c r="K223" t="n">
         <v>0.144545587116709</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0642763221241851</v>
+        <v>0.06426533018208336</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1440840081451805</v>
+        <v>0.1441213952251773</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09676781577104915</v>
+        <v>0.09764116909003562</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1440250042391519</v>
+        <v>0.1440164267507965</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03228691003622938</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1454604326047895</v>
+        <v>0.05549249904242917</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03228691003622938</v>
+        <v>0.03121351425641292</v>
       </c>
       <c r="K224" t="n">
         <v>0.1454604326047895</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06536793216947667</v>
+        <v>0.06641060941912152</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1449959322473652</v>
+        <v>0.1450335559544506</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09691644886658896</v>
+        <v>0.0988240266880423</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1449365548988934</v>
+        <v>0.1449279231226371</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03163880916956674</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1463752780928699</v>
+        <v>0.05547370770204521</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03163880916956674</v>
+        <v>0.03200725229589615</v>
       </c>
       <c r="K225" t="n">
         <v>0.1463752780928699</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06461477162464604</v>
+        <v>0.06509766529129429</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1459078563495499</v>
+        <v>0.1459457166837239</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1009585608691653</v>
+        <v>0.1006802736270354</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1458481055586349</v>
+        <v>0.1458394194944775</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03103988704549826</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1472901235809504</v>
+        <v>0.05545404618772016</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03103988704549826</v>
+        <v>0.03270033251144815</v>
       </c>
       <c r="K226" t="n">
         <v>0.1472901235809504</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06546227408323257</v>
+        <v>0.06450849063236549</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1468197804517345</v>
+        <v>0.1468578774129971</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09826049903293083</v>
+        <v>0.09727127858555451</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1467596562183763</v>
+        <v>0.146750915866318</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03143245172487034</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1482049690690308</v>
+        <v>0.055433514499454</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03143245172487034</v>
+        <v>0.03263833465107578</v>
       </c>
       <c r="K227" t="n">
         <v>0.1482049690690308</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06455901225862284</v>
+        <v>0.06406609085519543</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1477317045539193</v>
+        <v>0.1477700381422704</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1000285246191028</v>
+        <v>0.1027596782454779</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1476712068781178</v>
+        <v>0.1476624122381585</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03145427878808911</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1491198145571112</v>
+        <v>0.05541211263724671</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03145427878808911</v>
+        <v>0.03246805747821958</v>
       </c>
       <c r="K228" t="n">
         <v>0.1491198145571112</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06652207969611976</v>
+        <v>0.06539354224598024</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1486436286561039</v>
+        <v>0.1486821988715437</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1021444875768901</v>
+        <v>0.09982778734729197</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1485827575378593</v>
+        <v>0.148573908609999</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03284701001904854</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1500346600451917</v>
+        <v>0.05538984060109831</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03284701001904854</v>
+        <v>0.0326333173344756</v>
       </c>
       <c r="K229" t="n">
         <v>0.1500346600451917</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06471420841223632</v>
+        <v>0.06547008378811764</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1495555527582886</v>
+        <v>0.1495943596008169</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09979063752826811</v>
+        <v>0.1003169950375249</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1494943081976008</v>
+        <v>0.1494854049818395</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03130968717832294</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1509495055332721</v>
+        <v>0.05536669839100881</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03130968717832294</v>
+        <v>0.03250257071066738</v>
       </c>
       <c r="K230" t="n">
         <v>0.1509495055332721</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06621966739319948</v>
+        <v>0.06797222038449041</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1504674768604733</v>
+        <v>0.1505065203300902</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1000379220607511</v>
+        <v>0.100985602170683</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1504058588573422</v>
+        <v>0.1503969013536799</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03282378309474372</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1518643510213525</v>
+        <v>0.05534268600697818</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03282378309474372</v>
+        <v>0.03294730235766093</v>
       </c>
       <c r="K231" t="n">
         <v>0.1518643510213525</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06479376079402333</v>
+        <v>0.06488900968533454</v>
       </c>
       <c r="M231" t="n">
-        <v>0.151379400962658</v>
+        <v>0.1514186810593635</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09785040432281567</v>
+        <v>0.09724877184489361</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1513174095170837</v>
+        <v>0.1513083977255204</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03241301620049179</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.152779196509433</v>
+        <v>0.05531780344900645</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03241301620049179</v>
+        <v>0.0316002850408439</v>
       </c>
       <c r="K232" t="n">
         <v>0.152779196509433</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06666334995195636</v>
+        <v>0.06733789188300221</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1522913250648427</v>
+        <v>0.1523308417886368</v>
       </c>
       <c r="N232" t="n">
-        <v>0.102391770154438</v>
+        <v>0.1003006175710119</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1522289601768251</v>
+        <v>0.1522198940973609</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03185837580287722</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1536940419975134</v>
+        <v>0.05529205071709359</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03185837580287722</v>
+        <v>0.03251740243604258</v>
       </c>
       <c r="K233" t="n">
         <v>0.1536940419975134</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06547884218806693</v>
+        <v>0.06814693882773515</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1532032491670273</v>
+        <v>0.15324300251791</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09961321688081648</v>
+        <v>0.1008822982252553</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1531405108365666</v>
+        <v>0.1531313904692014</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03186836252272246</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1546088874855939</v>
+        <v>0.05526542781123963</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03186836252272246</v>
+        <v>0.0331988234288416</v>
       </c>
       <c r="K234" t="n">
         <v>0.1546088874855939</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06508687647475025</v>
+        <v>0.06583718387762622</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1541151732692121</v>
+        <v>0.1541551632471833</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09810245970979586</v>
+        <v>0.1037128887391625</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1540520614963081</v>
+        <v>0.1540428868410419</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03220340719003073</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1555237329736743</v>
+        <v>0.05523793473144454</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03220340719003073</v>
+        <v>0.03259936510270019</v>
       </c>
       <c r="K235" t="n">
         <v>0.1555237329736743</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0647904189790664</v>
+        <v>0.06614543136797524</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1550270973713967</v>
+        <v>0.1550673239764566</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1008433811454927</v>
+        <v>0.1004101482137517</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1549636121560496</v>
+        <v>0.1549543832128824</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03274417530157331</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1564385784617547</v>
+        <v>0.05520957147770835</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03274417530157331</v>
+        <v>0.03235744953191796</v>
       </c>
       <c r="K236" t="n">
         <v>0.1564385784617547</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0675166596903711</v>
+        <v>0.06708922617302976</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1559390214735814</v>
+        <v>0.1559794847057299</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1042514317758296</v>
+        <v>0.1047791159828648</v>
       </c>
       <c r="O236" t="n">
-        <v>0.155875162815791</v>
+        <v>0.1558658795847228</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0329145852423734</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1573534239498352</v>
+        <v>0.05518033805003104</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0329145852423734</v>
+        <v>0.03319678142365401</v>
       </c>
       <c r="K237" t="n">
         <v>0.1573534239498352</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0658151129425035</v>
+        <v>0.06772473051371558</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1568509455757661</v>
+        <v>0.1568916454350031</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1009069394591428</v>
+        <v>0.1047850216407645</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1567867134755325</v>
+        <v>0.1567773759565634</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03232235582301259</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1582682694379156</v>
+        <v>0.05515023444841263</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03232235582301259</v>
+        <v>0.03257051422033397</v>
       </c>
       <c r="K238" t="n">
         <v>0.1582682694379156</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06509516179433353</v>
+        <v>0.06855756331329355</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1577628696779508</v>
+        <v>0.1578038061642764</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1005797317749261</v>
+        <v>0.105019072625384</v>
       </c>
       <c r="O238" t="n">
-        <v>0.157698264135274</v>
+        <v>0.1576888723284038</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03359557540486027</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.159183114925996</v>
+        <v>0.05511926067285308</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03359557540486027</v>
+        <v>0.03324708764634871</v>
       </c>
       <c r="K239" t="n">
         <v>0.159183114925996</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06883740734760399</v>
+        <v>0.06973011587059347</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1586747937801355</v>
+        <v>0.1587159668935497</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1012637529344766</v>
+        <v>0.1000873943776741</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1586098147950154</v>
+        <v>0.1586003687002443</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03222051097376823</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1600979604140765</v>
+        <v>0.05508741672335243</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03222051097376823</v>
+        <v>0.03382408477007687</v>
       </c>
       <c r="K240" t="n">
         <v>0.1600979604140765</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06679601698334409</v>
+        <v>0.0685456400010083</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1595867178823202</v>
+        <v>0.159628127622823</v>
       </c>
       <c r="N240" t="n">
-        <v>0.103367580199042</v>
+        <v>0.1062113262467088</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1595213654547569</v>
+        <v>0.1595118650720848</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03248930708482509</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1610128059021569</v>
+        <v>0.05505470259991067</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03248930708482509</v>
+        <v>0.03327073040704355</v>
       </c>
       <c r="K241" t="n">
         <v>0.1610128059021569</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06747327017960009</v>
+        <v>0.06988642118685867</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1604986419845049</v>
+        <v>0.1605402883520962</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1039881186553829</v>
+        <v>0.1067577994236366</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1604329161144984</v>
+        <v>0.1604233614439253</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03226787983212336</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1619276513902373</v>
+        <v>0.05502111830252778</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03226787983212336</v>
+        <v>0.03341615831814905</v>
       </c>
       <c r="K242" t="n">
         <v>0.1619276513902373</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06861494567566592</v>
+        <v>0.06836109274855567</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1614105660866895</v>
+        <v>0.1614524490813695</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1035801987199186</v>
+        <v>0.1036975291269766</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1613444667742398</v>
+        <v>0.1613348578157658</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03292046558527216</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1628424968783178</v>
+        <v>0.05498666383120378</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03292046558527216</v>
+        <v>0.03305378040113799</v>
       </c>
       <c r="K243" t="n">
         <v>0.1628424968783178</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06644912573714779</v>
+        <v>0.06643893564288517</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1623224901888742</v>
+        <v>0.1623646098106428</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1048142393674311</v>
+        <v>0.1007083567832621</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1622560174339813</v>
+        <v>0.1622463541876062</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03349066577637944</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1637573423663982</v>
+        <v>0.05495133918593869</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03349066577637944</v>
+        <v>0.03249857770387861</v>
       </c>
       <c r="K244" t="n">
         <v>0.1637573423663982</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06717814470339592</v>
+        <v>0.06884632966708951</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1632344142910589</v>
+        <v>0.163276770539916</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1041403917185282</v>
+        <v>0.1051137125719059</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1631675680937228</v>
+        <v>0.1631578505594467</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0325847646181225</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1646721878544787</v>
+        <v>0.05491514436673246</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0325847646181225</v>
+        <v>0.03286026249210855</v>
       </c>
       <c r="K245" t="n">
         <v>0.1646721878544787</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07011001912569256</v>
+        <v>0.06860428694254783</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1641463383932436</v>
+        <v>0.1641889312691893</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1007441964173066</v>
+        <v>0.1070286747089652</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1640791187534642</v>
+        <v>0.1640693469312872</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0326960320184158</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1655870333425591</v>
+        <v>0.05487807937358512</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0326960320184158</v>
+        <v>0.03308000834976352</v>
       </c>
       <c r="K246" t="n">
         <v>0.1655870333425591</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06945786800090548</v>
+        <v>0.06713166009682034</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1650582624954283</v>
+        <v>0.1651010919984626</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1013020411351153</v>
+        <v>0.1032566300481515</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1649906694132057</v>
+        <v>0.1649808433031277</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03296621193863153</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1665018788306395</v>
+        <v>0.05484014420649667</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03296621193863153</v>
+        <v>0.03310029456169968</v>
       </c>
       <c r="K247" t="n">
         <v>0.1665018788306395</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0710448094173344</v>
+        <v>0.06988190672874664</v>
       </c>
       <c r="M247" t="n">
-        <v>0.165970186597613</v>
+        <v>0.1660132527277359</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1053877257683324</v>
+        <v>0.1045135524587307</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1659022200729472</v>
+        <v>0.1658923396749682</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03357064787134389</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.16741672431872</v>
+        <v>0.05480133886546712</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03357064787134389</v>
+        <v>0.03379699765275795</v>
       </c>
       <c r="K248" t="n">
         <v>0.16741672431872</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06814001547409274</v>
+        <v>0.06888795177991441</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1668821106997977</v>
+        <v>0.1669254134570091</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1051933435157351</v>
+        <v>0.1018284263032436</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1668137707326886</v>
+        <v>0.1668038360468087</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03389194594886424</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1683315698068004</v>
+        <v>0.05476166335049644</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03389194594886424</v>
+        <v>0.03344067214909728</v>
       </c>
       <c r="K249" t="n">
         <v>0.1683315698068004</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06812514138897025</v>
+        <v>0.07083779079744254</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1677940348019824</v>
+        <v>0.1678375741862824</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1065397959355329</v>
+        <v>0.1020945518805317</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1677253213924301</v>
+        <v>0.1677153324186491</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03338372628290788</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1692464152948809</v>
+        <v>0.05472111766158463</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03338372628290788</v>
+        <v>0.03412987062627997</v>
       </c>
       <c r="K250" t="n">
         <v>0.1692464152948809</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07069557978506971</v>
+        <v>0.06839734726384819</v>
       </c>
       <c r="M250" t="n">
-        <v>0.168705958904167</v>
+        <v>0.1687497349155557</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1080723400171135</v>
+        <v>0.1030794502950071</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1686368720521716</v>
+        <v>0.1686268287904897</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03420166725616373</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1701612607829613</v>
+        <v>0.05467970179873173</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03420166725616373</v>
+        <v>0.0342107567047947</v>
       </c>
       <c r="K251" t="n">
         <v>0.1701612607829613</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.06843397578579527</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1696178830063517</v>
+        <v>0.1696618956448289</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1040118442262286</v>
+        <v>0.1035154124841634</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1695484227119131</v>
+        <v>0.1695383251623301</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03309633945045984</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1710761062710417</v>
+        <v>0.05463741576193771</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03309633945045984</v>
+        <v>0.03371789124226522</v>
       </c>
       <c r="K252" t="n">
         <v>0.1710761062710417</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06943356293420835</v>
+        <v>0.06830249449622952</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1705298071085364</v>
+        <v>0.1705740563741023</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1029811897585571</v>
+        <v>0.1064637263067568</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1704599733716545</v>
+        <v>0.1704498215341706</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0343419345284041</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1719909517591222</v>
+        <v>0.05459425955120258</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0343419345284041</v>
+        <v>0.03347687916778236</v>
       </c>
       <c r="K253" t="n">
         <v>0.1719909517591222</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07183125208879043</v>
+        <v>0.07051942024985014</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1714417312107211</v>
+        <v>0.1714862171033755</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1052184256409761</v>
+        <v>0.104762160972745</v>
       </c>
       <c r="O253" t="n">
-        <v>0.171371524031396</v>
+        <v>0.1713613179060111</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03453961109456345</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1729057972472026</v>
+        <v>0.05455023316652632</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03453961109456345</v>
+        <v>0.0340356884200313</v>
       </c>
       <c r="K254" t="n">
         <v>0.1729057972472026</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06979326344176767</v>
+        <v>0.07033897775631068</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1723536553129058</v>
+        <v>0.1723983778326488</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1075605790626801</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1722830746911374</v>
+        <v>0.1722728142778516</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03362480420471149</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.173820642735283</v>
+        <v>0.05450533660790896</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03362480420471149</v>
+        <v>0.03432283084242597</v>
       </c>
       <c r="K255" t="n">
         <v>0.173820642735283</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06803228213603127</v>
+        <v>0.07084345198055816</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1732655794150905</v>
+        <v>0.1733105385619221</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1059421365141059</v>
+        <v>0.1045075400150517</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1731946253508789</v>
+        <v>0.1731843106496921</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03464722668152848</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1747354882233635</v>
+        <v>0.05445956987535049</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03464722668152848</v>
+        <v>0.03348144262723519</v>
       </c>
       <c r="K256" t="n">
         <v>0.1747354882233635</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07140180582019631</v>
+        <v>0.07269744751792409</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1741775035172752</v>
+        <v>0.1742226992911953</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1042218365567707</v>
+        <v>0.1076006563800029</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1741061760106204</v>
+        <v>0.1740958070215325</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1756503337114439</v>
+        <v>0.0544129329688509</v>
       </c>
       <c r="J257" t="n">
         <v>0.03493632924887161</v>
@@ -14571,400 +14571,1800 @@
         <v>0.1756503337114439</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07159798334098488</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1750894276194599</v>
+        <v>0.1751348600204686</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1042927371684873</v>
+        <v>0.1073022376748746</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1750177266703619</v>
+        <v>0.175007303393373</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03351304937029376</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1765651791995244</v>
+        <v>0.05436542588841018</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03351304937029376</v>
+        <v>0.03437187470082377</v>
       </c>
       <c r="K258" t="n">
         <v>0.1765651791995244</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06854560194377926</v>
+        <v>0.0724043532598132</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1760013517216445</v>
+        <v>0.1760470207497419</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1080911060477095</v>
+        <v>0.1051088432680603</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1759292773301033</v>
+        <v>0.1759187997652135</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03461944930152318</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1774800246876048</v>
+        <v>0.05431704863402836</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03461944930152318</v>
+        <v>0.03483080770221637</v>
       </c>
       <c r="K259" t="n">
         <v>0.1774800246876048</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06892667765354582</v>
+        <v>0.07217746189379023</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1769132758238292</v>
+        <v>0.1769591814790152</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1050143424242163</v>
+        <v>0.106668081750977</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1768408279898448</v>
+        <v>0.176830296137054</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0350412277251127</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1783948701756852</v>
+        <v>0.05426780120570542</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0350412277251127</v>
+        <v>0.03391420957735451</v>
       </c>
       <c r="K260" t="n">
         <v>0.1783948701756852</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07030353705239017</v>
+        <v>0.07087971409430874</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1778251999260139</v>
+        <v>0.1778713422082884</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1043841071227442</v>
+        <v>0.1061241486340318</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1777523786495863</v>
+        <v>0.1777417925088945</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0345682891245863</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1793097156637657</v>
+        <v>0.05421768360344139</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0345682891245863</v>
+        <v>0.03407374478923299</v>
       </c>
       <c r="K261" t="n">
         <v>0.1793097156637657</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07011076535997021</v>
+        <v>0.0724475857425213</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1787371240281986</v>
+        <v>0.1787835029375617</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1112848765712409</v>
+        <v>0.1063242442516231</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1786639293093277</v>
+        <v>0.178653288880735</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03422131533994179</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1802245611518461</v>
+        <v>0.05416669582723622</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03422131533994179</v>
+        <v>0.03408566874377859</v>
       </c>
       <c r="K262" t="n">
         <v>0.1802245611518461</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07068183755315702</v>
+        <v>0.07340915742942192</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1796490481303833</v>
+        <v>0.179695663666835</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1097048708563569</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1795754799690692</v>
+        <v>0.1795647852525754</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03506321062190851</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1811394066399265</v>
+        <v>0.05411483787708995</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03506321062190851</v>
+        <v>0.03413826144317315</v>
       </c>
       <c r="K263" t="n">
         <v>0.1811394066399265</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07060997027454444</v>
+        <v>0.07207390572342057</v>
       </c>
       <c r="M263" t="n">
-        <v>0.180560972232568</v>
+        <v>0.1806078243961083</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1115787087798888</v>
+        <v>0.110430341202821</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1804870306288107</v>
+        <v>0.180476281624416</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03418039591855665</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.182054252128007</v>
+        <v>0.05406210975300255</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03418039591855665</v>
+        <v>0.03477495022329875</v>
       </c>
       <c r="K264" t="n">
         <v>0.182054252128007</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07143638981550557</v>
+        <v>0.07081454193570419</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1814728963347526</v>
+        <v>0.1815199851253816</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1082936275773269</v>
+        <v>0.1076085511445382</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1813985812885521</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1813877779962564</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05406210975300255</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05402956083086077</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05399788208266008</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05396707350840052</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05393713510808205</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05390806688170472</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05387986882926849</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05385254095077338</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05382608324621939</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05380049571560649</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05377577835893475</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05375193117620408</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05372895416741454</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05370684733256613</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0536856106716588</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05366524418469262</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05364574787166752</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05362712173258357</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05360936576744071</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05359247997623897</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05357646435897834</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05356131891565882</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05354704364628043</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05353363855084314</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05352110362934698</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05350943888179191</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05349864430817798</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05348871990850515</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05347966568277344</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05347148163098284</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05346416775313335</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05345772404922498</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05345215051925772</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05344744716323158</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05344361398114655</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05344065097300264</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05343855813879984</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05343733547853816</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05343698299221758</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05343750067983812</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05343888854139977</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05344114657690256</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05344427478634643</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05344827316973143</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05345314172705755</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05345888045832477</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.0534654893635331</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05347296844268257</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05348131769577315</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05349053712280482</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05350062672377762</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05351158649869153</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05352341644754657</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05353611657034269</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05354968686707995</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05356412733775832</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0535794379823778</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0535956188009384</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05361266979344011</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05363059095988293</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05364938230026687</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05366904381459194</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0536895755028581</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05371097736506538</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05373324940121377</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05375639161130329</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05378040399533391</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05380528655330565</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05383103928521851</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05385766219107246</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05388515527086755</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05391351852460374</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05394275195228106</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05397285555389947</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05400382932945901</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05403567327895967</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05406838740240143</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05410197169978431</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05413642617110831</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.0541717508163734</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05420794563557963</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05424501062872697</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05428294579581542</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05432175113684499</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05436142665181567</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05440197234072745</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05444338820358036</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05448567424037437</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05452883045110951</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05457285683578577</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05461775339440313</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05466352012696161</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05471015703346121</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0547576641139019</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05480604136828373</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05485528879660667</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05490540639887071</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05495639417507587</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05500825212522215</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07488759472277354</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.0568822676105892</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07437316423408592</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05870355497186887</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07387780295083006</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06052484233314854</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07340170714351965</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0623461296944282</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.07294507308266833</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06416741705570787</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07250809703878977</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06598870441698752</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07209097528239762</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06780999177826719</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.07169390408400558</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06963127913954685</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07131707971412729</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07145256650082653</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.07096069844327643</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07327385386210619</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.07062495654196665</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07509514122338586</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.07031005028071162</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07691642858466552</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.07001617593002503</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0787377159459452</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.0697435297604205</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08055900330722486</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.06949230804241173</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08238029066850452</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.06926270704651237</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08420157802978419</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0690549230432361</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08602286539106385</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.06886915230309656</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08784415275234352</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.06870559109660744</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08966544011362317</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.06856443569428237</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09148672747490284</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.06844588236663507</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09330801483618251</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.06835012738417917</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09512930219746217</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.06827736701742833</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09695058955874185</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.06822779753689623</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09877187692002151</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.06820161521309653</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1005931642813012</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.06820014743157582</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1024144516425808</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.06823409996986449</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1042357390038605</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0683050752022822</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1060570263651402</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.06841181736415015</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1078783137264198</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.06855307069078952</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1096996010876995</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0687275794175215</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1115208884489792</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.06893408777966725</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1133421758102588</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.06917134001254799</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1151634631715385</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.06943808035148485</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1169847505328182</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.06973305303179907</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1188060378940978</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.07005500228881179</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1206273252553775</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.07040267235784421</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1224486126166572</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.07077480747421749</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1242698999779368</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.07117015187325285</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1260911873392165</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.07158744979027146</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1279124747004961</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.07202544546059446</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1297337620617758</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.0724828831195431</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1315550494230555</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0729585070024385</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1333763367843351</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0734510613446019</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1351976241456148</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.07395929038135443</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1370189115068945</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.07448193834801732</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1388401988681741</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.07501774947991172</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1406614862294538</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.07556546801235881</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1424827735907335</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.07612383818067979</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1443040609520131</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.07669160422019583</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1461253483132928</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.07726751036622813</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1479466356745725</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.07785030085409786</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.07843871991912618</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1515892103971318</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.07903151179663431</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1534104977584115</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.07962742072194343</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1552317851196911</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.08022519093037467</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1570530724809708</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.08082356665724927</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1588743598422505</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.08142129213788839</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1606956472035301</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.08201711160761321</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1625169345648098</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.08260976930174492</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1643382219260895</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.08319800945560471</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1661595092873691</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.08378057630451377</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1679807966486488</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.08435621408379321</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1698020840099284</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.0849236670287643</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1716233713712081</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.08548167937474821</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1734446587324878</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.08602899535706604</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1752659460937674</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.08656435921103908</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1770872334550471</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.08708651517198845</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1789085208163267</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.08759420747523536</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1807298081776064</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.08808618035610097</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1825510955388861</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.08856117804990651</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1843723829001658</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.08901824740783898</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1861936702614455</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.08946898716264409</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1880149576227251</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.08991986006556532</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1898362449840048</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09037086369213043</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1916575323452844</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.09082199561786727</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1934788197065641</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.09127325341830364</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1953001070678438</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.09172463466896733</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1971213944291234</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.09217613694538615</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1989426817904031</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.09262775782308794</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2007639691516828</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0930794948776005</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2025852565129624</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.09353134568445165</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2044065438742421</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.09398330781916917</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2062278312355217</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.0944353788572809</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2080491185968014</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.09488755637431462</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2098704059580811</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.09533983794579817</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2116916933193607</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.09579222114725935</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2135129806806404</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.09624470355422599</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.21533426804192</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.09669728274222586</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2171555554031997</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.09714995628678685</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2189768427644794</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.09760272176343671</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2207981301257591</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.09805557674770321</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2226194174870388</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.09850851881511424</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2244407048483184</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.0989615455411976</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2262619922095981</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.09941465450148107</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2280832795708777</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.09986784327149245</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2299045669321574</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.1003211094267596</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2317258542934371</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2335471416547167</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2353684290159964</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
